--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\bishe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
     <sheet name="组合信息" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="363">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +199,1057 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节循环移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定算法优化支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES：X2有限域乘法优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC6:*2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子在算法中出现的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>总频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级后缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级前缀序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA C2 MACGUFFIN </t>
+  </si>
+  <si>
+    <t>7:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST TEA C2 </t>
+  </si>
+  <si>
+    <t>XOR SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TWOFISH RC6 TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 TEA XTEA M6 </t>
+  </si>
+  <si>
+    <t>SH MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 SERPENT XTEA </t>
+  </si>
+  <si>
+    <t>5:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6 C2 </t>
+  </si>
+  <si>
+    <t>2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 SERPENT M6 NUSH </t>
+  </si>
+  <si>
+    <t>4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT SH</t>
+  </si>
+  <si>
+    <t>SM4 SERPENT C2</t>
+  </si>
+  <si>
+    <t>SH AND</t>
+  </si>
+  <si>
+    <t>SIMON CS_CIPHER</t>
+  </si>
+  <si>
+    <t>2:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 XTEA </t>
+  </si>
+  <si>
+    <t>LUT SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 SERPENT C2 </t>
+  </si>
+  <si>
+    <t>XOR XOR SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH SIMON </t>
+  </si>
+  <si>
+    <t>SH AND XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON CS_CIPHER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA RC6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM XOR</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR MM</t>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA SPECK LUCIFER C2 M6 NUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA SPECK C2 M6 NUSH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS MAS XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TWOFISH TEA C2 M6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA LUCIFER C2 NUSH </t>
+  </si>
+  <si>
+    <t>9:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR SH MAS</t>
+  </si>
+  <si>
+    <t>RC5 RC6 XTEA M6</t>
+  </si>
+  <si>
+    <t>MAS MAS</t>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR XOR</t>
+  </si>
+  <si>
+    <t>BLOWFISH SEED TWOFISH SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5 RC6 SERPENT XTEA M6 </t>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS XOR MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAST128 XTEA NUSH </t>
+  </si>
+  <si>
+    <t>MAS SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR MAS MAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 TEA C2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOST TEA C2</t>
+  </si>
+  <si>
+    <t>LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT LUCIFER CLEFIA ARIA C2 PRESENT MACGUFFIN SQUARE ICE SHARK CS_CIPHER GRAND_CRU Q E2 KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA CAST128 SEED SKIPJECT LUCIFER MACGUFFIN CS_CIPHER Q E2 KHAZAD </t>
+  </si>
+  <si>
+    <t>10：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT LUCIFER E2 </t>
+  </si>
+  <si>
+    <t>LUT XOR XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SKIPJECT E2 </t>
+  </si>
+  <si>
+    <t>4:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT CLEFIA ARIA C2 PRESENT MACGUFFIN ICE SHARK CS_CIPHER GRAND_CRU Q E2 HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT CLEFIA E2 </t>
+  </si>
+  <si>
+    <t>XOR XOR XOR LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED SM4 SKIPJECT E2 </t>
+  </si>
+  <si>
+    <t>4：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT SH XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SM4 C2 </t>
+  </si>
+  <si>
+    <t>MAS LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST SEED LUCIFER </t>
+  </si>
+  <si>
+    <t>3:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR MAS LUT</t>
+  </si>
+  <si>
+    <t>LUT BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES GRAND_CRU </t>
+  </si>
+  <si>
+    <t>2:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT XOR SH</t>
+  </si>
+  <si>
+    <t>MACGUFFIN CS_CIPHER</t>
+  </si>
+  <si>
+    <t>SH LUT</t>
+  </si>
+  <si>
+    <t>CAST128 TWOFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES TWOFISH CLEFIA ARIA SQUARE SHARK GRAND_CRU KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEFIA </t>
+  </si>
+  <si>
+    <t>BR GFM</t>
+  </si>
+  <si>
+    <t>2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT GFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEFIA ARIA SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR GFM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAZAD </t>
+  </si>
+  <si>
+    <t>LUT GFM（1.32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+  </si>
+  <si>
+    <t>7:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>DES PRESENT SQUARE ICE GRAND_CRU Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER XOR</t>
+  </si>
+  <si>
+    <t>DES PRESENT ICE GRAND_CRU Q</t>
+  </si>
+  <si>
+    <t>5:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER XOR BR</t>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES SQUARE ICE Q </t>
+  </si>
+  <si>
+    <t>4:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR BR PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q </t>
+  </si>
+  <si>
+    <t>BR PER</t>
+  </si>
+  <si>
+    <t>1:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE </t>
+  </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES GRAND_CRU</t>
+  </si>
+  <si>
+    <t>2:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR GFM XOR</t>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR XOR XOR LUT</t>
+  </si>
+  <si>
+    <t>CAMELLIA</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SPECK Q </t>
+  </si>
+  <si>
+    <t>3:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SPECK </t>
+  </si>
+  <si>
+    <t>XOR XOR XOR BR</t>
+  </si>
+  <si>
+    <t>BR XOR</t>
+  </si>
+  <si>
+    <t>1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR XOR XOR</t>
+  </si>
+  <si>
+    <t>2:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR LUT BR</t>
+  </si>
+  <si>
+    <t>BR MAS</t>
+  </si>
+  <si>
+    <t>SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT SPECK SIMON LUCIFER CLEFIA E2 </t>
+  </si>
+  <si>
+    <t>11:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR XOR XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT SIMON E2 </t>
+  </si>
+  <si>
+    <t>XOR XOR XOR XOR</t>
+  </si>
+  <si>
+    <t>SM4 SKIPJECT E2</t>
+  </si>
+  <si>
+    <t>3:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:
+1:
+19:
+1:
+1:
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:
+1:
+3:
+4:
+1:
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucifer:PBOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES DES IDEA BLOWFISH CAMELLIA CAST128 GOST RC5 SEED TWOFISH SM4 RC6 SERPENT TEA XTEA SKIPJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES CAMELLIA SPECK GRAND_CRU Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128 SERPENT M6 NUSH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-&gt;XOR</t>
+  </si>
+  <si>
+    <t>SH-&gt;MAS</t>
+  </si>
+  <si>
+    <t>SH-&gt;AND</t>
+  </si>
+  <si>
+    <t>MM-&gt;XOR</t>
+  </si>
+  <si>
+    <t>MAS-&gt;XOR</t>
+  </si>
+  <si>
+    <t>MAS-&gt;MAS</t>
+  </si>
+  <si>
+    <t>MAS-&gt;SH</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>LUT-&gt;XOR</t>
+  </si>
+  <si>
+    <t>LUT-&gt;SH</t>
+  </si>
+  <si>
+    <t>LUT-&gt;BR</t>
+  </si>
+  <si>
+    <t>GFM-&gt;XOR</t>
+  </si>
+  <si>
+    <t>PER-&gt;XOR</t>
+  </si>
+  <si>
+    <t>BR-&gt;GFM</t>
+  </si>
+  <si>
+    <t>BR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>BR-&gt;MAS</t>
+  </si>
+  <si>
+    <t>BR-&gt;PER</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>SH-&gt;XOR-&gt;MAS</t>
+  </si>
+  <si>
+    <t>SH-&gt;XOR-&gt;SH</t>
+  </si>
+  <si>
+    <t>SH-&gt;MAS-&gt;XOR</t>
+  </si>
+  <si>
+    <t>SH-&gt;AND-&gt;XOR</t>
+  </si>
+  <si>
+    <t>MAS-&gt;MAS-&gt;XOR</t>
+  </si>
+  <si>
+    <t>MAS-&gt;XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>MAS-&gt;XOR-&gt;SH</t>
+  </si>
+  <si>
+    <t>MAS-&gt;XOR-&gt;MAS</t>
+  </si>
+  <si>
+    <t>LUT-&gt;XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>GFM-&gt;XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>PER-&gt;XOR-&gt;BR</t>
+  </si>
+  <si>
+    <t>BR-&gt;GFM-&gt;XOR</t>
+  </si>
+  <si>
+    <t>BR-&gt;XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR-&gt;XOR</t>
+  </si>
+  <si>
+    <t>XOR-&gt;SH</t>
+  </si>
+  <si>
+    <t>XOR-&gt;MM</t>
+  </si>
+  <si>
+    <t>XOR-&gt;MAS</t>
+  </si>
+  <si>
+    <t>SH-&gt;LUT</t>
+  </si>
+  <si>
+    <t>XOR-&gt;BR</t>
+  </si>
+  <si>
+    <t>XOR-&gt;LUT-&gt;SH</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR-&gt;SH</t>
+  </si>
+  <si>
+    <t>XOR-&gt;SH-&gt;MAS</t>
+  </si>
+  <si>
+    <t>XOR-&gt;MAS-&gt;MAS</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR-&gt;LUT</t>
+  </si>
+  <si>
+    <t>XOR-&gt;MAS-&gt;LUT</t>
+  </si>
+  <si>
+    <t>XOR-&gt;LUT-&gt;GFM</t>
+  </si>
+  <si>
+    <t>XOR-&gt;BR-&gt;PER</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR-&gt;BR</t>
+  </si>
+  <si>
+    <t>XOR-&gt;LUT-&gt;BR</t>
+  </si>
+  <si>
+    <t>6/36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT-&gt;SH-&gt;XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT-&gt;XOR-&gt;SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA、BLOWFISH、CAST128、RC5、SEED、TWOFISH、TEA、XTEA、SPECK、C2、M6、NUSH、</t>
+  </si>
+  <si>
+    <t>SH-&gt;MAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR-&gt;LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAS-&gt;LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-&gt;GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT-&gt;GFM（1.32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR-&gt;GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR-&gt;PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER-&gt;PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-&gt;PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">控制信号        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S盒替换单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control[xx:xx]</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作级联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR-&gt;XOR-&gt;XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>64-64：
 32-48：
 32-32：
@@ -207,840 +1259,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节循环移位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定算法优化支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AES：X2有限域乘法优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC6:*2+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算子在算法中出现的频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算子组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>总频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级后缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级后缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级后缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级前缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级前缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级前缀序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAST128 GOST RC5 TWOFISH SM4 RC6 SERPENT TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER NUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SM4 RC6 SERPENT TEA C2 MACGUFFIN </t>
-  </si>
-  <si>
-    <t>7:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH XOR MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST TEA C2 </t>
-  </si>
-  <si>
-    <t>XOR SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 TWOFISH RC6 TEA XTEA SIMON C2 MACGUFFIN M6 CS_CIPHER </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 TEA XTEA M6 </t>
-  </si>
-  <si>
-    <t>SH MAS</t>
-  </si>
-  <si>
-    <t>5:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH XOR SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC6 C2 </t>
-  </si>
-  <si>
-    <t>2:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 SERPENT M6 NUSH </t>
-  </si>
-  <si>
-    <t>4:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR LUT SH</t>
-  </si>
-  <si>
-    <t>SM4 SERPENT C2</t>
-  </si>
-  <si>
-    <t>SH AND</t>
-  </si>
-  <si>
-    <t>SIMON CS_CIPHER</t>
-  </si>
-  <si>
-    <t>2:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH MAS XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 XTEA </t>
-  </si>
-  <si>
-    <t>LUT SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SM4 SERPENT C2 </t>
-  </si>
-  <si>
-    <t>XOR XOR SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWOFISH SIMON </t>
-  </si>
-  <si>
-    <t>SH AND XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON CS_CIPHER </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEA RC6 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM XOR</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR MM</t>
-  </si>
-  <si>
-    <t>1:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDEA BLOWFISH CAST128 GOST RC5 SEED TWOFISH RC6 SERPENT TEA XTEA SPECK LUCIFER C2 M6 NUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEA BLOWFISH CAST128 RC5 SEED TWOFISH TEA XTEA SPECK C2 M6 NUSH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS MAS XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 TWOFISH TEA C2 M6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAST128 GOST SEED TEA XTEA LUCIFER C2 NUSH </t>
-  </si>
-  <si>
-    <t>9:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR SH MAS</t>
-  </si>
-  <si>
-    <t>RC5 RC6 XTEA M6</t>
-  </si>
-  <si>
-    <t>MAS MAS</t>
-  </si>
-  <si>
-    <t>5:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR XOR</t>
-  </si>
-  <si>
-    <t>BLOWFISH SEED TWOFISH SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 RC6 SERPENT XTEA M6 </t>
-  </si>
-  <si>
-    <t>5:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAS XOR MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAST128 XTEA NUSH </t>
-  </si>
-  <si>
-    <t>MAS SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR MAS MAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAST128 TEA C2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOST TEA C2</t>
-  </si>
-  <si>
-    <t>LUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA CAST128 GOST SEED TWOFISH SM4 SERPENT SKIPJECT LUCIFER CLEFIA ARIA C2 PRESENT MACGUFFIN SQUARE ICE SHARK CS_CIPHER GRAND_CRU Q E2 KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA CAST128 SEED SKIPJECT LUCIFER MACGUFFIN CS_CIPHER Q E2 KHAZAD </t>
-  </si>
-  <si>
-    <t>10：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SEED SKIPJECT LUCIFER E2 </t>
-  </si>
-  <si>
-    <t>LUT XOR XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SEED SKIPJECT E2 </t>
-  </si>
-  <si>
-    <t>4:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES DES BLOWFISH CAMELLIA SEED SM4 SERPENT SKIPJECT CLEFIA ARIA C2 PRESENT MACGUFFIN ICE SHARK CS_CIPHER GRAND_CRU Q E2 HIEROCRYPT_L1 HIEROCRYPT_3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAMELLIA SEED SM4 SKIPJECT CLEFIA E2 </t>
-  </si>
-  <si>
-    <t>XOR XOR XOR LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEED SM4 SKIPJECT E2 </t>
-  </si>
-  <si>
-    <t>4：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT SH XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SM4 C2 </t>
-  </si>
-  <si>
-    <t>MAS LUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST SEED LUCIFER </t>
-  </si>
-  <si>
-    <t>3:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR MAS LUT</t>
-  </si>
-  <si>
-    <t>LUT BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES GRAND_CRU </t>
-  </si>
-  <si>
-    <t>2:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT XOR SH</t>
-  </si>
-  <si>
-    <t>MACGUFFIN CS_CIPHER</t>
-  </si>
-  <si>
-    <t>SH LUT</t>
-  </si>
-  <si>
-    <t>CAST128 TWOFISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AES TWOFISH CLEFIA ARIA SQUARE SHARK GRAND_CRU KHAZAD HIEROCRYPT_L1 HIEROCRYPT_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GFM XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GFM XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEFIA </t>
-  </si>
-  <si>
-    <t>BR GFM</t>
-  </si>
-  <si>
-    <t>2:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR LUT GFM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEFIA ARIA SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XOR GFM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHAZAD </t>
-  </si>
-  <si>
-    <t>LUT GFM（1.32）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TWOFISH CLEFIA ARIA SQUARE SHARK HIEROCRYPT_L1 HIEROCRYPT_3 </t>
-  </si>
-  <si>
-    <t>7:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
     <t>DES PRESENT SQUARE ICE GRAND_CRU Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER XOR</t>
-  </si>
-  <si>
-    <t>5:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER XOR BR</t>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DES SQUARE ICE Q </t>
-  </si>
-  <si>
-    <t>4:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR BR PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q </t>
-  </si>
-  <si>
-    <t>BR PER</t>
-  </si>
-  <si>
-    <t>1:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICE </t>
-  </si>
-  <si>
-    <t>BR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR GFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AES GRAND_CRU</t>
-  </si>
-  <si>
-    <t>2:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR GFM XOR</t>
-  </si>
-  <si>
-    <t>AES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR XOR XOR LUT</t>
-  </si>
-  <si>
-    <t>CAMELLIA</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SPECK Q </t>
-  </si>
-  <si>
-    <t>3:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SPECK </t>
-  </si>
-  <si>
-    <t>XOR XOR XOR BR</t>
-  </si>
-  <si>
-    <t>BR XOR</t>
-  </si>
-  <si>
-    <t>1:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR XOR XOR</t>
-  </si>
-  <si>
-    <t>2:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR LUT BR</t>
-  </si>
-  <si>
-    <t>BR MAS</t>
-  </si>
-  <si>
-    <t>SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级级联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR XOR XOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMELLIA SEED SM4 SKIPJECT SIMON E2 </t>
-  </si>
-  <si>
-    <t>XOR XOR XOR XOR</t>
-  </si>
-  <si>
-    <t>SM4 SKIPJECT E2</t>
-  </si>
-  <si>
-    <t>3:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:
-1:
-19:
-1:
-1:
-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:
-1:
-3:
-4:
-1:
-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucifer:PBOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AES CAMELLIA SPECK GRAND_CRU Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5 RC6 SERPENT XTEA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH XOR MAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AES DES IDEA BLOWFISH CAMELLIA CAST128 GOST RC5 SEED TWOFISH SM4 RC6 SERPENT TEA XTEA SKIPJECT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOWFISH CAMELLIA SEED TWOFISH SM4 SKIPJECT SPECK SIMON LUCIFER CLEFIA E2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DES PRESENT ICE GRAND_CRU Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAST128</t>
-  </si>
-  <si>
-    <t>SERPENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUSH   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC5    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC6    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEA    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XTEA   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOST   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.     </t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>111101</t>
+  </si>
+  <si>
+    <t>111110</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入A[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入A[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入A[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入A[31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入B[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入B[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入B[29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入B[30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入B[31]</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1428,6 +1708,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,6 +1839,45 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,6 +2007,163 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2162736</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14280776"/>
+          <a:ext cx="6391836" cy="3166222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>XOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：抑或</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MAS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：模乘</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GFM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：有限域乘法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：字节移位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：查找表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：置换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表格整理了每一种算子的前缀算子和后缀算子，以及出现的概率，在缺定架构时根据这些信息确定一种算子前后的功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2104,7 +2586,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -2123,53 +2605,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="53"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2188,11 +2670,11 @@
         <v>14</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2689,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2224,11 +2706,11 @@
         <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2245,11 +2727,11 @@
         <v>14</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2261,22 +2743,22 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2286,18 +2768,18 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2316,7 +2798,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
@@ -2325,11 +2807,11 @@
         <v>14</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -2355,11 +2837,11 @@
         <v>14</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2389,10 +2871,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -2400,7 +2882,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>39</v>
@@ -2409,14 +2891,14 @@
         <v>28</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -2430,35 +2912,35 @@
         <v>28</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="49"/>
+      <c r="A15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="51"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -2469,15 +2951,15 @@
         <v>14</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="13">
         <v>8</v>
@@ -2490,16 +2972,16 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="13">
         <v>32</v>
@@ -2515,13 +2997,13 @@
         <v>13</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C18" s="47">
         <v>8</v>
@@ -2568,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2599,136 +3081,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84"/>
+      <c r="B2" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="87"/>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="D2" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="85" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="85" t="s">
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="87"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="T3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
@@ -2738,29 +3220,29 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="C4" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="D4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>254</v>
-      </c>
       <c r="H4" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="25">
         <v>0.13541666666666666</v>
@@ -2769,19 +3251,19 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="Q4" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="R4" s="27">
         <v>0.17708333333333334</v>
@@ -2797,14 +3279,14 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="79"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>78</v>
@@ -2828,7 +3310,7 @@
         <v>83</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="P5" s="26" t="s">
         <v>85</v>
@@ -2850,9 +3332,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="24" t="s">
         <v>87</v>
       </c>
@@ -2903,9 +3385,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -2938,9 +3420,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -2967,13 +3449,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -3014,9 +3496,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -3043,9 +3525,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -3072,9 +3554,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -3101,9 +3583,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -3130,13 +3612,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3195,9 +3677,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="24" t="s">
         <v>120</v>
       </c>
@@ -3220,7 +3702,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>124</v>
@@ -3248,9 +3730,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3261,10 +3743,10 @@
         <v>129</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="I16" s="25">
         <v>0.17777777777777778</v>
@@ -3301,9 +3783,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="24" t="s">
         <v>114</v>
       </c>
@@ -3329,7 +3811,7 @@
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>134</v>
@@ -3348,9 +3830,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -3377,13 +3859,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="74" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -3448,9 +3930,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="24" t="s">
         <v>92</v>
       </c>
@@ -3513,9 +3995,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="24" t="s">
         <v>160</v>
       </c>
@@ -3560,9 +4042,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="24" t="s">
         <v>133</v>
       </c>
@@ -3595,9 +4077,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -3624,13 +4106,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="74" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -3683,9 +4165,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3718,9 +4200,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3753,9 +4235,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3782,9 +4264,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -3811,29 +4293,29 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="72" t="s">
+      <c r="B29" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="74" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I29" s="25">
         <v>4.5833333333333337E-2</v>
@@ -3842,19 +4324,19 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R29" s="27">
         <v>4.5833333333333337E-2</v>
@@ -3870,9 +4352,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -3883,13 +4365,13 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="N30" s="26" t="s">
-        <v>196</v>
-      </c>
       <c r="O30" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -3905,9 +4387,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -3918,13 +4400,13 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -3940,9 +4422,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -3969,9 +4451,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -3998,68 +4480,68 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="72" t="s">
+      <c r="A34" s="71" t="s">
         <v>202</v>
       </c>
+      <c r="B34" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>203</v>
+      </c>
       <c r="D34" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N34" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R34" s="27">
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U34" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V34" s="28"/>
       <c r="W34" s="28"/>
@@ -4069,26 +4551,26 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -4100,10 +4582,10 @@
         <v>161</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="26" t="s">
         <v>161</v>
@@ -4122,14 +4604,14 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -4155,14 +4637,14 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -4188,9 +4670,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -4221,17 +4703,17 @@
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="36"/>
       <c r="J39" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
@@ -4253,40 +4735,40 @@
     </row>
     <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I40" s="38">
         <v>0.27499999999999997</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M40" s="39"/>
       <c r="N40" s="39"/>
@@ -4450,108 +4932,6 @@
       <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
@@ -4585,7 +4965,7 @@
     <mergeCell ref="C29:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -4594,4 +4974,2199 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95:M108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="97"/>
+    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18"/>
+    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9" style="97"/>
+    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9" style="46"/>
+    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84"/>
+      <c r="B2" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="93">
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="99">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="93">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="99">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="93">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="99">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="72"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="99">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="93">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="99">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="99">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="93">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="99">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="93">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="99">
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="93">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="99">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="93">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="99">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="78"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="79"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="25">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" s="99">
+        <v>2E-3</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="72"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="99">
+        <v>1E-3</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="O26" s="100">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="72"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="93">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="25">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="99">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="R29" s="27">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="72"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="99">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="99">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="93">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" s="99">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="R34" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="93">
+        <v>2E-3</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="99">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="93"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="93"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="73"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="95">
+        <v>3.0555555555555557E-3</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="N75" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" s="18"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L76" s="103">
+        <v>1</v>
+      </c>
+      <c r="M76" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="46"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="O77" s="18"/>
+      <c r="P77" s="46"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L78" s="104">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M78" s="97"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="46"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L79" s="104">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M79" s="97"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="46"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="L80" s="97">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K81" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="L81" s="97">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K87" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K88" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K89" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K90" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K91" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K92" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K93" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K96" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K97" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K98" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M98" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K99" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K100" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K101" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K102" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K103" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K104" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K105" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K106" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="M106" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K107" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M107" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K108" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M108" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\bishe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
     <sheet name="组合信息" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="449">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,12 +1324,278 @@
   <si>
     <t xml:space="preserve"> 输入B[31]</t>
   </si>
+  <si>
+    <t>功能单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AES          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOWFISH     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMELLIA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST128      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOST         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEED         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWOFISH      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPENT      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEA          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTEA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIPJECT     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIFER      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEFIA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENT      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACGUFFIN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARK        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_CIPHER    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUSH         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAND_CRU    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAZAD       </t>
+  </si>
+  <si>
+    <t>HIEROCRYPT_L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIEROCRYPT_3 </t>
+  </si>
+  <si>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>功能单元使用</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>GFM</t>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>BLOWFISH</t>
+  </si>
+  <si>
+    <t>CAST128</t>
+  </si>
+  <si>
+    <t>GOST</t>
+  </si>
+  <si>
+    <t>RC5</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>TWOFISH</t>
+  </si>
+  <si>
+    <t>SM4</t>
+  </si>
+  <si>
+    <t>RC6</t>
+  </si>
+  <si>
+    <t>SERPENT</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>XTEA</t>
+  </si>
+  <si>
+    <t>SKIPJECT</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>LUCIFER</t>
+  </si>
+  <si>
+    <t>CLEFIA</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>MACGUFFIN</t>
+  </si>
+  <si>
+    <t>SQUARE</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>SHARK</t>
+  </si>
+  <si>
+    <t>CS_CIPHER</t>
+  </si>
+  <si>
+    <t>NUSH</t>
+  </si>
+  <si>
+    <t>GRAND_CRU</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>KHAZAD</t>
+  </si>
+  <si>
+    <t>HIEROCRYPT_3</t>
+  </si>
+  <si>
+    <t>项目中的架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多算法</t>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1624,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1402,7 +1683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1561,11 +1842,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1714,6 +2080,45 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1777,6 +2182,33 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,6 +2227,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1804,80 +2245,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2605,53 +3022,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="55"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2674,7 +3091,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +3106,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +3127,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +3148,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2743,11 +3160,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -2758,7 +3175,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2768,9 +3185,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2779,7 +3196,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2811,7 +3228,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +3258,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2871,10 +3288,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="64"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -2895,10 +3312,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -2916,10 +3333,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="64"/>
       <c r="F14" s="6" t="s">
         <v>341</v>
       </c>
@@ -2937,10 +3354,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -2955,7 +3372,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="65" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -2979,7 +3396,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
@@ -3001,7 +3418,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="12" t="s">
         <v>253</v>
       </c>
@@ -3014,11 +3431,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -3031,7 +3444,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -3081,83 +3498,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="90"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="90" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="87" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="87" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="19" t="s">
         <v>56</v>
       </c>
@@ -3220,13 +3637,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="99" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3279,9 +3696,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
@@ -3332,9 +3749,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="24" t="s">
         <v>87</v>
       </c>
@@ -3385,9 +3802,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -3420,9 +3837,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -3449,13 +3866,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="96" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -3496,9 +3913,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -3525,9 +3942,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -3554,9 +3971,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -3583,9 +4000,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -3612,13 +4029,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="96" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3677,9 +4094,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="24" t="s">
         <v>120</v>
       </c>
@@ -3730,9 +4147,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3783,9 +4200,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="24" t="s">
         <v>114</v>
       </c>
@@ -3830,9 +4247,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -3859,13 +4276,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="96" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -3930,9 +4347,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="24" t="s">
         <v>92</v>
       </c>
@@ -3995,9 +4412,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="24" t="s">
         <v>160</v>
       </c>
@@ -4042,9 +4459,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="24" t="s">
         <v>133</v>
       </c>
@@ -4077,9 +4494,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -4106,13 +4523,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="96" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -4165,9 +4582,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -4200,9 +4617,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4235,9 +4652,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4264,9 +4681,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -4293,13 +4710,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="96" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="96" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -4352,9 +4769,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -4387,9 +4804,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -4422,9 +4839,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -4451,9 +4868,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -4480,13 +4897,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="96" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -4551,9 +4968,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="24" t="s">
         <v>219</v>
       </c>
@@ -4604,9 +5021,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="24" t="s">
         <v>224</v>
       </c>
@@ -4637,9 +5054,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="24" t="s">
         <v>198</v>
       </c>
@@ -4670,9 +5087,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -4932,6 +5349,2211 @@
       <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA114"/>
+  <sheetViews>
+    <sheetView topLeftCell="K106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114:K123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="55"/>
+    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18"/>
+    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9" style="55"/>
+    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9" style="46"/>
+    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="90"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85"/>
+      <c r="B2" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="51">
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="94"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="94"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="94"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="94"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="94"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="57">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="94"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="51">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="94"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="51">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="94"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="51">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="57">
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="103"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="51">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="57">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="103"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="51">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="57">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="103"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="104"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="25">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" s="57">
+        <v>2E-3</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="94"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="94"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="O26" s="58">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="94"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="95"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="51">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="25">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="R29" s="27">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="94"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="94"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="94"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="95"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" s="57">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="R34" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="94"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="51">
+        <v>2E-3</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="57">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="53">
+        <v>3.0555555555555557E-3</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="N75" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" s="18"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L76" s="61">
+        <v>1</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="46"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="O77" s="18"/>
+      <c r="P77" s="46"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L78" s="62">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M78" s="55"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="46"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L79" s="62">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M79" s="55"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="46"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="L80" s="55">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K81" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="L81" s="55">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K87" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K88" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K89" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K90" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K91" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K92" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K93" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K96" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K97" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K98" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M98" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K99" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K100" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K101" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K102" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K103" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K104" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K105" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K106" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="M106" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K107" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M107" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K108" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M108" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K113" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K114" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
@@ -4965,2201 +7587,6 @@
     <mergeCell ref="C29:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA108"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95:M108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="97"/>
-    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9" style="18"/>
-    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9" style="97"/>
-    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9" style="46"/>
-    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="89"/>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="89"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-    </row>
-    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="93">
-        <v>4.6666666666666671E-3</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="99">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="27">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-    </row>
-    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="93">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="99">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="27">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="93">
-        <v>1.3333333333333333E-3</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="99">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="27">
-        <v>9.375E-2</v>
-      </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="93">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="99">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-    </row>
-    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="93">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.21944444444444444</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="99">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-    </row>
-    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="93">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="99">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-    </row>
-    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="93">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="99">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="R16" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-    </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-    </row>
-    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="93">
-        <v>3.7037037037037034E-3</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.22708333333333333</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="O19" s="99">
-        <v>7.7777777777777776E-3</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="R19" s="27">
-        <v>0.31041666666666667</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="U19" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="93">
-        <v>1.4814814814814814E-3</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="O20" s="99">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="27">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="93">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0.10208333333333335</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="O21" s="99">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-    </row>
-    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="25">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="O24" s="99">
-        <v>2E-3</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="R24" s="27">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="O25" s="99">
-        <v>1E-3</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-    </row>
-    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="O26" s="100">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" s="93">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" s="25">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="O29" s="99">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="R29" s="27">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="O30" s="99">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="O31" s="99">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="93">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="O34" s="99">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q34" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="R34" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S34" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="T34" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="U34" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="93">
-        <v>2E-3</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="O35" s="99">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q35" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="R35" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-    </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-    </row>
-    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-    </row>
-    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="95">
-        <v>3.0555555555555557E-3</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-    </row>
-    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K75" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="N75" s="97" t="s">
-        <v>333</v>
-      </c>
-      <c r="O75" s="18"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="18"/>
-    </row>
-    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K76" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L76" s="103">
-        <v>1</v>
-      </c>
-      <c r="M76" s="97" t="s">
-        <v>339</v>
-      </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="46"/>
-      <c r="R76" s="18"/>
-    </row>
-    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K77" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L77" s="2">
-        <v>0</v>
-      </c>
-      <c r="M77" s="97" t="s">
-        <v>340</v>
-      </c>
-      <c r="O77" s="18"/>
-      <c r="P77" s="46"/>
-      <c r="R77" s="18"/>
-    </row>
-    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K78" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="L78" s="104">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="M78" s="97"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="46"/>
-      <c r="R78" s="18"/>
-    </row>
-    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K79" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="L79" s="104">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M79" s="97"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="46"/>
-      <c r="R79" s="18"/>
-    </row>
-    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="K80" s="97" t="s">
-        <v>339</v>
-      </c>
-      <c r="L80" s="97">
-        <v>0.30559999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K81" s="97" t="s">
-        <v>340</v>
-      </c>
-      <c r="L81" s="97">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K87" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K88" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K89" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K90" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K91" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K92" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L92" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M92" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K93" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="M93" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K96" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="M96" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K97" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K98" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K99" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K100" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M100" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K101" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="M101" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K102" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="M102" s="18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K103" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="M103" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K104" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M104" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K105" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M105" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K106" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="M106" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K107" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="M107" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K108" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="M108" s="18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
       <formula1>"是,否"</formula1>
@@ -7169,4 +7596,2777 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:H213"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="108"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="114"/>
+      <c r="B4" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="114"/>
+      <c r="B5" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="114"/>
+      <c r="B6" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="114"/>
+      <c r="B7" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="114"/>
+      <c r="B8" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="114"/>
+      <c r="B9" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="114"/>
+      <c r="B10" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="114"/>
+      <c r="B11" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="114"/>
+      <c r="B12" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="114"/>
+      <c r="B13" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114"/>
+      <c r="B14" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="114"/>
+      <c r="B15" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="114"/>
+      <c r="B16" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="114"/>
+      <c r="B17" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="114"/>
+      <c r="B18" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="114"/>
+      <c r="B19" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="114"/>
+      <c r="B20" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="114"/>
+      <c r="B21" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="114"/>
+      <c r="B22" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="114"/>
+      <c r="B23" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="114"/>
+      <c r="B24" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="114"/>
+      <c r="B25" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="114"/>
+      <c r="B26" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="114"/>
+      <c r="B27" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="114"/>
+      <c r="B28" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="114"/>
+      <c r="B29" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="114"/>
+      <c r="B30" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="114"/>
+      <c r="B31" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="114"/>
+      <c r="B32" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+    </row>
+    <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="114"/>
+      <c r="B33" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="114"/>
+      <c r="B34" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="114"/>
+      <c r="B35" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="114"/>
+      <c r="B36" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+    </row>
+    <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="114"/>
+      <c r="B37" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+    </row>
+    <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="108"/>
+      <c r="B38" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="114"/>
+      <c r="B40" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="114"/>
+      <c r="B41" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="114"/>
+      <c r="B42" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="114"/>
+      <c r="B43" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="114"/>
+      <c r="B44" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="114"/>
+      <c r="B45" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="114"/>
+      <c r="B46" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="114"/>
+      <c r="B47" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="114"/>
+      <c r="B48" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="114"/>
+      <c r="B49" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="114"/>
+      <c r="B50" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="114"/>
+      <c r="B51" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="114"/>
+      <c r="B52" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="114"/>
+      <c r="B53" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="114"/>
+      <c r="B54" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="114"/>
+      <c r="B55" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="114"/>
+      <c r="B56" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="114"/>
+      <c r="B57" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="114"/>
+      <c r="B58" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="114"/>
+      <c r="B59" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="114"/>
+      <c r="B60" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="114"/>
+      <c r="B61" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+    </row>
+    <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="114"/>
+      <c r="B62" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="114"/>
+      <c r="B63" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="114"/>
+      <c r="B64" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="114"/>
+      <c r="B65" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="114"/>
+      <c r="B66" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="114"/>
+      <c r="B67" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="114"/>
+      <c r="B68" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+    </row>
+    <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="114"/>
+      <c r="B69" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="114"/>
+      <c r="B70" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="114"/>
+      <c r="B71" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="114"/>
+      <c r="B72" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+    </row>
+    <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="114"/>
+      <c r="B73" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+    </row>
+    <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="108"/>
+      <c r="B74" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="107" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="114"/>
+      <c r="B76" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="114"/>
+      <c r="B77" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="114"/>
+      <c r="B78" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="114"/>
+      <c r="B79" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="114"/>
+      <c r="B80" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="114"/>
+      <c r="B81" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="114"/>
+      <c r="B82" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="114"/>
+      <c r="B83" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="114"/>
+      <c r="B84" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="114"/>
+      <c r="B85" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="114"/>
+      <c r="B86" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="114"/>
+      <c r="B87" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="114"/>
+      <c r="B88" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="114"/>
+      <c r="B89" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="114"/>
+      <c r="B90" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="114"/>
+      <c r="B91" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="114"/>
+      <c r="B92" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="114"/>
+      <c r="B93" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="114"/>
+      <c r="B94" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="114"/>
+      <c r="B95" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C95" s="105"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="114"/>
+      <c r="B96" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="105"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="114"/>
+      <c r="B97" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+    </row>
+    <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="114"/>
+      <c r="B98" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="105"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="114"/>
+      <c r="B99" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="114"/>
+      <c r="B100" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="114"/>
+      <c r="B101" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="114"/>
+      <c r="B102" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="114"/>
+      <c r="B103" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="114"/>
+      <c r="B104" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="105"/>
+    </row>
+    <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="114"/>
+      <c r="B105" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="114"/>
+      <c r="B106" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="114"/>
+      <c r="B107" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="C107" s="105"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="105"/>
+      <c r="H107" s="105"/>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="114"/>
+      <c r="B108" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+    </row>
+    <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="114"/>
+      <c r="B109" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+    </row>
+    <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="108"/>
+      <c r="B110" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C110" s="105"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B111" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" s="105"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="105"/>
+      <c r="H111" s="105"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="114"/>
+      <c r="B112" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="114"/>
+      <c r="B113" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C113" s="105"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="105"/>
+      <c r="H113" s="105"/>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="114"/>
+      <c r="B114" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C114" s="105"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="105"/>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="114"/>
+      <c r="B115" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="114"/>
+      <c r="B116" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="105"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="105"/>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="114"/>
+      <c r="B117" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="114"/>
+      <c r="B118" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="114"/>
+      <c r="B119" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="114"/>
+      <c r="B120" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="114"/>
+      <c r="B121" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C121" s="105"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="105"/>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="114"/>
+      <c r="B122" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="114"/>
+      <c r="B123" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C123" s="105"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="105"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="105"/>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="114"/>
+      <c r="B124" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C124" s="105"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="105"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="105"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="114"/>
+      <c r="B125" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C125" s="105"/>
+      <c r="D125" s="105"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="105"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="114"/>
+      <c r="B126" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="114"/>
+      <c r="B127" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="105"/>
+      <c r="D127" s="105"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="105"/>
+      <c r="H127" s="105"/>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="114"/>
+      <c r="B128" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C128" s="105"/>
+      <c r="D128" s="105"/>
+      <c r="E128" s="105"/>
+      <c r="F128" s="105"/>
+      <c r="G128" s="105"/>
+      <c r="H128" s="105"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="114"/>
+      <c r="B129" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" s="105"/>
+      <c r="D129" s="105"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="105"/>
+      <c r="H129" s="105"/>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="114"/>
+      <c r="B130" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="C130" s="105"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="105"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="114"/>
+      <c r="B131" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="105"/>
+      <c r="D131" s="105"/>
+      <c r="E131" s="105"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="105"/>
+      <c r="H131" s="105"/>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="114"/>
+      <c r="B132" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="105"/>
+      <c r="D132" s="105"/>
+      <c r="E132" s="105"/>
+      <c r="F132" s="105"/>
+      <c r="G132" s="105"/>
+      <c r="H132" s="105"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="114"/>
+      <c r="B133" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="C133" s="105"/>
+      <c r="D133" s="105"/>
+      <c r="E133" s="105"/>
+      <c r="F133" s="105"/>
+      <c r="G133" s="105"/>
+      <c r="H133" s="105"/>
+    </row>
+    <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="114"/>
+      <c r="B134" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="C134" s="105"/>
+      <c r="D134" s="105"/>
+      <c r="E134" s="105"/>
+      <c r="F134" s="105"/>
+      <c r="G134" s="105"/>
+      <c r="H134" s="105"/>
+    </row>
+    <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="114"/>
+      <c r="B135" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" s="105"/>
+      <c r="D135" s="105"/>
+      <c r="E135" s="105"/>
+      <c r="F135" s="105"/>
+      <c r="G135" s="105"/>
+      <c r="H135" s="105"/>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="114"/>
+      <c r="B136" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" s="105"/>
+      <c r="D136" s="105"/>
+      <c r="E136" s="105"/>
+      <c r="F136" s="105"/>
+      <c r="G136" s="105"/>
+      <c r="H136" s="105"/>
+    </row>
+    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="114"/>
+      <c r="B137" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C137" s="105"/>
+      <c r="D137" s="105"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="105"/>
+      <c r="G137" s="105"/>
+      <c r="H137" s="105"/>
+    </row>
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="114"/>
+      <c r="B138" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="105"/>
+      <c r="D138" s="105"/>
+      <c r="E138" s="105"/>
+      <c r="F138" s="105"/>
+      <c r="G138" s="105"/>
+      <c r="H138" s="105"/>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="114"/>
+      <c r="B139" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" s="105"/>
+      <c r="D139" s="105"/>
+      <c r="E139" s="105"/>
+      <c r="F139" s="105"/>
+      <c r="G139" s="105"/>
+      <c r="H139" s="105"/>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="114"/>
+      <c r="B140" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C140" s="105"/>
+      <c r="D140" s="105"/>
+      <c r="E140" s="105"/>
+      <c r="F140" s="105"/>
+      <c r="G140" s="105"/>
+      <c r="H140" s="105"/>
+    </row>
+    <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="114"/>
+      <c r="B141" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" s="105"/>
+      <c r="D141" s="105"/>
+      <c r="E141" s="105"/>
+      <c r="F141" s="105"/>
+      <c r="G141" s="105"/>
+      <c r="H141" s="105"/>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="114"/>
+      <c r="B142" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" s="105"/>
+      <c r="D142" s="105"/>
+      <c r="E142" s="105"/>
+      <c r="F142" s="105"/>
+      <c r="G142" s="105"/>
+      <c r="H142" s="105"/>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="114"/>
+      <c r="B143" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="C143" s="105"/>
+      <c r="D143" s="105"/>
+      <c r="E143" s="105"/>
+      <c r="F143" s="105"/>
+      <c r="G143" s="105"/>
+      <c r="H143" s="105"/>
+    </row>
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="114"/>
+      <c r="B144" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" s="105"/>
+      <c r="D144" s="105"/>
+      <c r="E144" s="105"/>
+      <c r="F144" s="105"/>
+      <c r="G144" s="105"/>
+      <c r="H144" s="105"/>
+    </row>
+    <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="114"/>
+      <c r="B145" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C145" s="105"/>
+      <c r="D145" s="105"/>
+      <c r="E145" s="105"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+    </row>
+    <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="108"/>
+      <c r="B146" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+    </row>
+    <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="112" t="s">
+        <v>402</v>
+      </c>
+      <c r="D152" s="111"/>
+      <c r="E152" s="111"/>
+      <c r="F152" s="111"/>
+      <c r="G152" s="111"/>
+      <c r="H152" s="113"/>
+    </row>
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="108"/>
+      <c r="B153" s="110"/>
+      <c r="C153" s="105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D153" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="E153" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F153" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="G153" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="H153" s="105" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="B154" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C154" s="120"/>
+      <c r="D154" s="120"/>
+      <c r="E154" s="120"/>
+      <c r="F154" s="120"/>
+      <c r="G154" s="120"/>
+      <c r="H154" s="120"/>
+    </row>
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="114"/>
+      <c r="B155" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C155" s="120"/>
+      <c r="D155" s="120"/>
+      <c r="E155" s="120"/>
+      <c r="F155" s="120"/>
+      <c r="G155" s="120"/>
+      <c r="H155" s="120"/>
+    </row>
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="114"/>
+      <c r="B156" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" s="120"/>
+      <c r="D156" s="120"/>
+      <c r="E156" s="120"/>
+      <c r="F156" s="120"/>
+      <c r="G156" s="120"/>
+      <c r="H156" s="120"/>
+    </row>
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="114"/>
+      <c r="B157" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C157" s="120"/>
+      <c r="D157" s="120"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
+      <c r="G157" s="120"/>
+      <c r="H157" s="120"/>
+    </row>
+    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="114"/>
+      <c r="B158" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C158" s="120"/>
+      <c r="D158" s="120"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+    </row>
+    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="114"/>
+      <c r="B159" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C159" s="120"/>
+      <c r="D159" s="120"/>
+      <c r="E159" s="120"/>
+      <c r="F159" s="120"/>
+      <c r="G159" s="120"/>
+      <c r="H159" s="120"/>
+    </row>
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="114"/>
+      <c r="B160" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C160" s="120"/>
+      <c r="D160" s="120"/>
+      <c r="E160" s="120"/>
+      <c r="F160" s="120"/>
+      <c r="G160" s="120"/>
+      <c r="H160" s="120"/>
+    </row>
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="114"/>
+      <c r="B161" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" s="120"/>
+      <c r="D161" s="120"/>
+      <c r="E161" s="120"/>
+      <c r="F161" s="120"/>
+      <c r="G161" s="120"/>
+      <c r="H161" s="120"/>
+    </row>
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="114"/>
+      <c r="B162" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="120"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="120"/>
+      <c r="F162" s="120"/>
+      <c r="G162" s="120"/>
+      <c r="H162" s="120"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="114"/>
+      <c r="B163" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C163" s="120"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="120"/>
+      <c r="F163" s="120"/>
+      <c r="G163" s="120"/>
+      <c r="H163" s="120"/>
+    </row>
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="114"/>
+      <c r="B164" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C164" s="120"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="120"/>
+      <c r="F164" s="120"/>
+      <c r="G164" s="120"/>
+      <c r="H164" s="120"/>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="114"/>
+      <c r="B165" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" s="120"/>
+      <c r="D165" s="120"/>
+      <c r="E165" s="120"/>
+      <c r="F165" s="120"/>
+      <c r="G165" s="120"/>
+      <c r="H165" s="120"/>
+    </row>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="114"/>
+      <c r="B166" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C166" s="120"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="120"/>
+      <c r="F166" s="120"/>
+      <c r="G166" s="120"/>
+      <c r="H166" s="120"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="114"/>
+      <c r="B167" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C167" s="120"/>
+      <c r="D167" s="120"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="120"/>
+      <c r="G167" s="120"/>
+      <c r="H167" s="120"/>
+    </row>
+    <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="108"/>
+      <c r="B168" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" s="120"/>
+      <c r="D168" s="120"/>
+      <c r="E168" s="120"/>
+      <c r="F168" s="120"/>
+      <c r="G168" s="120"/>
+      <c r="H168" s="120"/>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B169" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C169" s="120"/>
+      <c r="D169" s="120"/>
+      <c r="E169" s="120"/>
+      <c r="F169" s="120"/>
+      <c r="G169" s="120"/>
+      <c r="H169" s="120"/>
+    </row>
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="114"/>
+      <c r="B170" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C170" s="120"/>
+      <c r="D170" s="120"/>
+      <c r="E170" s="120"/>
+      <c r="F170" s="120"/>
+      <c r="G170" s="120"/>
+      <c r="H170" s="120"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="114"/>
+      <c r="B171" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C171" s="120"/>
+      <c r="D171" s="120"/>
+      <c r="E171" s="120"/>
+      <c r="F171" s="120"/>
+      <c r="G171" s="120"/>
+      <c r="H171" s="120"/>
+    </row>
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="114"/>
+      <c r="B172" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C172" s="120"/>
+      <c r="D172" s="120"/>
+      <c r="E172" s="120"/>
+      <c r="F172" s="120"/>
+      <c r="G172" s="120"/>
+      <c r="H172" s="120"/>
+    </row>
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="114"/>
+      <c r="B173" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="120"/>
+      <c r="D173" s="120"/>
+      <c r="E173" s="120"/>
+      <c r="F173" s="120"/>
+      <c r="G173" s="120"/>
+      <c r="H173" s="120"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="114"/>
+      <c r="B174" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" s="120"/>
+      <c r="D174" s="120"/>
+      <c r="E174" s="120"/>
+      <c r="F174" s="120"/>
+      <c r="G174" s="120"/>
+      <c r="H174" s="120"/>
+    </row>
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="114"/>
+      <c r="B175" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C175" s="120"/>
+      <c r="D175" s="120"/>
+      <c r="E175" s="120"/>
+      <c r="F175" s="120"/>
+      <c r="G175" s="120"/>
+      <c r="H175" s="120"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="114"/>
+      <c r="B176" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C176" s="120"/>
+      <c r="D176" s="120"/>
+      <c r="E176" s="120"/>
+      <c r="F176" s="120"/>
+      <c r="G176" s="120"/>
+      <c r="H176" s="120"/>
+    </row>
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="114"/>
+      <c r="B177" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C177" s="120"/>
+      <c r="D177" s="120"/>
+      <c r="E177" s="120"/>
+      <c r="F177" s="120"/>
+      <c r="G177" s="120"/>
+      <c r="H177" s="120"/>
+    </row>
+    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="114"/>
+      <c r="B178" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C178" s="120"/>
+      <c r="D178" s="120"/>
+      <c r="E178" s="120"/>
+      <c r="F178" s="120"/>
+      <c r="G178" s="120"/>
+      <c r="H178" s="120"/>
+    </row>
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="114"/>
+      <c r="B179" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C179" s="120"/>
+      <c r="D179" s="120"/>
+      <c r="E179" s="120"/>
+      <c r="F179" s="120"/>
+      <c r="G179" s="120"/>
+      <c r="H179" s="120"/>
+    </row>
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="114"/>
+      <c r="B180" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" s="120"/>
+      <c r="D180" s="120"/>
+      <c r="E180" s="120"/>
+      <c r="F180" s="120"/>
+      <c r="G180" s="120"/>
+      <c r="H180" s="120"/>
+    </row>
+    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="114"/>
+      <c r="B181" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="120"/>
+      <c r="D181" s="120"/>
+      <c r="E181" s="120"/>
+      <c r="F181" s="120"/>
+      <c r="G181" s="120"/>
+      <c r="H181" s="120"/>
+    </row>
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="114"/>
+      <c r="B182" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C182" s="120"/>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
+      <c r="F182" s="120"/>
+      <c r="G182" s="120"/>
+      <c r="H182" s="120"/>
+    </row>
+    <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="108"/>
+      <c r="B183" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C183" s="120"/>
+      <c r="D183" s="120"/>
+      <c r="E183" s="120"/>
+      <c r="F183" s="120"/>
+      <c r="G183" s="120"/>
+      <c r="H183" s="120"/>
+    </row>
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="B184" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C184" s="120"/>
+      <c r="D184" s="120"/>
+      <c r="E184" s="120"/>
+      <c r="F184" s="120"/>
+      <c r="G184" s="120"/>
+      <c r="H184" s="120"/>
+    </row>
+    <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="114"/>
+      <c r="B185" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C185" s="120"/>
+      <c r="D185" s="120"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="120"/>
+      <c r="G185" s="120"/>
+      <c r="H185" s="120"/>
+    </row>
+    <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="114"/>
+      <c r="B186" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C186" s="120"/>
+      <c r="D186" s="120"/>
+      <c r="E186" s="120"/>
+      <c r="F186" s="120"/>
+      <c r="G186" s="120"/>
+      <c r="H186" s="120"/>
+    </row>
+    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="114"/>
+      <c r="B187" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C187" s="120"/>
+      <c r="D187" s="120"/>
+      <c r="E187" s="120"/>
+      <c r="F187" s="120"/>
+      <c r="G187" s="120"/>
+      <c r="H187" s="120"/>
+    </row>
+    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="114"/>
+      <c r="B188" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="120"/>
+      <c r="D188" s="120"/>
+      <c r="E188" s="120"/>
+      <c r="F188" s="120"/>
+      <c r="G188" s="120"/>
+      <c r="H188" s="120"/>
+    </row>
+    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="114"/>
+      <c r="B189" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C189" s="120"/>
+      <c r="D189" s="120"/>
+      <c r="E189" s="120"/>
+      <c r="F189" s="120"/>
+      <c r="G189" s="120"/>
+      <c r="H189" s="120"/>
+    </row>
+    <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="114"/>
+      <c r="B190" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" s="120"/>
+      <c r="D190" s="120"/>
+      <c r="E190" s="120"/>
+      <c r="F190" s="120"/>
+      <c r="G190" s="120"/>
+      <c r="H190" s="120"/>
+    </row>
+    <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="114"/>
+      <c r="B191" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C191" s="120"/>
+      <c r="D191" s="120"/>
+      <c r="E191" s="120"/>
+      <c r="F191" s="120"/>
+      <c r="G191" s="120"/>
+      <c r="H191" s="120"/>
+    </row>
+    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="114"/>
+      <c r="B192" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C192" s="120"/>
+      <c r="D192" s="120"/>
+      <c r="E192" s="120"/>
+      <c r="F192" s="120"/>
+      <c r="G192" s="120"/>
+      <c r="H192" s="120"/>
+    </row>
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="114"/>
+      <c r="B193" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C193" s="120"/>
+      <c r="D193" s="120"/>
+      <c r="E193" s="120"/>
+      <c r="F193" s="120"/>
+      <c r="G193" s="120"/>
+      <c r="H193" s="120"/>
+    </row>
+    <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="114"/>
+      <c r="B194" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C194" s="120"/>
+      <c r="D194" s="120"/>
+      <c r="E194" s="120"/>
+      <c r="F194" s="120"/>
+      <c r="G194" s="120"/>
+      <c r="H194" s="120"/>
+    </row>
+    <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="114"/>
+      <c r="B195" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" s="120"/>
+      <c r="D195" s="120"/>
+      <c r="E195" s="120"/>
+      <c r="F195" s="120"/>
+      <c r="G195" s="120"/>
+      <c r="H195" s="120"/>
+    </row>
+    <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="114"/>
+      <c r="B196" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C196" s="120"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="120"/>
+      <c r="F196" s="120"/>
+      <c r="G196" s="120"/>
+      <c r="H196" s="120"/>
+    </row>
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="114"/>
+      <c r="B197" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C197" s="120"/>
+      <c r="D197" s="120"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+    </row>
+    <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="108"/>
+      <c r="B198" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" s="120"/>
+      <c r="D198" s="120"/>
+      <c r="E198" s="120"/>
+      <c r="F198" s="120"/>
+      <c r="G198" s="120"/>
+      <c r="H198" s="120"/>
+    </row>
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C199" s="120"/>
+      <c r="D199" s="120"/>
+      <c r="E199" s="120"/>
+      <c r="F199" s="120"/>
+      <c r="G199" s="120"/>
+      <c r="H199" s="120"/>
+    </row>
+    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="114"/>
+      <c r="B200" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" s="120"/>
+      <c r="D200" s="120"/>
+      <c r="E200" s="120"/>
+      <c r="F200" s="120"/>
+      <c r="G200" s="120"/>
+      <c r="H200" s="120"/>
+    </row>
+    <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="114"/>
+      <c r="B201" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C201" s="120"/>
+      <c r="D201" s="120"/>
+      <c r="E201" s="120"/>
+      <c r="F201" s="120"/>
+      <c r="G201" s="120"/>
+      <c r="H201" s="120"/>
+    </row>
+    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="114"/>
+      <c r="B202" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C202" s="120"/>
+      <c r="D202" s="120"/>
+      <c r="E202" s="120"/>
+      <c r="F202" s="120"/>
+      <c r="G202" s="120"/>
+      <c r="H202" s="120"/>
+    </row>
+    <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="114"/>
+      <c r="B203" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C203" s="120"/>
+      <c r="D203" s="120"/>
+      <c r="E203" s="120"/>
+      <c r="F203" s="120"/>
+      <c r="G203" s="120"/>
+      <c r="H203" s="120"/>
+    </row>
+    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="114"/>
+      <c r="B204" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" s="120"/>
+      <c r="D204" s="120"/>
+      <c r="E204" s="120"/>
+      <c r="F204" s="120"/>
+      <c r="G204" s="120"/>
+      <c r="H204" s="120"/>
+    </row>
+    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="114"/>
+      <c r="B205" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" s="120"/>
+      <c r="D205" s="120"/>
+      <c r="E205" s="120"/>
+      <c r="F205" s="120"/>
+      <c r="G205" s="120"/>
+      <c r="H205" s="120"/>
+    </row>
+    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="114"/>
+      <c r="B206" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" s="120"/>
+      <c r="D206" s="120"/>
+      <c r="E206" s="120"/>
+      <c r="F206" s="120"/>
+      <c r="G206" s="120"/>
+      <c r="H206" s="120"/>
+    </row>
+    <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="114"/>
+      <c r="B207" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" s="120"/>
+      <c r="D207" s="120"/>
+      <c r="E207" s="120"/>
+      <c r="F207" s="120"/>
+      <c r="G207" s="120"/>
+      <c r="H207" s="120"/>
+    </row>
+    <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="114"/>
+      <c r="B208" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208" s="120"/>
+      <c r="D208" s="120"/>
+      <c r="E208" s="120"/>
+      <c r="F208" s="120"/>
+      <c r="G208" s="120"/>
+      <c r="H208" s="120"/>
+    </row>
+    <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="114"/>
+      <c r="B209" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C209" s="120"/>
+      <c r="D209" s="120"/>
+      <c r="E209" s="120"/>
+      <c r="F209" s="120"/>
+      <c r="G209" s="120"/>
+      <c r="H209" s="120"/>
+    </row>
+    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="114"/>
+      <c r="B210" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C210" s="120"/>
+      <c r="D210" s="120"/>
+      <c r="E210" s="120"/>
+      <c r="F210" s="120"/>
+      <c r="G210" s="120"/>
+      <c r="H210" s="120"/>
+    </row>
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="114"/>
+      <c r="B211" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="120"/>
+      <c r="D211" s="120"/>
+      <c r="E211" s="120"/>
+      <c r="F211" s="120"/>
+      <c r="G211" s="120"/>
+      <c r="H211" s="120"/>
+    </row>
+    <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="114"/>
+      <c r="B212" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C212" s="120"/>
+      <c r="D212" s="120"/>
+      <c r="E212" s="120"/>
+      <c r="F212" s="120"/>
+      <c r="G212" s="120"/>
+      <c r="H212" s="120"/>
+    </row>
+    <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="108"/>
+      <c r="B213" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C213" s="120"/>
+      <c r="D213" s="120"/>
+      <c r="E213" s="120"/>
+      <c r="F213" s="120"/>
+      <c r="G213" s="120"/>
+      <c r="H213" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="A154:A168"/>
+    <mergeCell ref="A169:A183"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A3:A38"/>
+    <mergeCell ref="A39:A74"/>
+    <mergeCell ref="A75:A110"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\bishe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="498">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,12 +1590,280 @@
     <t>更多架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>type0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>type5</t>
+  </si>
+  <si>
+    <t>type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2行</t>
+  </si>
+  <si>
+    <t>第3行</t>
+  </si>
+  <si>
+    <t>映射行数</t>
+  </si>
+  <si>
+    <t>项目中的架构</t>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+  </si>
+  <si>
+    <t>RCPA</t>
+  </si>
+  <si>
+    <t>COBRA</t>
+  </si>
+  <si>
+    <t>更多架构</t>
+  </si>
+  <si>
+    <r>
+      <t>工艺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/nm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/MHz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单轮映射面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Mgates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>性能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Gbps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>性能面积比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/(Gbps/Mgates)</t>
+    </r>
+  </si>
+  <si>
+    <t>算法映射面积</t>
+  </si>
+  <si>
+    <t>性能</t>
+  </si>
+  <si>
+    <t>性能面积比</t>
+  </si>
+  <si>
+    <t>CORBA</t>
+  </si>
+  <si>
+    <r>
+      <t>Celator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等更多架构</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>算法映射面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Mgates</t>
+    </r>
+  </si>
+  <si>
+    <t>tlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/GHz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64to64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,8 +1906,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,8 +1977,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1927,11 +2228,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2119,6 +2438,105 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2134,53 +2552,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2209,71 +2615,62 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2284,20 +2681,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3022,53 +3408,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="81"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="68"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="82" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3091,7 +3477,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3106,7 +3492,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3127,7 +3513,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3148,7 +3534,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3160,11 +3546,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="88"/>
+      <c r="H7" s="88" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3175,7 +3561,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3185,9 +3571,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
@@ -3196,7 +3582,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3228,7 +3614,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3258,7 +3644,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -3288,10 +3674,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="99"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -3312,10 +3698,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -3333,10 +3719,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="99"/>
       <c r="F14" s="6" t="s">
         <v>341</v>
       </c>
@@ -3354,10 +3740,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -3372,7 +3758,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3396,7 +3782,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3804,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="12" t="s">
         <v>253</v>
       </c>
@@ -3431,6 +3817,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -3444,11 +3835,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -3498,83 +3884,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="90"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="121"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="88" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="88" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="121"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="19" t="s">
         <v>56</v>
       </c>
@@ -3637,13 +4023,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3696,9 +4082,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
@@ -3749,9 +4135,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="24" t="s">
         <v>87</v>
       </c>
@@ -3802,9 +4188,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -3837,9 +4223,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -3866,13 +4252,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="106" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -3913,9 +4299,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -3942,9 +4328,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -3971,9 +4357,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4000,9 +4386,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4029,13 +4415,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="106" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -4094,9 +4480,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="24" t="s">
         <v>120</v>
       </c>
@@ -4147,9 +4533,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="24" t="s">
         <v>128</v>
       </c>
@@ -4200,9 +4586,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="24" t="s">
         <v>114</v>
       </c>
@@ -4247,9 +4633,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -4276,13 +4662,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="106" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -4347,9 +4733,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="24" t="s">
         <v>92</v>
       </c>
@@ -4412,9 +4798,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="24" t="s">
         <v>160</v>
       </c>
@@ -4459,9 +4845,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="24" t="s">
         <v>133</v>
       </c>
@@ -4494,9 +4880,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -4523,13 +4909,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="106" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -4582,9 +4968,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -4617,9 +5003,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4652,9 +5038,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4681,9 +5067,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -4710,13 +5096,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="106" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -4769,9 +5155,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -4804,9 +5190,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -4839,9 +5225,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -4868,9 +5254,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -4897,13 +5283,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="106" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -4968,9 +5354,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="94"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="24" t="s">
         <v>219</v>
       </c>
@@ -5021,9 +5407,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="24" t="s">
         <v>224</v>
       </c>
@@ -5054,9 +5440,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="24" t="s">
         <v>198</v>
       </c>
@@ -5087,9 +5473,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -5351,6 +5737,26 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -5360,26 +5766,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5427,83 +5813,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="90"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="121"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="88" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="88" t="s">
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="121"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="19" t="s">
         <v>56</v>
       </c>
@@ -5566,13 +5952,13 @@
       <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -5625,9 +6011,9 @@
       <c r="AA4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="24" t="s">
         <v>258</v>
       </c>
@@ -5678,9 +6064,9 @@
       <c r="AA5" s="49"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="24" t="s">
         <v>259</v>
       </c>
@@ -5731,9 +6117,9 @@
       <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="51"/>
@@ -5766,9 +6152,9 @@
       <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
@@ -5795,13 +6181,13 @@
       <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="106" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -5842,9 +6228,9 @@
       <c r="AA9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="51"/>
@@ -5871,9 +6257,9 @@
       <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="51"/>
@@ -5900,9 +6286,9 @@
       <c r="AA11" s="49"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="51"/>
@@ -5929,9 +6315,9 @@
       <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="51"/>
@@ -5958,13 +6344,13 @@
       <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="106" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -6023,9 +6409,9 @@
       <c r="AA14" s="49"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="24" t="s">
         <v>262</v>
       </c>
@@ -6076,9 +6462,9 @@
       <c r="AA15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="24" t="s">
         <v>263</v>
       </c>
@@ -6129,9 +6515,9 @@
       <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="24" t="s">
         <v>264</v>
       </c>
@@ -6176,9 +6562,9 @@
       <c r="AA17" s="49"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="51"/>
@@ -6205,13 +6591,13 @@
       <c r="AA18" s="49"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="106" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -6276,9 +6662,9 @@
       <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="24" t="s">
         <v>266</v>
       </c>
@@ -6341,9 +6727,9 @@
       <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="24" t="s">
         <v>267</v>
       </c>
@@ -6388,9 +6774,9 @@
       <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="24" t="s">
         <v>264</v>
       </c>
@@ -6423,9 +6809,9 @@
       <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="51"/>
@@ -6452,13 +6838,13 @@
       <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="106" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -6511,9 +6897,9 @@
       <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="51"/>
@@ -6546,9 +6932,9 @@
       <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="51"/>
@@ -6581,9 +6967,9 @@
       <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="51"/>
@@ -6610,9 +6996,9 @@
       <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="51"/>
@@ -6639,13 +7025,13 @@
       <c r="AA28" s="49"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="106" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -6698,9 +7084,9 @@
       <c r="AA29" s="49"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="51"/>
@@ -6733,9 +7119,9 @@
       <c r="AA30" s="49"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="51"/>
@@ -6768,9 +7154,9 @@
       <c r="AA31" s="49"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="51"/>
@@ -6797,9 +7183,9 @@
       <c r="AA32" s="49"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="51"/>
@@ -6826,13 +7212,13 @@
       <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="106" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -6897,9 +7283,9 @@
       <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="94"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="24" t="s">
         <v>271</v>
       </c>
@@ -6950,9 +7336,9 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="24" t="s">
         <v>272</v>
       </c>
@@ -6983,9 +7369,9 @@
       <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="24" t="s">
         <v>273</v>
       </c>
@@ -7016,9 +7402,9 @@
       <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="51"/>
@@ -7556,26 +7942,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -7585,6 +7951,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7600,198 +7986,3077 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="75">
+        <v>240216.6814</v>
+      </c>
+      <c r="I4" s="75">
+        <f>H4/1.44</f>
+        <v>166817.13986111112</v>
+      </c>
+      <c r="K4" t="s">
+        <v>458</v>
+      </c>
+      <c r="L4" s="75">
+        <f>I4*4+I6</f>
+        <v>705982.16993055562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>450</v>
+      </c>
+      <c r="H5" s="75">
+        <v>21425.6001</v>
+      </c>
+      <c r="I5" s="75">
+        <f>H5/1.44</f>
+        <v>14878.888958333333</v>
+      </c>
+      <c r="K5" t="s">
+        <v>459</v>
+      </c>
+      <c r="L5" s="75">
+        <f>I5*4+I6</f>
+        <v>98229.166319444441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="75">
+        <v>55747.599099999999</v>
+      </c>
+      <c r="I6" s="75">
+        <f>H6/1.44</f>
+        <v>38713.610486111109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>460</v>
+      </c>
+      <c r="L6" s="75">
+        <f>SUM(L4:L5)+I6*2</f>
+        <v>881638.55722222221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="75">
+        <v>3741.2</v>
+      </c>
+      <c r="I7" s="75">
+        <f>H7/1.44</f>
+        <v>2598.0555555555557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="75">
+        <v>2422.8000000000002</v>
+      </c>
+      <c r="I8" s="75">
+        <f t="shared" ref="I8:I12" si="0">H8/1.44</f>
+        <v>1682.5000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="75">
+        <v>531.6</v>
+      </c>
+      <c r="I9" s="75">
+        <f t="shared" si="0"/>
+        <v>369.16666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10" s="75">
+        <v>7762</v>
+      </c>
+      <c r="I10" s="75">
+        <f t="shared" si="0"/>
+        <v>5390.2777777777783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" s="75">
+        <v>223275.48130000001</v>
+      </c>
+      <c r="I11" s="75">
+        <f t="shared" si="0"/>
+        <v>155052.41756944446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" s="75">
+        <v>4281.6000000000004</v>
+      </c>
+      <c r="I12" s="75">
+        <f t="shared" si="0"/>
+        <v>2973.3333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <f>I7+I8+I10+I11</f>
+        <v>164723.2509027778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <f>I7+I8+I10+I12</f>
+        <v>12644.166666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>461</v>
+      </c>
+      <c r="H20" s="75">
+        <f>H21+I12</f>
+        <v>10415.277777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="75">
+        <f>I8+I9+I10</f>
+        <v>7441.9444444444453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>462</v>
+      </c>
+      <c r="H22" s="75">
+        <f>H21+I11</f>
+        <v>162494.36201388889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H23" s="75">
+        <f>H20+8000</f>
+        <v>18415.277777777781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>464</v>
+      </c>
+      <c r="H24" s="75">
+        <f>H21+8000</f>
+        <v>15441.944444444445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>466</v>
+      </c>
+      <c r="H26" s="75">
+        <f>H20*2+H21*2</f>
+        <v>35714.444444444453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H27" s="75">
+        <f>H22*4</f>
+        <v>649977.44805555558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>468</v>
+      </c>
+      <c r="H28" s="75">
+        <f>H23*2+H24*2</f>
+        <v>67714.444444444453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>451</v>
+      </c>
+      <c r="H29" s="75">
+        <f>I6*3</f>
+        <v>116140.83145833333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H30" s="75">
+        <f>SUM(H26:H29)+I6*3</f>
+        <v>985687.99986111117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <v>112667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G34">
+        <v>6126</v>
+      </c>
+      <c r="H34" s="75">
+        <f>0.011*1000000/1.8772</f>
+        <v>5859.7911783507352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>400</v>
       </c>
     </row>
+    <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="127" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="135" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="137"/>
+      <c r="K40" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="L40" s="138" t="s">
+        <v>408</v>
+      </c>
+      <c r="M40" s="139"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="138" t="s">
+        <v>470</v>
+      </c>
+      <c r="P40" s="139"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="130" t="s">
+        <v>471</v>
+      </c>
+      <c r="S40" s="131"/>
+      <c r="T40" s="132"/>
+    </row>
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="129"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="K41" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="L41" s="130">
+        <v>65</v>
+      </c>
+      <c r="M41" s="131"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="130">
+        <v>65</v>
+      </c>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="130">
+        <v>45</v>
+      </c>
+      <c r="S41" s="131"/>
+      <c r="T41" s="132"/>
+    </row>
+    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="127" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="64">
+        <v>3</v>
+      </c>
+      <c r="D42" s="63">
+        <v>12</v>
+      </c>
+      <c r="E42" s="63">
+        <v>12</v>
+      </c>
+      <c r="F42" s="63">
+        <v>4</v>
+      </c>
+      <c r="G42" s="63">
+        <v>12</v>
+      </c>
+      <c r="H42" s="63">
+        <v>4</v>
+      </c>
+      <c r="I42" s="63">
+        <v>4</v>
+      </c>
+      <c r="K42" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="L42" s="130">
+        <f>1/3.97</f>
+        <v>0.25188916876574308</v>
+      </c>
+      <c r="M42" s="131"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="130">
+        <f>1/3.97</f>
+        <v>0.25188916876574308</v>
+      </c>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="130">
+        <v>1</v>
+      </c>
+      <c r="S42" s="131"/>
+      <c r="T42" s="132"/>
+    </row>
+    <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="128"/>
+      <c r="B43" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="64">
+        <v>3</v>
+      </c>
+      <c r="D43" s="63">
+        <v>12</v>
+      </c>
+      <c r="E43" s="63">
+        <v>12</v>
+      </c>
+      <c r="F43" s="63">
+        <v>4</v>
+      </c>
+      <c r="G43" s="63">
+        <v>12</v>
+      </c>
+      <c r="H43" s="63">
+        <v>4</v>
+      </c>
+      <c r="I43" s="63">
+        <v>0</v>
+      </c>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="M43" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="O43" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="P43" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q43" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="R43" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="S43" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="T43" s="72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="128"/>
+      <c r="B44" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C44" s="64">
+        <v>3</v>
+      </c>
+      <c r="D44" s="63">
+        <v>12</v>
+      </c>
+      <c r="E44" s="63">
+        <v>12</v>
+      </c>
+      <c r="F44" s="63">
+        <v>4</v>
+      </c>
+      <c r="G44" s="63">
+        <v>12</v>
+      </c>
+      <c r="H44" s="63">
+        <v>4</v>
+      </c>
+      <c r="I44" s="63">
+        <v>0</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" s="76">
+        <f>C42/3*H30</f>
+        <v>985687.99986111117</v>
+      </c>
+      <c r="M44" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="N44" s="77">
+        <f>M44/L44*1000000</f>
+        <v>32.709958531039284</v>
+      </c>
+      <c r="O44" s="78">
+        <f>C57/2*L6</f>
+        <v>1763277.1144444444</v>
+      </c>
+      <c r="P44" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="Q44" s="79">
+        <f>P44/O44*1000000</f>
+        <v>18.285165352559133</v>
+      </c>
+      <c r="R44" s="78">
+        <f>G33*2</f>
+        <v>225334</v>
+      </c>
+      <c r="S44" s="78">
+        <v>128</v>
+      </c>
+      <c r="T44" s="79">
+        <f>S44/R44*1000000</f>
+        <v>568.04565666965482</v>
+      </c>
+      <c r="U44" s="80">
+        <f>(N44-Q44)/Q44</f>
+        <v>0.78887955894045569</v>
+      </c>
+      <c r="V44">
+        <f>N44/T44</f>
+        <v>5.7583326528384424E-2</v>
+      </c>
+      <c r="W44">
+        <f>Q44/T44</f>
+        <v>3.2189605074637188E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="128"/>
+      <c r="B45" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="64">
+        <v>6</v>
+      </c>
+      <c r="D45" s="63">
+        <v>24</v>
+      </c>
+      <c r="E45" s="63">
+        <v>24</v>
+      </c>
+      <c r="F45" s="63">
+        <v>8</v>
+      </c>
+      <c r="G45" s="63">
+        <v>24</v>
+      </c>
+      <c r="H45" s="63">
+        <v>8</v>
+      </c>
+      <c r="I45" s="63">
+        <v>8</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="L45" s="76">
+        <f>C43/3*H30</f>
+        <v>985687.99986111117</v>
+      </c>
+      <c r="M45" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="N45" s="77">
+        <f t="shared" ref="N45:N51" si="1">M45/L45*1000000</f>
+        <v>16.354979265519642</v>
+      </c>
+      <c r="O45" s="78">
+        <f>C58*L6/2</f>
+        <v>1763277.1144444444</v>
+      </c>
+      <c r="P45" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="Q45" s="79">
+        <f t="shared" ref="Q45:Q51" si="2">P45/O45*1000000</f>
+        <v>9.1425826762795666</v>
+      </c>
+      <c r="R45" s="78">
+        <f>3*G33</f>
+        <v>338001</v>
+      </c>
+      <c r="S45" s="78">
+        <v>64</v>
+      </c>
+      <c r="T45" s="79">
+        <f t="shared" ref="T45:T51" si="3">S45/R45*1000000</f>
+        <v>189.34855222321826</v>
+      </c>
+      <c r="U45" s="80">
+        <f t="shared" ref="U45:U51" si="4">(N45-Q45)/Q45</f>
+        <v>0.78887955894045569</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ref="V45:V51" si="5">N45/T45</f>
+        <v>8.6374989792576642E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" ref="W45:W51" si="6">Q45/T45</f>
+        <v>4.8284407611955779E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="128"/>
+      <c r="B46" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="64">
+        <v>4</v>
+      </c>
+      <c r="D46" s="63">
+        <v>16</v>
+      </c>
+      <c r="E46" s="63">
+        <v>16</v>
+      </c>
+      <c r="F46" s="63">
+        <v>5.33</v>
+      </c>
+      <c r="G46" s="63">
+        <v>16</v>
+      </c>
+      <c r="H46" s="63">
+        <v>5.33</v>
+      </c>
+      <c r="I46" s="63">
+        <v>0</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="L46" s="76">
+        <f>C44/3*H30</f>
+        <v>985687.99986111117</v>
+      </c>
+      <c r="M46" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="N46" s="77">
+        <f t="shared" si="1"/>
+        <v>32.709958531039284</v>
+      </c>
+      <c r="O46" s="78">
+        <f>C59/2*L6</f>
+        <v>1763277.1144444444</v>
+      </c>
+      <c r="P46" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="Q46" s="79">
+        <f t="shared" si="2"/>
+        <v>18.285165352559133</v>
+      </c>
+      <c r="R46" s="78">
+        <f>4*G33</f>
+        <v>450668</v>
+      </c>
+      <c r="S46" s="78">
+        <v>128</v>
+      </c>
+      <c r="T46" s="79">
+        <f t="shared" si="3"/>
+        <v>284.02282833482741</v>
+      </c>
+      <c r="U46" s="80">
+        <f t="shared" si="4"/>
+        <v>0.78887955894045569</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="5"/>
+        <v>0.11516665305676885</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="6"/>
+        <v>6.4379210149274377E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="128"/>
+      <c r="B47" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="64">
+        <v>6</v>
+      </c>
+      <c r="D47" s="63">
+        <v>24</v>
+      </c>
+      <c r="E47" s="63">
+        <v>24</v>
+      </c>
+      <c r="F47" s="63">
+        <v>8</v>
+      </c>
+      <c r="G47" s="63">
+        <v>24</v>
+      </c>
+      <c r="H47" s="63">
+        <v>8</v>
+      </c>
+      <c r="I47" s="63">
+        <v>0</v>
+      </c>
+      <c r="K47" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" s="76">
+        <f>C45/3*H30</f>
+        <v>1971375.9997222223</v>
+      </c>
+      <c r="M47" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="N47" s="77">
+        <f t="shared" si="1"/>
+        <v>16.354979265519642</v>
+      </c>
+      <c r="O47" s="78">
+        <f>C60/2*L6</f>
+        <v>2644915.6716666669</v>
+      </c>
+      <c r="P47" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="Q47" s="79">
+        <f t="shared" si="2"/>
+        <v>12.190110235039421</v>
+      </c>
+      <c r="R47" s="78">
+        <f>5*G33</f>
+        <v>563335</v>
+      </c>
+      <c r="S47" s="78">
+        <v>128</v>
+      </c>
+      <c r="T47" s="79">
+        <f t="shared" si="3"/>
+        <v>227.21826266786195</v>
+      </c>
+      <c r="U47" s="80">
+        <f t="shared" si="4"/>
+        <v>0.34165966920534185</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="5"/>
+        <v>7.1979158160480519E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="6"/>
+        <v>5.3649341791061969E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="128"/>
+      <c r="B48" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="64">
+        <v>9</v>
+      </c>
+      <c r="D48" s="63">
+        <v>36</v>
+      </c>
+      <c r="E48" s="63">
+        <v>36</v>
+      </c>
+      <c r="F48" s="63">
+        <v>12</v>
+      </c>
+      <c r="G48" s="63">
+        <v>36</v>
+      </c>
+      <c r="H48" s="63">
+        <v>12</v>
+      </c>
+      <c r="I48" s="63">
+        <v>0</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" s="76">
+        <f>C46/3*H30</f>
+        <v>1314250.6664814814</v>
+      </c>
+      <c r="M48" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="N48" s="77">
+        <f t="shared" si="1"/>
+        <v>12.266234449139732</v>
+      </c>
+      <c r="O48" s="78">
+        <f>C61/2*L6</f>
+        <v>1763277.1144444444</v>
+      </c>
+      <c r="P48" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="Q48" s="79">
+        <f t="shared" si="2"/>
+        <v>9.1425826762795666</v>
+      </c>
+      <c r="R48" s="78">
+        <f>4*G33</f>
+        <v>450668</v>
+      </c>
+      <c r="S48" s="78">
+        <v>64</v>
+      </c>
+      <c r="T48" s="79">
+        <f t="shared" si="3"/>
+        <v>142.0114141674137</v>
+      </c>
+      <c r="U48" s="80">
+        <f t="shared" si="4"/>
+        <v>0.34165966920534185</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="5"/>
+        <v>8.6374989792576642E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="6"/>
+        <v>6.4379210149274377E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="128"/>
+      <c r="B49" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C49" s="64">
+        <v>3</v>
+      </c>
+      <c r="D49" s="63">
+        <v>12</v>
+      </c>
+      <c r="E49" s="63">
+        <v>12</v>
+      </c>
+      <c r="F49" s="63">
+        <v>4</v>
+      </c>
+      <c r="G49" s="63">
+        <v>12</v>
+      </c>
+      <c r="H49" s="63">
+        <v>4</v>
+      </c>
+      <c r="I49" s="63">
+        <v>0</v>
+      </c>
+      <c r="K49" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="L49" s="76">
+        <f>C47/3*H30</f>
+        <v>1971375.9997222223</v>
+      </c>
+      <c r="M49" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="N49" s="77">
+        <f t="shared" si="1"/>
+        <v>8.177489632759821</v>
+      </c>
+      <c r="O49" s="78">
+        <f>C62/2*L6</f>
+        <v>2204096.3930555554</v>
+      </c>
+      <c r="P49" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="Q49" s="79">
+        <f t="shared" si="2"/>
+        <v>7.3140661410236536</v>
+      </c>
+      <c r="R49" s="78">
+        <f>5*G33</f>
+        <v>563335</v>
+      </c>
+      <c r="S49" s="78">
+        <v>64</v>
+      </c>
+      <c r="T49" s="79">
+        <f t="shared" si="3"/>
+        <v>113.60913133393097</v>
+      </c>
+      <c r="U49" s="80">
+        <f t="shared" si="4"/>
+        <v>0.11804972433778475</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="5"/>
+        <v>7.1979158160480519E-2</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="6"/>
+        <v>6.4379210149274363E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="128"/>
+      <c r="B50" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="K50" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" s="76">
+        <f>C48/3*H30</f>
+        <v>2957063.9995833337</v>
+      </c>
+      <c r="M50" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="N50" s="77">
+        <f t="shared" si="1"/>
+        <v>10.903319510346428</v>
+      </c>
+      <c r="O50" s="78">
+        <f>C63*L6/2</f>
+        <v>3526554.2288888888</v>
+      </c>
+      <c r="P50" s="76">
+        <v>32.2418136</v>
+      </c>
+      <c r="Q50" s="79">
+        <f t="shared" si="2"/>
+        <v>9.1425826762795666</v>
+      </c>
+      <c r="R50" s="78">
+        <f>7*G33</f>
+        <v>788669</v>
+      </c>
+      <c r="S50" s="78">
+        <v>128</v>
+      </c>
+      <c r="T50" s="79">
+        <f t="shared" si="3"/>
+        <v>162.29875904847279</v>
+      </c>
+      <c r="U50" s="80">
+        <f t="shared" si="4"/>
+        <v>0.19258637262697045</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="5"/>
+        <v>6.7180547616448497E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="6"/>
+        <v>5.6331808880615078E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="128"/>
+      <c r="B51" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="K51" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" s="76">
+        <f>3/C49*H30</f>
+        <v>985687.99986111117</v>
+      </c>
+      <c r="M51" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="N51" s="77">
+        <f t="shared" si="1"/>
+        <v>16.354979265519642</v>
+      </c>
+      <c r="O51" s="78">
+        <f>C64/2*L6</f>
+        <v>1763277.1144444444</v>
+      </c>
+      <c r="P51" s="76">
+        <v>16.1209068</v>
+      </c>
+      <c r="Q51" s="79">
+        <f t="shared" si="2"/>
+        <v>9.1425826762795666</v>
+      </c>
+      <c r="R51" s="78">
+        <f>3*G33</f>
+        <v>338001</v>
+      </c>
+      <c r="S51" s="78">
+        <v>64</v>
+      </c>
+      <c r="T51" s="79">
+        <f t="shared" si="3"/>
+        <v>189.34855222321826</v>
+      </c>
+      <c r="U51" s="80">
+        <f t="shared" si="4"/>
+        <v>0.78887955894045569</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="5"/>
+        <v>8.6374989792576642E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="6"/>
+        <v>4.8284407611955779E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="128"/>
+      <c r="B52" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="K52" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+    </row>
+    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="128"/>
+      <c r="B53" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="K53" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="81">
+        <f>AVERAGE(U44:U52)</f>
+        <v>0.51868420889215772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="128"/>
+      <c r="B54" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="K54" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+    </row>
+    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="128"/>
+      <c r="B55" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="K55" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+    </row>
+    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="129"/>
+      <c r="B56" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C56" s="67"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="K56" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+    </row>
+    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="127" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C57" s="64">
+        <v>4</v>
+      </c>
+      <c r="D57" s="63">
+        <v>16</v>
+      </c>
+      <c r="E57" s="63">
+        <v>16</v>
+      </c>
+      <c r="F57" s="63">
+        <v>8</v>
+      </c>
+      <c r="G57" s="63">
+        <v>96</v>
+      </c>
+      <c r="H57" s="63">
+        <v>8</v>
+      </c>
+      <c r="I57" s="63">
+        <v>0</v>
+      </c>
+      <c r="K57" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+    </row>
+    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="128"/>
+      <c r="B58" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" s="64">
+        <v>4</v>
+      </c>
+      <c r="D58" s="63">
+        <v>16</v>
+      </c>
+      <c r="E58" s="63">
+        <v>16</v>
+      </c>
+      <c r="F58" s="63">
+        <v>8</v>
+      </c>
+      <c r="G58" s="63">
+        <v>96</v>
+      </c>
+      <c r="H58" s="63">
+        <v>8</v>
+      </c>
+      <c r="I58" s="63">
+        <v>0</v>
+      </c>
+      <c r="K58" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+    </row>
+    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="128"/>
+      <c r="B59" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="64">
+        <v>4</v>
+      </c>
+      <c r="D59" s="63">
+        <v>16</v>
+      </c>
+      <c r="E59" s="63">
+        <v>16</v>
+      </c>
+      <c r="F59" s="63">
+        <v>8</v>
+      </c>
+      <c r="G59" s="63">
+        <v>96</v>
+      </c>
+      <c r="H59" s="63">
+        <v>8</v>
+      </c>
+      <c r="I59" s="63">
+        <v>0</v>
+      </c>
+      <c r="K59" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+    </row>
+    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="128"/>
+      <c r="B60" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" s="64">
+        <v>6</v>
+      </c>
+      <c r="D60" s="63">
+        <v>24</v>
+      </c>
+      <c r="E60" s="63">
+        <v>24</v>
+      </c>
+      <c r="F60" s="63">
+        <v>12</v>
+      </c>
+      <c r="G60" s="63">
+        <v>144</v>
+      </c>
+      <c r="H60" s="63">
+        <v>12</v>
+      </c>
+      <c r="I60" s="63">
+        <v>0</v>
+      </c>
+      <c r="K60" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+    </row>
+    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="128"/>
+      <c r="B61" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" s="64">
+        <v>4</v>
+      </c>
+      <c r="D61" s="63">
+        <v>16</v>
+      </c>
+      <c r="E61" s="63">
+        <v>16</v>
+      </c>
+      <c r="F61" s="63">
+        <v>8</v>
+      </c>
+      <c r="G61" s="63">
+        <v>96</v>
+      </c>
+      <c r="H61" s="63">
+        <v>8</v>
+      </c>
+      <c r="I61" s="63">
+        <v>0</v>
+      </c>
+      <c r="K61" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+    </row>
+    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="128"/>
+      <c r="B62" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" s="64">
+        <v>5</v>
+      </c>
+      <c r="D62" s="63">
+        <v>20</v>
+      </c>
+      <c r="E62" s="63">
+        <v>20</v>
+      </c>
+      <c r="F62" s="63">
+        <v>10</v>
+      </c>
+      <c r="G62" s="63">
+        <v>120</v>
+      </c>
+      <c r="H62" s="63">
+        <v>10</v>
+      </c>
+      <c r="I62" s="63">
+        <v>0</v>
+      </c>
+      <c r="K62" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+    </row>
+    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="128"/>
+      <c r="B63" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C63" s="64">
+        <v>8</v>
+      </c>
+      <c r="D63" s="63">
+        <v>32</v>
+      </c>
+      <c r="E63" s="63">
+        <v>32</v>
+      </c>
+      <c r="F63" s="63">
+        <v>16</v>
+      </c>
+      <c r="G63" s="63">
+        <v>192</v>
+      </c>
+      <c r="H63" s="63">
+        <v>16</v>
+      </c>
+      <c r="I63" s="63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+    </row>
+    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="128"/>
+      <c r="B64" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="64">
+        <v>4</v>
+      </c>
+      <c r="D64" s="63">
+        <v>16</v>
+      </c>
+      <c r="E64" s="63">
+        <v>16</v>
+      </c>
+      <c r="F64" s="63">
+        <v>8</v>
+      </c>
+      <c r="G64" s="63">
+        <v>96</v>
+      </c>
+      <c r="H64" s="63">
+        <v>8</v>
+      </c>
+      <c r="I64" s="63">
+        <v>0</v>
+      </c>
+      <c r="K64" s="74"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="128"/>
+      <c r="B65" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" s="67"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="K65" s="74"/>
+    </row>
+    <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="128"/>
+      <c r="B66" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="K66" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="L66" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="M66" s="131"/>
+      <c r="N66" s="132"/>
+      <c r="O66" s="130" t="s">
+        <v>483</v>
+      </c>
+      <c r="P66" s="131"/>
+      <c r="Q66" s="132"/>
+      <c r="R66" s="130" t="s">
+        <v>484</v>
+      </c>
+      <c r="S66" s="131"/>
+      <c r="T66" s="132"/>
+    </row>
+    <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="128"/>
+      <c r="B67" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C67" s="67"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="K67" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="L67" s="130"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="132"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="131"/>
+      <c r="Q67" s="132"/>
+      <c r="R67" s="130"/>
+      <c r="S67" s="131"/>
+      <c r="T67" s="132"/>
+    </row>
+    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="128"/>
+      <c r="B68" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="67"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="K68" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" s="130"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="131"/>
+      <c r="Q68" s="132"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="131"/>
+      <c r="T68" s="132"/>
+    </row>
+    <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="128"/>
+      <c r="B69" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="67"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="M69" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="N69" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="O69" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="P69" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q69" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="R69" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="S69" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="T69" s="72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="128"/>
+      <c r="B70" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="K70" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+    </row>
+    <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="129"/>
+      <c r="B71" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="K71" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="63"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="124" t="s">
+        <v>471</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="64">
+        <v>2</v>
+      </c>
+      <c r="D72" s="63">
+        <v>8</v>
+      </c>
+      <c r="E72" s="63">
+        <v>8</v>
+      </c>
+      <c r="F72" s="63">
+        <v>8</v>
+      </c>
+      <c r="G72" s="63">
+        <v>48</v>
+      </c>
+      <c r="H72" s="63">
+        <v>8</v>
+      </c>
+      <c r="I72" s="63">
+        <v>0</v>
+      </c>
+      <c r="K72" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="125"/>
+      <c r="B73" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C73" s="64">
+        <v>3</v>
+      </c>
+      <c r="D73" s="63">
+        <v>12</v>
+      </c>
+      <c r="E73" s="63">
+        <v>12</v>
+      </c>
+      <c r="F73" s="63">
+        <v>12</v>
+      </c>
+      <c r="G73" s="63">
+        <v>72</v>
+      </c>
+      <c r="H73" s="63">
+        <v>12</v>
+      </c>
+      <c r="I73" s="63">
+        <v>0</v>
+      </c>
+      <c r="K73" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
+    </row>
+    <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="125"/>
+      <c r="B74" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" s="64">
+        <v>4</v>
+      </c>
+      <c r="D74" s="63">
+        <v>16</v>
+      </c>
+      <c r="E74" s="63">
+        <v>16</v>
+      </c>
+      <c r="F74" s="63">
+        <v>16</v>
+      </c>
+      <c r="G74" s="63">
+        <v>96</v>
+      </c>
+      <c r="H74" s="63">
+        <v>16</v>
+      </c>
+      <c r="I74" s="63">
+        <v>0</v>
+      </c>
+      <c r="K74" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="63"/>
+      <c r="T74" s="63"/>
+    </row>
+    <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="125"/>
+      <c r="B75" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C75" s="64">
+        <v>5</v>
+      </c>
+      <c r="D75" s="63">
+        <v>20</v>
+      </c>
+      <c r="E75" s="63">
+        <v>20</v>
+      </c>
+      <c r="F75" s="63">
+        <v>20</v>
+      </c>
+      <c r="G75" s="63">
+        <v>120</v>
+      </c>
+      <c r="H75" s="63">
+        <v>20</v>
+      </c>
+      <c r="I75" s="63">
+        <v>0</v>
+      </c>
+      <c r="K75" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="63"/>
+    </row>
+    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="125"/>
+      <c r="B76" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C76" s="64">
+        <v>4</v>
+      </c>
+      <c r="D76" s="63">
+        <v>16</v>
+      </c>
+      <c r="E76" s="63">
+        <v>16</v>
+      </c>
+      <c r="F76" s="63">
+        <v>16</v>
+      </c>
+      <c r="G76" s="63">
+        <v>96</v>
+      </c>
+      <c r="H76" s="63">
+        <v>16</v>
+      </c>
+      <c r="I76" s="63">
+        <v>0</v>
+      </c>
+      <c r="K76" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="63"/>
+    </row>
+    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="125"/>
+      <c r="B77" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="64">
+        <v>5</v>
+      </c>
+      <c r="D77" s="63">
+        <v>20</v>
+      </c>
+      <c r="E77" s="63">
+        <v>20</v>
+      </c>
+      <c r="F77" s="63">
+        <v>20</v>
+      </c>
+      <c r="G77" s="63">
+        <v>120</v>
+      </c>
+      <c r="H77" s="63">
+        <v>20</v>
+      </c>
+      <c r="I77" s="63">
+        <v>0</v>
+      </c>
+      <c r="K77" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="63"/>
+    </row>
+    <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="125"/>
+      <c r="B78" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C78" s="64">
+        <v>7</v>
+      </c>
+      <c r="D78" s="63">
+        <v>28</v>
+      </c>
+      <c r="E78" s="63">
+        <v>28</v>
+      </c>
+      <c r="F78" s="63">
+        <v>28</v>
+      </c>
+      <c r="G78" s="63">
+        <v>168</v>
+      </c>
+      <c r="H78" s="63">
+        <v>28</v>
+      </c>
+      <c r="I78" s="63">
+        <v>0</v>
+      </c>
+      <c r="K78" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+    </row>
+    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="125"/>
+      <c r="B79" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" s="64">
+        <v>3</v>
+      </c>
+      <c r="D79" s="63">
+        <v>12</v>
+      </c>
+      <c r="E79" s="63">
+        <v>12</v>
+      </c>
+      <c r="F79" s="63">
+        <v>12</v>
+      </c>
+      <c r="G79" s="63">
+        <v>72</v>
+      </c>
+      <c r="H79" s="63">
+        <v>12</v>
+      </c>
+      <c r="I79" s="63">
+        <v>0</v>
+      </c>
+      <c r="K79" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+    </row>
+    <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="125"/>
+      <c r="B80" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="67"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="K80" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="63"/>
+      <c r="T80" s="63"/>
+    </row>
+    <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="125"/>
+      <c r="B81" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" s="67"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="K81" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="63"/>
+      <c r="T81" s="63"/>
+    </row>
+    <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="125"/>
+      <c r="B82" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" s="67"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="K82" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="63"/>
+      <c r="T82" s="63"/>
+    </row>
+    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="125"/>
+      <c r="B83" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="67"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="K83" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="63"/>
+      <c r="T83" s="63"/>
+    </row>
+    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="125"/>
+      <c r="B84" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="67"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="K84" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="63"/>
+      <c r="Q84" s="63"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="63"/>
+      <c r="T84" s="63"/>
+    </row>
+    <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="125"/>
+      <c r="B85" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" s="67"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="K85" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="63"/>
+      <c r="T85" s="63"/>
+    </row>
+    <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="126"/>
+      <c r="B86" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C86" s="67"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="K86" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="63"/>
+      <c r="Q86" s="63"/>
+      <c r="R86" s="63"/>
+      <c r="S86" s="63"/>
+      <c r="T86" s="63"/>
+    </row>
+    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C87" s="64">
+        <v>2</v>
+      </c>
+      <c r="D87" s="63">
+        <v>8</v>
+      </c>
+      <c r="E87" s="63">
+        <v>8</v>
+      </c>
+      <c r="F87" s="63">
+        <v>8</v>
+      </c>
+      <c r="G87" s="63">
+        <v>16</v>
+      </c>
+      <c r="H87" s="63">
+        <v>8</v>
+      </c>
+      <c r="I87" s="63">
+        <v>8</v>
+      </c>
+      <c r="K87" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="63"/>
+      <c r="T87" s="63"/>
+    </row>
+    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="125"/>
+      <c r="B88" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C88" s="64">
+        <v>3</v>
+      </c>
+      <c r="D88" s="63">
+        <v>12</v>
+      </c>
+      <c r="E88" s="63">
+        <v>12</v>
+      </c>
+      <c r="F88" s="63">
+        <v>12</v>
+      </c>
+      <c r="G88" s="63">
+        <v>24</v>
+      </c>
+      <c r="H88" s="63">
+        <v>12</v>
+      </c>
+      <c r="I88" s="63">
+        <v>0</v>
+      </c>
+      <c r="K88" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="L88" s="66"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="63"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="63"/>
+      <c r="T88" s="63"/>
+    </row>
+    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="125"/>
+      <c r="B89" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" s="64">
+        <v>12</v>
+      </c>
+      <c r="D89" s="63">
+        <v>48</v>
+      </c>
+      <c r="E89" s="63">
+        <v>48</v>
+      </c>
+      <c r="F89" s="63">
+        <v>48</v>
+      </c>
+      <c r="G89" s="63">
+        <v>96</v>
+      </c>
+      <c r="H89" s="63">
+        <v>48</v>
+      </c>
+      <c r="I89" s="63">
+        <v>0</v>
+      </c>
+      <c r="K89" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="L89" s="66"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="63"/>
+      <c r="T89" s="63"/>
+    </row>
+    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="125"/>
+      <c r="B90" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" s="64">
+        <v>6</v>
+      </c>
+      <c r="D90" s="63">
+        <v>24</v>
+      </c>
+      <c r="E90" s="63">
+        <v>24</v>
+      </c>
+      <c r="F90" s="63">
+        <v>24</v>
+      </c>
+      <c r="G90" s="63">
+        <v>48</v>
+      </c>
+      <c r="H90" s="63">
+        <v>24</v>
+      </c>
+      <c r="I90" s="63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="125"/>
+      <c r="B91" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C91" s="64">
+        <v>4</v>
+      </c>
+      <c r="D91" s="63">
+        <v>16</v>
+      </c>
+      <c r="E91" s="63">
+        <v>16</v>
+      </c>
+      <c r="F91" s="63">
+        <v>16</v>
+      </c>
+      <c r="G91" s="63">
+        <v>32</v>
+      </c>
+      <c r="H91" s="63">
+        <v>16</v>
+      </c>
+      <c r="I91" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="125"/>
+      <c r="B92" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C92" s="64">
+        <v>5</v>
+      </c>
+      <c r="D92" s="63">
+        <v>20</v>
+      </c>
+      <c r="E92" s="63">
+        <v>20</v>
+      </c>
+      <c r="F92" s="63">
+        <v>20</v>
+      </c>
+      <c r="G92" s="63">
+        <v>20</v>
+      </c>
+      <c r="H92" s="63">
+        <v>20</v>
+      </c>
+      <c r="I92" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="125"/>
+      <c r="B93" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" s="64">
+        <v>7</v>
+      </c>
+      <c r="D93" s="63">
+        <v>28</v>
+      </c>
+      <c r="E93" s="63">
+        <v>28</v>
+      </c>
+      <c r="F93" s="63">
+        <v>28</v>
+      </c>
+      <c r="G93" s="63">
+        <v>56</v>
+      </c>
+      <c r="H93" s="63">
+        <v>28</v>
+      </c>
+      <c r="I93" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="125"/>
+      <c r="B94" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C94" s="64">
+        <v>3</v>
+      </c>
+      <c r="D94" s="63">
+        <v>12</v>
+      </c>
+      <c r="E94" s="63">
+        <v>12</v>
+      </c>
+      <c r="F94" s="63">
+        <v>12</v>
+      </c>
+      <c r="G94" s="63">
+        <v>24</v>
+      </c>
+      <c r="H94" s="63">
+        <v>12</v>
+      </c>
+      <c r="I94" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="125"/>
+      <c r="B95" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C95" s="67"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+    </row>
+    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="125"/>
+      <c r="B96" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C96" s="67"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="125"/>
+      <c r="B97" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C97" s="67"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="125"/>
+      <c r="B98" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="67"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="125"/>
+      <c r="B99" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C99" s="67"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="125"/>
+      <c r="B100" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="67"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+    </row>
+    <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="126"/>
+      <c r="B101" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C101" s="67"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="124" t="s">
+        <v>473</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" s="68"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="125"/>
+      <c r="B103" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C103" s="68"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="125"/>
+      <c r="B104" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" s="68"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="125"/>
+      <c r="B105" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" s="68"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="125"/>
+      <c r="B106" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="125"/>
+      <c r="B107" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="125"/>
+      <c r="B108" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="68"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="125"/>
+      <c r="B109" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C109" s="68"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="125"/>
+      <c r="B110" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="67"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="125"/>
+      <c r="B111" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111" s="67"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="125"/>
+      <c r="B112" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" s="67"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+    </row>
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="125"/>
+      <c r="B113" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="67"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="125"/>
+      <c r="B114" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" s="67"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="125"/>
+      <c r="B115" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C115" s="67"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+    </row>
+    <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="126"/>
+      <c r="B116" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="67"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="127" t="s">
+        <v>474</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C117" s="68"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+    </row>
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="128"/>
+      <c r="B118" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C118" s="68"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="128"/>
+      <c r="B119" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="68"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="128"/>
+      <c r="B120" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C120" s="68"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="66"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="128"/>
+      <c r="B121" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C121" s="68"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="128"/>
+      <c r="B122" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" s="68"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+    </row>
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="128"/>
+      <c r="B123" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C123" s="68"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="128"/>
+      <c r="B124" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="68"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="128"/>
+      <c r="B125" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="C125" s="67"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+    </row>
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="128"/>
+      <c r="B126" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" s="67"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="128"/>
+      <c r="B127" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="67"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="128"/>
+      <c r="B128" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="128"/>
+      <c r="B129" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C129" s="67"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="128"/>
+      <c r="B130" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C130" s="67"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+    </row>
+    <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="129"/>
+      <c r="B131" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C131" s="67"/>
+      <c r="D131" s="66"/>
+      <c r="E131" s="66"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
+    </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7802,2560 +11067,2555 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:H213"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="127" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="141" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="143" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="105" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="63" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="127" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="114"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="114"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="128"/>
+      <c r="B5" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="106" t="s">
+      <c r="A6" s="128"/>
+      <c r="B6" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="128"/>
+      <c r="B7" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="106" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="106" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="106" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="106" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="106" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="106" t="s">
+      <c r="A16" s="128"/>
+      <c r="B16" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="106" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="106" t="s">
+      <c r="A18" s="128"/>
+      <c r="B18" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="106" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="106" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="106" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="106" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="106" t="s">
+      <c r="A23" s="128"/>
+      <c r="B23" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="106" t="s">
+      <c r="A24" s="128"/>
+      <c r="B24" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="106" t="s">
+      <c r="A25" s="128"/>
+      <c r="B25" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="106" t="s">
+      <c r="A26" s="128"/>
+      <c r="B26" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="106" t="s">
+      <c r="A27" s="128"/>
+      <c r="B27" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="106" t="s">
+      <c r="A28" s="128"/>
+      <c r="B28" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="106" t="s">
+      <c r="A29" s="128"/>
+      <c r="B29" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="128"/>
+      <c r="B30" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
-      <c r="B31" s="106" t="s">
+      <c r="A31" s="128"/>
+      <c r="B31" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
-      <c r="B32" s="106" t="s">
+      <c r="A32" s="128"/>
+      <c r="B32" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="106" t="s">
+      <c r="A33" s="128"/>
+      <c r="B33" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
-      <c r="B34" s="106" t="s">
+      <c r="A34" s="128"/>
+      <c r="B34" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="106" t="s">
+      <c r="A35" s="128"/>
+      <c r="B35" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="128"/>
+      <c r="B36" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="106" t="s">
+      <c r="A37" s="128"/>
+      <c r="B37" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="106" t="s">
+      <c r="A38" s="129"/>
+      <c r="B38" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="127" t="s">
         <v>442</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="106" t="s">
+      <c r="A40" s="128"/>
+      <c r="B40" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="106" t="s">
+      <c r="A41" s="128"/>
+      <c r="B41" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="128"/>
+      <c r="B42" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="106" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="106" t="s">
+      <c r="A44" s="128"/>
+      <c r="B44" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="106" t="s">
+      <c r="A45" s="128"/>
+      <c r="B45" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
-      <c r="B46" s="106" t="s">
+      <c r="A46" s="128"/>
+      <c r="B46" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="128"/>
+      <c r="B47" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="106" t="s">
+      <c r="A48" s="128"/>
+      <c r="B48" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
-      <c r="B49" s="106" t="s">
+      <c r="A49" s="128"/>
+      <c r="B49" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
-      <c r="B50" s="106" t="s">
+      <c r="A50" s="128"/>
+      <c r="B50" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="128"/>
+      <c r="B51" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114"/>
-      <c r="B52" s="106" t="s">
+      <c r="A52" s="128"/>
+      <c r="B52" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="106" t="s">
+      <c r="A53" s="128"/>
+      <c r="B53" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="114"/>
-      <c r="B54" s="106" t="s">
+      <c r="A54" s="128"/>
+      <c r="B54" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114"/>
-      <c r="B55" s="106" t="s">
+      <c r="A55" s="128"/>
+      <c r="B55" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
-      <c r="B56" s="106" t="s">
+      <c r="A56" s="128"/>
+      <c r="B56" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
-      <c r="B57" s="106" t="s">
+      <c r="A57" s="128"/>
+      <c r="B57" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
-      <c r="B58" s="106" t="s">
+      <c r="A58" s="128"/>
+      <c r="B58" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
-      <c r="B59" s="106" t="s">
+      <c r="A59" s="128"/>
+      <c r="B59" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
-      <c r="B60" s="106" t="s">
+      <c r="A60" s="128"/>
+      <c r="B60" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
-      <c r="B61" s="106" t="s">
+      <c r="A61" s="128"/>
+      <c r="B61" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
-      <c r="B62" s="106" t="s">
+      <c r="A62" s="128"/>
+      <c r="B62" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
-      <c r="B63" s="106" t="s">
+      <c r="A63" s="128"/>
+      <c r="B63" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
-      <c r="B64" s="106" t="s">
+      <c r="A64" s="128"/>
+      <c r="B64" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="114"/>
-      <c r="B65" s="106" t="s">
+      <c r="A65" s="128"/>
+      <c r="B65" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
-      <c r="B66" s="106" t="s">
+      <c r="A66" s="128"/>
+      <c r="B66" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
-      <c r="B67" s="106" t="s">
+      <c r="A67" s="128"/>
+      <c r="B67" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
-      <c r="B68" s="106" t="s">
+      <c r="A68" s="128"/>
+      <c r="B68" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
-      <c r="B69" s="106" t="s">
+      <c r="A69" s="128"/>
+      <c r="B69" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
-      <c r="B70" s="106" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
-      <c r="B71" s="106" t="s">
+      <c r="A71" s="128"/>
+      <c r="B71" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
-      <c r="B72" s="106" t="s">
+      <c r="A72" s="128"/>
+      <c r="B72" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="105"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
-      <c r="B73" s="106" t="s">
+      <c r="A73" s="128"/>
+      <c r="B73" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="105"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="108"/>
-      <c r="B74" s="106" t="s">
+      <c r="A74" s="129"/>
+      <c r="B74" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C75" s="105"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114"/>
-      <c r="B76" s="106" t="s">
+      <c r="A76" s="128"/>
+      <c r="B76" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
-      <c r="B77" s="106" t="s">
+      <c r="A77" s="128"/>
+      <c r="B77" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="114"/>
-      <c r="B78" s="106" t="s">
+      <c r="A78" s="128"/>
+      <c r="B78" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="114"/>
-      <c r="B79" s="106" t="s">
+      <c r="A79" s="128"/>
+      <c r="B79" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="105"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
-      <c r="B80" s="106" t="s">
+      <c r="A80" s="128"/>
+      <c r="B80" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C80" s="105"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="105"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="114"/>
-      <c r="B81" s="106" t="s">
+      <c r="A81" s="128"/>
+      <c r="B81" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="114"/>
-      <c r="B82" s="106" t="s">
+      <c r="A82" s="128"/>
+      <c r="B82" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
-      <c r="B83" s="106" t="s">
+      <c r="A83" s="128"/>
+      <c r="B83" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="114"/>
-      <c r="B84" s="106" t="s">
+      <c r="A84" s="128"/>
+      <c r="B84" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114"/>
-      <c r="B85" s="106" t="s">
+      <c r="A85" s="128"/>
+      <c r="B85" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C85" s="105"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114"/>
-      <c r="B86" s="106" t="s">
+      <c r="A86" s="128"/>
+      <c r="B86" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C86" s="105"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="105"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114"/>
-      <c r="B87" s="106" t="s">
+      <c r="A87" s="128"/>
+      <c r="B87" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114"/>
-      <c r="B88" s="106" t="s">
+      <c r="A88" s="128"/>
+      <c r="B88" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C88" s="105"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114"/>
-      <c r="B89" s="106" t="s">
+      <c r="A89" s="128"/>
+      <c r="B89" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C89" s="105"/>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114"/>
-      <c r="B90" s="106" t="s">
+      <c r="A90" s="128"/>
+      <c r="B90" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114"/>
-      <c r="B91" s="106" t="s">
+      <c r="A91" s="128"/>
+      <c r="B91" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114"/>
-      <c r="B92" s="106" t="s">
+      <c r="A92" s="128"/>
+      <c r="B92" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="105"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="114"/>
-      <c r="B93" s="106" t="s">
+      <c r="A93" s="128"/>
+      <c r="B93" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
-      <c r="B94" s="106" t="s">
+      <c r="A94" s="128"/>
+      <c r="B94" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C94" s="105"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="105"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="114"/>
-      <c r="B95" s="106" t="s">
+      <c r="A95" s="128"/>
+      <c r="B95" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C95" s="105"/>
-      <c r="D95" s="105"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="105"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="114"/>
-      <c r="B96" s="106" t="s">
+      <c r="A96" s="128"/>
+      <c r="B96" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="C96" s="105"/>
-      <c r="D96" s="105"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="105"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="114"/>
-      <c r="B97" s="106" t="s">
+      <c r="A97" s="128"/>
+      <c r="B97" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="114"/>
-      <c r="B98" s="106" t="s">
+      <c r="A98" s="128"/>
+      <c r="B98" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="105"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="114"/>
-      <c r="B99" s="106" t="s">
+      <c r="A99" s="128"/>
+      <c r="B99" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C99" s="105"/>
-      <c r="D99" s="105"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="114"/>
-      <c r="B100" s="106" t="s">
+      <c r="A100" s="128"/>
+      <c r="B100" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="114"/>
-      <c r="B101" s="106" t="s">
+      <c r="A101" s="128"/>
+      <c r="B101" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C101" s="105"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="114"/>
-      <c r="B102" s="106" t="s">
+      <c r="A102" s="128"/>
+      <c r="B102" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C102" s="105"/>
-      <c r="D102" s="105"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="105"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="114"/>
-      <c r="B103" s="106" t="s">
+      <c r="A103" s="128"/>
+      <c r="B103" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="114"/>
-      <c r="B104" s="106" t="s">
+      <c r="A104" s="128"/>
+      <c r="B104" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="105"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="114"/>
-      <c r="B105" s="106" t="s">
+      <c r="A105" s="128"/>
+      <c r="B105" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="114"/>
-      <c r="B106" s="106" t="s">
+      <c r="A106" s="128"/>
+      <c r="B106" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="114"/>
-      <c r="B107" s="106" t="s">
+      <c r="A107" s="128"/>
+      <c r="B107" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="114"/>
-      <c r="B108" s="106" t="s">
+      <c r="A108" s="128"/>
+      <c r="B108" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="114"/>
-      <c r="B109" s="106" t="s">
+      <c r="A109" s="128"/>
+      <c r="B109" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C109" s="105"/>
-      <c r="D109" s="105"/>
-      <c r="E109" s="105"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="105"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="108"/>
-      <c r="B110" s="106" t="s">
+      <c r="A110" s="129"/>
+      <c r="B110" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="107" t="s">
+      <c r="A111" s="127" t="s">
         <v>445</v>
       </c>
-      <c r="B111" s="106" t="s">
+      <c r="B111" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="105"/>
-      <c r="E111" s="105"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="114"/>
-      <c r="B112" s="106" t="s">
+      <c r="A112" s="128"/>
+      <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="114"/>
-      <c r="B113" s="106" t="s">
+      <c r="A113" s="128"/>
+      <c r="B113" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="105"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="114"/>
-      <c r="B114" s="106" t="s">
+      <c r="A114" s="128"/>
+      <c r="B114" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C114" s="105"/>
-      <c r="D114" s="105"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="105"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="114"/>
-      <c r="B115" s="106" t="s">
+      <c r="A115" s="128"/>
+      <c r="B115" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C115" s="105"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="114"/>
-      <c r="B116" s="106" t="s">
+      <c r="A116" s="128"/>
+      <c r="B116" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C116" s="105"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="105"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="114"/>
-      <c r="B117" s="106" t="s">
+      <c r="A117" s="128"/>
+      <c r="B117" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C117" s="105"/>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="105"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="114"/>
-      <c r="B118" s="106" t="s">
+      <c r="A118" s="128"/>
+      <c r="B118" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="105"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="114"/>
-      <c r="B119" s="106" t="s">
+      <c r="A119" s="128"/>
+      <c r="B119" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="114"/>
-      <c r="B120" s="106" t="s">
+      <c r="A120" s="128"/>
+      <c r="B120" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
+      <c r="C120" s="63"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="114"/>
-      <c r="B121" s="106" t="s">
+      <c r="A121" s="128"/>
+      <c r="B121" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="114"/>
-      <c r="B122" s="106" t="s">
+      <c r="A122" s="128"/>
+      <c r="B122" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="114"/>
-      <c r="B123" s="106" t="s">
+      <c r="A123" s="128"/>
+      <c r="B123" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="114"/>
-      <c r="B124" s="106" t="s">
+      <c r="A124" s="128"/>
+      <c r="B124" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="63"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="114"/>
-      <c r="B125" s="106" t="s">
+      <c r="A125" s="128"/>
+      <c r="B125" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="105"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="114"/>
-      <c r="B126" s="106" t="s">
+      <c r="A126" s="128"/>
+      <c r="B126" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="114"/>
-      <c r="B127" s="106" t="s">
+      <c r="A127" s="128"/>
+      <c r="B127" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C127" s="105"/>
-      <c r="D127" s="105"/>
-      <c r="E127" s="105"/>
-      <c r="F127" s="105"/>
-      <c r="G127" s="105"/>
-      <c r="H127" s="105"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="114"/>
-      <c r="B128" s="106" t="s">
+      <c r="A128" s="128"/>
+      <c r="B128" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="C128" s="105"/>
-      <c r="D128" s="105"/>
-      <c r="E128" s="105"/>
-      <c r="F128" s="105"/>
-      <c r="G128" s="105"/>
-      <c r="H128" s="105"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
+      <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="114"/>
-      <c r="B129" s="106" t="s">
+      <c r="A129" s="128"/>
+      <c r="B129" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C129" s="105"/>
-      <c r="D129" s="105"/>
-      <c r="E129" s="105"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="105"/>
-      <c r="H129" s="105"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="114"/>
-      <c r="B130" s="106" t="s">
+      <c r="A130" s="128"/>
+      <c r="B130" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="C130" s="105"/>
-      <c r="D130" s="105"/>
-      <c r="E130" s="105"/>
-      <c r="F130" s="105"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="105"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="114"/>
-      <c r="B131" s="106" t="s">
+      <c r="A131" s="128"/>
+      <c r="B131" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C131" s="105"/>
-      <c r="D131" s="105"/>
-      <c r="E131" s="105"/>
-      <c r="F131" s="105"/>
-      <c r="G131" s="105"/>
-      <c r="H131" s="105"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="114"/>
-      <c r="B132" s="106" t="s">
+      <c r="A132" s="128"/>
+      <c r="B132" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="C132" s="105"/>
-      <c r="D132" s="105"/>
-      <c r="E132" s="105"/>
-      <c r="F132" s="105"/>
-      <c r="G132" s="105"/>
-      <c r="H132" s="105"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="114"/>
-      <c r="B133" s="106" t="s">
+      <c r="A133" s="128"/>
+      <c r="B133" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="C133" s="105"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="105"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="114"/>
-      <c r="B134" s="106" t="s">
+      <c r="A134" s="128"/>
+      <c r="B134" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C134" s="105"/>
-      <c r="D134" s="105"/>
-      <c r="E134" s="105"/>
-      <c r="F134" s="105"/>
-      <c r="G134" s="105"/>
-      <c r="H134" s="105"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="114"/>
-      <c r="B135" s="106" t="s">
+      <c r="A135" s="128"/>
+      <c r="B135" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C135" s="105"/>
-      <c r="D135" s="105"/>
-      <c r="E135" s="105"/>
-      <c r="F135" s="105"/>
-      <c r="G135" s="105"/>
-      <c r="H135" s="105"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="114"/>
-      <c r="B136" s="106" t="s">
+      <c r="A136" s="128"/>
+      <c r="B136" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C136" s="105"/>
-      <c r="D136" s="105"/>
-      <c r="E136" s="105"/>
-      <c r="F136" s="105"/>
-      <c r="G136" s="105"/>
-      <c r="H136" s="105"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="114"/>
-      <c r="B137" s="106" t="s">
+      <c r="A137" s="128"/>
+      <c r="B137" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C137" s="105"/>
-      <c r="D137" s="105"/>
-      <c r="E137" s="105"/>
-      <c r="F137" s="105"/>
-      <c r="G137" s="105"/>
-      <c r="H137" s="105"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
+      <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="114"/>
-      <c r="B138" s="106" t="s">
+      <c r="A138" s="128"/>
+      <c r="B138" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="C138" s="105"/>
-      <c r="D138" s="105"/>
-      <c r="E138" s="105"/>
-      <c r="F138" s="105"/>
-      <c r="G138" s="105"/>
-      <c r="H138" s="105"/>
+      <c r="C138" s="63"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="114"/>
-      <c r="B139" s="106" t="s">
+      <c r="A139" s="128"/>
+      <c r="B139" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="105"/>
-      <c r="D139" s="105"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="105"/>
-      <c r="G139" s="105"/>
-      <c r="H139" s="105"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="114"/>
-      <c r="B140" s="106" t="s">
+      <c r="A140" s="128"/>
+      <c r="B140" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C140" s="105"/>
-      <c r="D140" s="105"/>
-      <c r="E140" s="105"/>
-      <c r="F140" s="105"/>
-      <c r="G140" s="105"/>
-      <c r="H140" s="105"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="114"/>
-      <c r="B141" s="106" t="s">
+      <c r="A141" s="128"/>
+      <c r="B141" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="C141" s="105"/>
-      <c r="D141" s="105"/>
-      <c r="E141" s="105"/>
-      <c r="F141" s="105"/>
-      <c r="G141" s="105"/>
-      <c r="H141" s="105"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="63"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="114"/>
-      <c r="B142" s="106" t="s">
+      <c r="A142" s="128"/>
+      <c r="B142" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C142" s="105"/>
-      <c r="D142" s="105"/>
-      <c r="E142" s="105"/>
-      <c r="F142" s="105"/>
-      <c r="G142" s="105"/>
-      <c r="H142" s="105"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="114"/>
-      <c r="B143" s="106" t="s">
+      <c r="A143" s="128"/>
+      <c r="B143" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="C143" s="105"/>
-      <c r="D143" s="105"/>
-      <c r="E143" s="105"/>
-      <c r="F143" s="105"/>
-      <c r="G143" s="105"/>
-      <c r="H143" s="105"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
+      <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="114"/>
-      <c r="B144" s="106" t="s">
+      <c r="A144" s="128"/>
+      <c r="B144" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="C144" s="105"/>
-      <c r="D144" s="105"/>
-      <c r="E144" s="105"/>
-      <c r="F144" s="105"/>
-      <c r="G144" s="105"/>
-      <c r="H144" s="105"/>
+      <c r="C144" s="63"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="63"/>
+      <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="114"/>
-      <c r="B145" s="106" t="s">
+      <c r="A145" s="128"/>
+      <c r="B145" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="C145" s="105"/>
-      <c r="D145" s="105"/>
-      <c r="E145" s="105"/>
-      <c r="F145" s="105"/>
-      <c r="G145" s="105"/>
-      <c r="H145" s="105"/>
+      <c r="C145" s="63"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="108"/>
-      <c r="B146" s="106" t="s">
+      <c r="A146" s="129"/>
+      <c r="B146" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="C146" s="105"/>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="63"/>
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="107" t="s">
+      <c r="A152" s="127" t="s">
         <v>401</v>
       </c>
-      <c r="B152" s="109" t="s">
+      <c r="B152" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C152" s="112" t="s">
+      <c r="C152" s="135" t="s">
         <v>402</v>
       </c>
-      <c r="D152" s="111"/>
-      <c r="E152" s="111"/>
-      <c r="F152" s="111"/>
-      <c r="G152" s="111"/>
-      <c r="H152" s="113"/>
+      <c r="D152" s="136"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+      <c r="G152" s="136"/>
+      <c r="H152" s="137"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="108"/>
-      <c r="B153" s="110"/>
-      <c r="C153" s="105" t="s">
+      <c r="A153" s="129"/>
+      <c r="B153" s="134"/>
+      <c r="C153" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="D153" s="105" t="s">
+      <c r="D153" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="E153" s="105" t="s">
+      <c r="E153" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="F153" s="105" t="s">
+      <c r="F153" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="G153" s="105" t="s">
+      <c r="G153" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="H153" s="105" t="s">
+      <c r="H153" s="63" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="107" t="s">
+      <c r="A154" s="127" t="s">
         <v>408</v>
       </c>
-      <c r="B154" s="106" t="s">
+      <c r="B154" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C154" s="120"/>
-      <c r="D154" s="120"/>
-      <c r="E154" s="120"/>
-      <c r="F154" s="120"/>
-      <c r="G154" s="120"/>
-      <c r="H154" s="120"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="114"/>
-      <c r="B155" s="106" t="s">
+      <c r="A155" s="128"/>
+      <c r="B155" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C155" s="120"/>
-      <c r="D155" s="120"/>
-      <c r="E155" s="120"/>
-      <c r="F155" s="120"/>
-      <c r="G155" s="120"/>
-      <c r="H155" s="120"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="66"/>
+      <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="114"/>
-      <c r="B156" s="106" t="s">
+      <c r="A156" s="128"/>
+      <c r="B156" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C156" s="120"/>
-      <c r="D156" s="120"/>
-      <c r="E156" s="120"/>
-      <c r="F156" s="120"/>
-      <c r="G156" s="120"/>
-      <c r="H156" s="120"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="114"/>
-      <c r="B157" s="106" t="s">
+      <c r="A157" s="128"/>
+      <c r="B157" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C157" s="120"/>
-      <c r="D157" s="120"/>
-      <c r="E157" s="120"/>
-      <c r="F157" s="120"/>
-      <c r="G157" s="120"/>
-      <c r="H157" s="120"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="114"/>
-      <c r="B158" s="106" t="s">
+      <c r="A158" s="128"/>
+      <c r="B158" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C158" s="120"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="120"/>
-      <c r="F158" s="120"/>
-      <c r="G158" s="120"/>
-      <c r="H158" s="120"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="114"/>
-      <c r="B159" s="106" t="s">
+      <c r="A159" s="128"/>
+      <c r="B159" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C159" s="120"/>
-      <c r="D159" s="120"/>
-      <c r="E159" s="120"/>
-      <c r="F159" s="120"/>
-      <c r="G159" s="120"/>
-      <c r="H159" s="120"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="114"/>
-      <c r="B160" s="106" t="s">
+      <c r="A160" s="128"/>
+      <c r="B160" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C160" s="120"/>
-      <c r="D160" s="120"/>
-      <c r="E160" s="120"/>
-      <c r="F160" s="120"/>
-      <c r="G160" s="120"/>
-      <c r="H160" s="120"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="114"/>
-      <c r="B161" s="106" t="s">
+      <c r="A161" s="128"/>
+      <c r="B161" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C161" s="120"/>
-      <c r="D161" s="120"/>
-      <c r="E161" s="120"/>
-      <c r="F161" s="120"/>
-      <c r="G161" s="120"/>
-      <c r="H161" s="120"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="66"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="114"/>
-      <c r="B162" s="106" t="s">
+      <c r="A162" s="128"/>
+      <c r="B162" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C162" s="120"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="120"/>
-      <c r="F162" s="120"/>
-      <c r="G162" s="120"/>
-      <c r="H162" s="120"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="114"/>
-      <c r="B163" s="106" t="s">
+      <c r="A163" s="128"/>
+      <c r="B163" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C163" s="120"/>
-      <c r="D163" s="120"/>
-      <c r="E163" s="120"/>
-      <c r="F163" s="120"/>
-      <c r="G163" s="120"/>
-      <c r="H163" s="120"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="114"/>
-      <c r="B164" s="106" t="s">
+      <c r="A164" s="128"/>
+      <c r="B164" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C164" s="120"/>
-      <c r="D164" s="120"/>
-      <c r="E164" s="120"/>
-      <c r="F164" s="120"/>
-      <c r="G164" s="120"/>
-      <c r="H164" s="120"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="66"/>
+      <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="114"/>
-      <c r="B165" s="106" t="s">
+      <c r="A165" s="128"/>
+      <c r="B165" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C165" s="120"/>
-      <c r="D165" s="120"/>
-      <c r="E165" s="120"/>
-      <c r="F165" s="120"/>
-      <c r="G165" s="120"/>
-      <c r="H165" s="120"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="114"/>
-      <c r="B166" s="106" t="s">
+      <c r="A166" s="128"/>
+      <c r="B166" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C166" s="120"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="120"/>
-      <c r="F166" s="120"/>
-      <c r="G166" s="120"/>
-      <c r="H166" s="120"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="66"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="66"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="114"/>
-      <c r="B167" s="106" t="s">
+      <c r="A167" s="128"/>
+      <c r="B167" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C167" s="120"/>
-      <c r="D167" s="120"/>
-      <c r="E167" s="120"/>
-      <c r="F167" s="120"/>
-      <c r="G167" s="120"/>
-      <c r="H167" s="120"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="108"/>
-      <c r="B168" s="121" t="s">
+      <c r="A168" s="129"/>
+      <c r="B168" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C168" s="120"/>
-      <c r="D168" s="120"/>
-      <c r="E168" s="120"/>
-      <c r="F168" s="120"/>
-      <c r="G168" s="120"/>
-      <c r="H168" s="120"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="107" t="s">
+      <c r="A169" s="127" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="106" t="s">
+      <c r="B169" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C169" s="120"/>
-      <c r="D169" s="120"/>
-      <c r="E169" s="120"/>
-      <c r="F169" s="120"/>
-      <c r="G169" s="120"/>
-      <c r="H169" s="120"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="66"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="114"/>
-      <c r="B170" s="106" t="s">
+      <c r="A170" s="128"/>
+      <c r="B170" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C170" s="120"/>
-      <c r="D170" s="120"/>
-      <c r="E170" s="120"/>
-      <c r="F170" s="120"/>
-      <c r="G170" s="120"/>
-      <c r="H170" s="120"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="66"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="114"/>
-      <c r="B171" s="106" t="s">
+      <c r="A171" s="128"/>
+      <c r="B171" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C171" s="120"/>
-      <c r="D171" s="120"/>
-      <c r="E171" s="120"/>
-      <c r="F171" s="120"/>
-      <c r="G171" s="120"/>
-      <c r="H171" s="120"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="114"/>
-      <c r="B172" s="106" t="s">
+      <c r="A172" s="128"/>
+      <c r="B172" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C172" s="120"/>
-      <c r="D172" s="120"/>
-      <c r="E172" s="120"/>
-      <c r="F172" s="120"/>
-      <c r="G172" s="120"/>
-      <c r="H172" s="120"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="114"/>
-      <c r="B173" s="106" t="s">
+      <c r="A173" s="128"/>
+      <c r="B173" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C173" s="120"/>
-      <c r="D173" s="120"/>
-      <c r="E173" s="120"/>
-      <c r="F173" s="120"/>
-      <c r="G173" s="120"/>
-      <c r="H173" s="120"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="114"/>
-      <c r="B174" s="106" t="s">
+      <c r="A174" s="128"/>
+      <c r="B174" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C174" s="120"/>
-      <c r="D174" s="120"/>
-      <c r="E174" s="120"/>
-      <c r="F174" s="120"/>
-      <c r="G174" s="120"/>
-      <c r="H174" s="120"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="66"/>
+      <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="114"/>
-      <c r="B175" s="106" t="s">
+      <c r="A175" s="128"/>
+      <c r="B175" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C175" s="120"/>
-      <c r="D175" s="120"/>
-      <c r="E175" s="120"/>
-      <c r="F175" s="120"/>
-      <c r="G175" s="120"/>
-      <c r="H175" s="120"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="114"/>
-      <c r="B176" s="106" t="s">
+      <c r="A176" s="128"/>
+      <c r="B176" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C176" s="120"/>
-      <c r="D176" s="120"/>
-      <c r="E176" s="120"/>
-      <c r="F176" s="120"/>
-      <c r="G176" s="120"/>
-      <c r="H176" s="120"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="114"/>
-      <c r="B177" s="106" t="s">
+      <c r="A177" s="128"/>
+      <c r="B177" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C177" s="120"/>
-      <c r="D177" s="120"/>
-      <c r="E177" s="120"/>
-      <c r="F177" s="120"/>
-      <c r="G177" s="120"/>
-      <c r="H177" s="120"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="114"/>
-      <c r="B178" s="106" t="s">
+      <c r="A178" s="128"/>
+      <c r="B178" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C178" s="120"/>
-      <c r="D178" s="120"/>
-      <c r="E178" s="120"/>
-      <c r="F178" s="120"/>
-      <c r="G178" s="120"/>
-      <c r="H178" s="120"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="66"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="66"/>
+      <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="114"/>
-      <c r="B179" s="106" t="s">
+      <c r="A179" s="128"/>
+      <c r="B179" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C179" s="120"/>
-      <c r="D179" s="120"/>
-      <c r="E179" s="120"/>
-      <c r="F179" s="120"/>
-      <c r="G179" s="120"/>
-      <c r="H179" s="120"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="66"/>
+      <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="114"/>
-      <c r="B180" s="106" t="s">
+      <c r="A180" s="128"/>
+      <c r="B180" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C180" s="120"/>
-      <c r="D180" s="120"/>
-      <c r="E180" s="120"/>
-      <c r="F180" s="120"/>
-      <c r="G180" s="120"/>
-      <c r="H180" s="120"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="66"/>
+      <c r="E180" s="66"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="66"/>
+      <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="114"/>
-      <c r="B181" s="106" t="s">
+      <c r="A181" s="128"/>
+      <c r="B181" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C181" s="120"/>
-      <c r="D181" s="120"/>
-      <c r="E181" s="120"/>
-      <c r="F181" s="120"/>
-      <c r="G181" s="120"/>
-      <c r="H181" s="120"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="66"/>
+      <c r="E181" s="66"/>
+      <c r="F181" s="66"/>
+      <c r="G181" s="66"/>
+      <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="114"/>
-      <c r="B182" s="106" t="s">
+      <c r="A182" s="128"/>
+      <c r="B182" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C182" s="120"/>
-      <c r="D182" s="120"/>
-      <c r="E182" s="120"/>
-      <c r="F182" s="120"/>
-      <c r="G182" s="120"/>
-      <c r="H182" s="120"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="66"/>
+      <c r="E182" s="66"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="108"/>
-      <c r="B183" s="121" t="s">
+      <c r="A183" s="129"/>
+      <c r="B183" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C183" s="120"/>
-      <c r="D183" s="120"/>
-      <c r="E183" s="120"/>
-      <c r="F183" s="120"/>
-      <c r="G183" s="120"/>
-      <c r="H183" s="120"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="107" t="s">
+      <c r="A184" s="127" t="s">
         <v>447</v>
       </c>
-      <c r="B184" s="106" t="s">
+      <c r="B184" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C184" s="120"/>
-      <c r="D184" s="120"/>
-      <c r="E184" s="120"/>
-      <c r="F184" s="120"/>
-      <c r="G184" s="120"/>
-      <c r="H184" s="120"/>
+      <c r="C184" s="66"/>
+      <c r="D184" s="66"/>
+      <c r="E184" s="66"/>
+      <c r="F184" s="66"/>
+      <c r="G184" s="66"/>
+      <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="114"/>
-      <c r="B185" s="106" t="s">
+      <c r="A185" s="128"/>
+      <c r="B185" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C185" s="120"/>
-      <c r="D185" s="120"/>
-      <c r="E185" s="120"/>
-      <c r="F185" s="120"/>
-      <c r="G185" s="120"/>
-      <c r="H185" s="120"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="66"/>
+      <c r="E185" s="66"/>
+      <c r="F185" s="66"/>
+      <c r="G185" s="66"/>
+      <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="114"/>
-      <c r="B186" s="106" t="s">
+      <c r="A186" s="128"/>
+      <c r="B186" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C186" s="120"/>
-      <c r="D186" s="120"/>
-      <c r="E186" s="120"/>
-      <c r="F186" s="120"/>
-      <c r="G186" s="120"/>
-      <c r="H186" s="120"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="66"/>
+      <c r="E186" s="66"/>
+      <c r="F186" s="66"/>
+      <c r="G186" s="66"/>
+      <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="114"/>
-      <c r="B187" s="106" t="s">
+      <c r="A187" s="128"/>
+      <c r="B187" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C187" s="120"/>
-      <c r="D187" s="120"/>
-      <c r="E187" s="120"/>
-      <c r="F187" s="120"/>
-      <c r="G187" s="120"/>
-      <c r="H187" s="120"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="66"/>
+      <c r="E187" s="66"/>
+      <c r="F187" s="66"/>
+      <c r="G187" s="66"/>
+      <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="114"/>
-      <c r="B188" s="106" t="s">
+      <c r="A188" s="128"/>
+      <c r="B188" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C188" s="120"/>
-      <c r="D188" s="120"/>
-      <c r="E188" s="120"/>
-      <c r="F188" s="120"/>
-      <c r="G188" s="120"/>
-      <c r="H188" s="120"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="114"/>
-      <c r="B189" s="106" t="s">
+      <c r="A189" s="128"/>
+      <c r="B189" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C189" s="120"/>
-      <c r="D189" s="120"/>
-      <c r="E189" s="120"/>
-      <c r="F189" s="120"/>
-      <c r="G189" s="120"/>
-      <c r="H189" s="120"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="66"/>
+      <c r="E189" s="66"/>
+      <c r="F189" s="66"/>
+      <c r="G189" s="66"/>
+      <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="114"/>
-      <c r="B190" s="106" t="s">
+      <c r="A190" s="128"/>
+      <c r="B190" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C190" s="120"/>
-      <c r="D190" s="120"/>
-      <c r="E190" s="120"/>
-      <c r="F190" s="120"/>
-      <c r="G190" s="120"/>
-      <c r="H190" s="120"/>
+      <c r="C190" s="66"/>
+      <c r="D190" s="66"/>
+      <c r="E190" s="66"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="66"/>
+      <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="114"/>
-      <c r="B191" s="106" t="s">
+      <c r="A191" s="128"/>
+      <c r="B191" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C191" s="120"/>
-      <c r="D191" s="120"/>
-      <c r="E191" s="120"/>
-      <c r="F191" s="120"/>
-      <c r="G191" s="120"/>
-      <c r="H191" s="120"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="66"/>
+      <c r="E191" s="66"/>
+      <c r="F191" s="66"/>
+      <c r="G191" s="66"/>
+      <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="114"/>
-      <c r="B192" s="106" t="s">
+      <c r="A192" s="128"/>
+      <c r="B192" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C192" s="120"/>
-      <c r="D192" s="120"/>
-      <c r="E192" s="120"/>
-      <c r="F192" s="120"/>
-      <c r="G192" s="120"/>
-      <c r="H192" s="120"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="66"/>
+      <c r="E192" s="66"/>
+      <c r="F192" s="66"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="114"/>
-      <c r="B193" s="106" t="s">
+      <c r="A193" s="128"/>
+      <c r="B193" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C193" s="120"/>
-      <c r="D193" s="120"/>
-      <c r="E193" s="120"/>
-      <c r="F193" s="120"/>
-      <c r="G193" s="120"/>
-      <c r="H193" s="120"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="66"/>
+      <c r="F193" s="66"/>
+      <c r="G193" s="66"/>
+      <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="114"/>
-      <c r="B194" s="106" t="s">
+      <c r="A194" s="128"/>
+      <c r="B194" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C194" s="120"/>
-      <c r="D194" s="120"/>
-      <c r="E194" s="120"/>
-      <c r="F194" s="120"/>
-      <c r="G194" s="120"/>
-      <c r="H194" s="120"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="66"/>
+      <c r="E194" s="66"/>
+      <c r="F194" s="66"/>
+      <c r="G194" s="66"/>
+      <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="114"/>
-      <c r="B195" s="106" t="s">
+      <c r="A195" s="128"/>
+      <c r="B195" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C195" s="120"/>
-      <c r="D195" s="120"/>
-      <c r="E195" s="120"/>
-      <c r="F195" s="120"/>
-      <c r="G195" s="120"/>
-      <c r="H195" s="120"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
+      <c r="G195" s="66"/>
+      <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="114"/>
-      <c r="B196" s="106" t="s">
+      <c r="A196" s="128"/>
+      <c r="B196" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C196" s="120"/>
-      <c r="D196" s="120"/>
-      <c r="E196" s="120"/>
-      <c r="F196" s="120"/>
-      <c r="G196" s="120"/>
-      <c r="H196" s="120"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="66"/>
+      <c r="E196" s="66"/>
+      <c r="F196" s="66"/>
+      <c r="G196" s="66"/>
+      <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="114"/>
-      <c r="B197" s="106" t="s">
+      <c r="A197" s="128"/>
+      <c r="B197" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C197" s="120"/>
-      <c r="D197" s="120"/>
-      <c r="E197" s="120"/>
-      <c r="F197" s="120"/>
-      <c r="G197" s="120"/>
-      <c r="H197" s="120"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="66"/>
+      <c r="E197" s="66"/>
+      <c r="F197" s="66"/>
+      <c r="G197" s="66"/>
+      <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="108"/>
-      <c r="B198" s="121" t="s">
+      <c r="A198" s="129"/>
+      <c r="B198" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C198" s="120"/>
-      <c r="D198" s="120"/>
-      <c r="E198" s="120"/>
-      <c r="F198" s="120"/>
-      <c r="G198" s="120"/>
-      <c r="H198" s="120"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="107" t="s">
+      <c r="A199" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="B199" s="106" t="s">
+      <c r="B199" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C199" s="120"/>
-      <c r="D199" s="120"/>
-      <c r="E199" s="120"/>
-      <c r="F199" s="120"/>
-      <c r="G199" s="120"/>
-      <c r="H199" s="120"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="66"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="114"/>
-      <c r="B200" s="106" t="s">
+      <c r="A200" s="128"/>
+      <c r="B200" s="64" t="s">
         <v>410</v>
       </c>
-      <c r="C200" s="120"/>
-      <c r="D200" s="120"/>
-      <c r="E200" s="120"/>
-      <c r="F200" s="120"/>
-      <c r="G200" s="120"/>
-      <c r="H200" s="120"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="66"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="114"/>
-      <c r="B201" s="106" t="s">
+      <c r="A201" s="128"/>
+      <c r="B201" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C201" s="120"/>
-      <c r="D201" s="120"/>
-      <c r="E201" s="120"/>
-      <c r="F201" s="120"/>
-      <c r="G201" s="120"/>
-      <c r="H201" s="120"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="114"/>
-      <c r="B202" s="106" t="s">
+      <c r="A202" s="128"/>
+      <c r="B202" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C202" s="120"/>
-      <c r="D202" s="120"/>
-      <c r="E202" s="120"/>
-      <c r="F202" s="120"/>
-      <c r="G202" s="120"/>
-      <c r="H202" s="120"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="66"/>
+      <c r="E202" s="66"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="114"/>
-      <c r="B203" s="106" t="s">
+      <c r="A203" s="128"/>
+      <c r="B203" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C203" s="120"/>
-      <c r="D203" s="120"/>
-      <c r="E203" s="120"/>
-      <c r="F203" s="120"/>
-      <c r="G203" s="120"/>
-      <c r="H203" s="120"/>
+      <c r="C203" s="66"/>
+      <c r="D203" s="66"/>
+      <c r="E203" s="66"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="66"/>
+      <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="114"/>
-      <c r="B204" s="106" t="s">
+      <c r="A204" s="128"/>
+      <c r="B204" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="120"/>
-      <c r="D204" s="120"/>
-      <c r="E204" s="120"/>
-      <c r="F204" s="120"/>
-      <c r="G204" s="120"/>
-      <c r="H204" s="120"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="66"/>
+      <c r="E204" s="66"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="114"/>
-      <c r="B205" s="106" t="s">
+      <c r="A205" s="128"/>
+      <c r="B205" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="C205" s="120"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="120"/>
-      <c r="F205" s="120"/>
-      <c r="G205" s="120"/>
-      <c r="H205" s="120"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="66"/>
+      <c r="E205" s="66"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="114"/>
-      <c r="B206" s="106" t="s">
+      <c r="A206" s="128"/>
+      <c r="B206" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="C206" s="120"/>
-      <c r="D206" s="120"/>
-      <c r="E206" s="120"/>
-      <c r="F206" s="120"/>
-      <c r="G206" s="120"/>
-      <c r="H206" s="120"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="66"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="114"/>
-      <c r="B207" s="106" t="s">
+      <c r="A207" s="128"/>
+      <c r="B207" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="C207" s="120"/>
-      <c r="D207" s="120"/>
-      <c r="E207" s="120"/>
-      <c r="F207" s="120"/>
-      <c r="G207" s="120"/>
-      <c r="H207" s="120"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="66"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="114"/>
-      <c r="B208" s="106" t="s">
+      <c r="A208" s="128"/>
+      <c r="B208" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="C208" s="120"/>
-      <c r="D208" s="120"/>
-      <c r="E208" s="120"/>
-      <c r="F208" s="120"/>
-      <c r="G208" s="120"/>
-      <c r="H208" s="120"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="66"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="114"/>
-      <c r="B209" s="106" t="s">
+      <c r="A209" s="128"/>
+      <c r="B209" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C209" s="120"/>
-      <c r="D209" s="120"/>
-      <c r="E209" s="120"/>
-      <c r="F209" s="120"/>
-      <c r="G209" s="120"/>
-      <c r="H209" s="120"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="66"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="114"/>
-      <c r="B210" s="106" t="s">
+      <c r="A210" s="128"/>
+      <c r="B210" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C210" s="120"/>
-      <c r="D210" s="120"/>
-      <c r="E210" s="120"/>
-      <c r="F210" s="120"/>
-      <c r="G210" s="120"/>
-      <c r="H210" s="120"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="66"/>
+      <c r="E210" s="66"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="114"/>
-      <c r="B211" s="106" t="s">
+      <c r="A211" s="128"/>
+      <c r="B211" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="C211" s="120"/>
-      <c r="D211" s="120"/>
-      <c r="E211" s="120"/>
-      <c r="F211" s="120"/>
-      <c r="G211" s="120"/>
-      <c r="H211" s="120"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="66"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="66"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="114"/>
-      <c r="B212" s="106" t="s">
+      <c r="A212" s="128"/>
+      <c r="B212" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="C212" s="120"/>
-      <c r="D212" s="120"/>
-      <c r="E212" s="120"/>
-      <c r="F212" s="120"/>
-      <c r="G212" s="120"/>
-      <c r="H212" s="120"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="108"/>
-      <c r="B213" s="121" t="s">
+      <c r="A213" s="129"/>
+      <c r="B213" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="C213" s="120"/>
-      <c r="D213" s="120"/>
-      <c r="E213" s="120"/>
-      <c r="F213" s="120"/>
-      <c r="G213" s="120"/>
-      <c r="H213" s="120"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="66"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -10365,6 +13625,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="507">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,13 +1864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2^16-1</t>
-  </si>
-  <si>
-    <t>2^32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">4-4
 6-4
 8-8 
@@ -1884,6 +1877,26 @@
 32-48
 32-32
 32-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模2^16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模2^16-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2521,6 +2534,64 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2537,52 +2608,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2611,41 +2697,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2656,24 +2724,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2712,43 +2762,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3457,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
@@ -3477,53 +3490,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="100"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="90"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3546,7 +3559,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3561,7 +3574,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3582,7 +3595,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3603,7 +3616,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3615,11 +3628,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="92" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3630,7 +3643,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3640,9 +3653,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3651,7 +3664,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3683,7 +3696,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3713,7 +3726,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3743,10 +3756,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="103"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -3767,10 +3780,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -3788,10 +3801,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="103"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -3809,10 +3822,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -3827,7 +3840,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="104" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3851,7 +3864,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -3873,7 +3886,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -3886,6 +3899,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -3899,11 +3917,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -3925,40 +3938,40 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E17" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="151"/>
+    <col min="1" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="152"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3970,19 +3983,19 @@
       <c r="D3" s="2">
         <v>36</v>
       </c>
-      <c r="E3" s="153"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="153"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3992,10 +4005,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="153"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4005,10 +4018,10 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="153"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4020,13 +4033,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="154" t="s">
-        <v>19</v>
+      <c r="E7" s="113" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="148" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4035,24 +4048,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="107" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4061,23 +4074,25 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="157"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="149"/>
+      <c r="E10" s="84" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="87"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>14</v>
       </c>
-      <c r="E11" s="153" t="s">
-        <v>24</v>
+      <c r="E11" s="83" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4087,13 +4102,13 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="153" t="s">
-        <v>28</v>
+      <c r="E12" s="83" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="146" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="109" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4102,63 +4117,69 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="153" t="s">
-        <v>500</v>
+      <c r="E13" s="83" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="147"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E14" s="153" t="s">
-        <v>501</v>
+      <c r="E14" s="83" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="153" t="s">
-        <v>502</v>
+      <c r="E15" s="83" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="158"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="153" t="s">
-        <v>503</v>
+      <c r="E17" s="83" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4166,12 +4187,6 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4183,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
@@ -4212,83 +4227,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="109"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="107" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="107" t="s">
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="109"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="134"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4351,13 +4366,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="125" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4410,9 +4425,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="119"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4463,9 +4478,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="119"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4516,9 +4531,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4551,9 +4566,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4580,13 +4595,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4627,9 +4642,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4656,9 +4671,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4685,9 +4700,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4714,9 +4729,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4743,13 +4758,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="119" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -4808,9 +4823,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -4861,9 +4876,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -4914,9 +4929,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -4961,9 +4976,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -4990,13 +5005,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="119" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5061,9 +5076,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5126,9 +5141,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5173,9 +5188,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5208,9 +5223,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="123"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5237,13 +5252,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="119" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5296,9 +5311,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5331,9 +5346,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5366,9 +5381,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5395,9 +5410,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5424,13 +5439,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="119" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="119" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5483,9 +5498,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5518,9 +5533,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5553,9 +5568,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5582,9 +5597,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5611,13 +5626,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="119" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5682,9 +5697,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -5735,9 +5750,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -5768,9 +5783,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -5801,9 +5816,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6065,6 +6080,26 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -6074,26 +6109,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6141,83 +6156,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="109"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="107" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="107" t="s">
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="109"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="134"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -6280,13 +6295,13 @@
       <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="125" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -6339,9 +6354,9 @@
       <c r="AA4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="119"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="24" t="s">
         <v>257</v>
       </c>
@@ -6392,9 +6407,9 @@
       <c r="AA5" s="49"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="119"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="24" t="s">
         <v>258</v>
       </c>
@@ -6445,9 +6460,9 @@
       <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="51"/>
@@ -6480,9 +6495,9 @@
       <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
@@ -6509,13 +6524,13 @@
       <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="119" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -6556,9 +6571,9 @@
       <c r="AA9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="51"/>
@@ -6585,9 +6600,9 @@
       <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="51"/>
@@ -6614,9 +6629,9 @@
       <c r="AA11" s="49"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="51"/>
@@ -6643,9 +6658,9 @@
       <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="51"/>
@@ -6672,13 +6687,13 @@
       <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="119" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -6737,9 +6752,9 @@
       <c r="AA14" s="49"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="24" t="s">
         <v>261</v>
       </c>
@@ -6790,9 +6805,9 @@
       <c r="AA15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="24" t="s">
         <v>262</v>
       </c>
@@ -6843,9 +6858,9 @@
       <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="24" t="s">
         <v>263</v>
       </c>
@@ -6890,9 +6905,9 @@
       <c r="AA17" s="49"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="51"/>
@@ -6919,13 +6934,13 @@
       <c r="AA18" s="49"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="119" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -6990,9 +7005,9 @@
       <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="24" t="s">
         <v>265</v>
       </c>
@@ -7055,9 +7070,9 @@
       <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="24" t="s">
         <v>266</v>
       </c>
@@ -7102,9 +7117,9 @@
       <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="24" t="s">
         <v>263</v>
       </c>
@@ -7137,9 +7152,9 @@
       <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="123"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="51"/>
@@ -7166,13 +7181,13 @@
       <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="119" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -7225,9 +7240,9 @@
       <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="51"/>
@@ -7260,9 +7275,9 @@
       <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="51"/>
@@ -7295,9 +7310,9 @@
       <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="51"/>
@@ -7324,9 +7339,9 @@
       <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="51"/>
@@ -7353,13 +7368,13 @@
       <c r="AA28" s="49"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="119" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -7412,9 +7427,9 @@
       <c r="AA29" s="49"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="51"/>
@@ -7447,9 +7462,9 @@
       <c r="AA30" s="49"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="51"/>
@@ -7482,9 +7497,9 @@
       <c r="AA31" s="49"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="51"/>
@@ -7511,9 +7526,9 @@
       <c r="AA32" s="49"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="51"/>
@@ -7540,13 +7555,13 @@
       <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="119" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -7611,9 +7626,9 @@
       <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="24" t="s">
         <v>270</v>
       </c>
@@ -7664,9 +7679,9 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="24" t="s">
         <v>271</v>
       </c>
@@ -7697,9 +7712,9 @@
       <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="24" t="s">
         <v>272</v>
       </c>
@@ -7730,9 +7745,9 @@
       <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="51"/>
@@ -8270,26 +8285,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -8299,6 +8294,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8755,46 +8770,46 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="146" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="135" t="s">
+      <c r="D40" s="148" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="137"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="150"/>
       <c r="K40" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L40" s="138" t="s">
+      <c r="L40" s="151" t="s">
         <v>407</v>
       </c>
-      <c r="M40" s="139"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="138" t="s">
+      <c r="M40" s="152"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="151" t="s">
         <v>469</v>
       </c>
-      <c r="P40" s="139"/>
-      <c r="Q40" s="140"/>
-      <c r="R40" s="124" t="s">
+      <c r="P40" s="152"/>
+      <c r="Q40" s="153"/>
+      <c r="R40" s="143" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="125"/>
-      <c r="T40" s="126"/>
+      <c r="S40" s="144"/>
+      <c r="T40" s="145"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="132"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
       <c r="D41" s="63" t="s">
         <v>402</v>
       </c>
@@ -8816,24 +8831,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="124">
+      <c r="L41" s="143">
         <v>65</v>
       </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="124">
+      <c r="M41" s="144"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="143">
         <v>65</v>
       </c>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="124">
+      <c r="P41" s="144"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="143">
         <v>45</v>
       </c>
-      <c r="S41" s="125"/>
-      <c r="T41" s="126"/>
+      <c r="S41" s="144"/>
+      <c r="T41" s="145"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="140" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -8863,26 +8878,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="124">
+      <c r="L42" s="143">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="124">
+      <c r="M42" s="144"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="143">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="124">
+      <c r="P42" s="144"/>
+      <c r="Q42" s="145"/>
+      <c r="R42" s="143">
         <v>1</v>
       </c>
-      <c r="S42" s="125"/>
-      <c r="T42" s="126"/>
+      <c r="S42" s="144"/>
+      <c r="T42" s="145"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -8937,7 +8952,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
+      <c r="A44" s="141"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9012,7 +9027,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
+      <c r="A45" s="141"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9087,7 +9102,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9162,7 +9177,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9237,7 +9252,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
+      <c r="A48" s="141"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9312,7 +9327,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
+      <c r="A49" s="141"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9387,7 +9402,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
+      <c r="A50" s="141"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9448,7 +9463,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
+      <c r="A51" s="141"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9509,7 +9524,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="131"/>
+      <c r="A52" s="141"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9534,7 +9549,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
+      <c r="A53" s="141"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9563,7 +9578,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
+      <c r="A54" s="141"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9588,7 +9603,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
+      <c r="A55" s="141"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9613,7 +9628,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="132"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9638,7 +9653,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="140" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9679,7 +9694,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="131"/>
+      <c r="A58" s="141"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -9718,7 +9733,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="131"/>
+      <c r="A59" s="141"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -9757,7 +9772,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="131"/>
+      <c r="A60" s="141"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -9796,7 +9811,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131"/>
+      <c r="A61" s="141"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -9835,7 +9850,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131"/>
+      <c r="A62" s="141"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -9874,7 +9889,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
+      <c r="A63" s="141"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -9913,7 +9928,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="131"/>
+      <c r="A64" s="141"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -9941,7 +9956,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131"/>
+      <c r="A65" s="141"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -9955,7 +9970,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131"/>
+      <c r="A66" s="141"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -9969,24 +9984,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="124" t="s">
+      <c r="L66" s="143" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="125"/>
-      <c r="N66" s="126"/>
-      <c r="O66" s="124" t="s">
+      <c r="M66" s="144"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="143" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="125"/>
-      <c r="Q66" s="126"/>
-      <c r="R66" s="124" t="s">
+      <c r="P66" s="144"/>
+      <c r="Q66" s="145"/>
+      <c r="R66" s="143" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="125"/>
-      <c r="T66" s="126"/>
+      <c r="S66" s="144"/>
+      <c r="T66" s="145"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="131"/>
+      <c r="A67" s="141"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10000,18 +10015,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="124"/>
-      <c r="M67" s="125"/>
-      <c r="N67" s="126"/>
-      <c r="O67" s="124"/>
-      <c r="P67" s="125"/>
-      <c r="Q67" s="126"/>
-      <c r="R67" s="124"/>
-      <c r="S67" s="125"/>
-      <c r="T67" s="126"/>
+      <c r="L67" s="143"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="145"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="145"/>
+      <c r="R67" s="143"/>
+      <c r="S67" s="144"/>
+      <c r="T67" s="145"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="131"/>
+      <c r="A68" s="141"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10025,18 +10040,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="124"/>
-      <c r="M68" s="125"/>
-      <c r="N68" s="126"/>
-      <c r="O68" s="124"/>
-      <c r="P68" s="125"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="124"/>
-      <c r="S68" s="125"/>
-      <c r="T68" s="126"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="145"/>
+      <c r="O68" s="143"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="143"/>
+      <c r="S68" s="144"/>
+      <c r="T68" s="145"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="131"/>
+      <c r="A69" s="141"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10077,7 +10092,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="131"/>
+      <c r="A70" s="141"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10102,7 +10117,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="132"/>
+      <c r="A71" s="142"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10127,7 +10142,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="137" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10168,7 +10183,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="128"/>
+      <c r="A73" s="138"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10207,7 +10222,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="128"/>
+      <c r="A74" s="138"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10246,7 +10261,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="128"/>
+      <c r="A75" s="138"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10285,7 +10300,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="128"/>
+      <c r="A76" s="138"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10324,7 +10339,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="128"/>
+      <c r="A77" s="138"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10363,7 +10378,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="128"/>
+      <c r="A78" s="138"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10402,7 +10417,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="128"/>
+      <c r="A79" s="138"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10441,7 +10456,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="128"/>
+      <c r="A80" s="138"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10466,7 +10481,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="128"/>
+      <c r="A81" s="138"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10491,7 +10506,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
+      <c r="A82" s="138"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10516,7 +10531,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="128"/>
+      <c r="A83" s="138"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10541,7 +10556,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="128"/>
+      <c r="A84" s="138"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10566,7 +10581,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="128"/>
+      <c r="A85" s="138"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10591,7 +10606,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="129"/>
+      <c r="A86" s="139"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10616,7 +10631,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="127" t="s">
+      <c r="A87" s="137" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10657,7 +10672,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="128"/>
+      <c r="A88" s="138"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10696,7 +10711,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="128"/>
+      <c r="A89" s="138"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -10735,7 +10750,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="128"/>
+      <c r="A90" s="138"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -10762,7 +10777,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="128"/>
+      <c r="A91" s="138"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -10789,7 +10804,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="128"/>
+      <c r="A92" s="138"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -10816,7 +10831,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="128"/>
+      <c r="A93" s="138"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -10843,7 +10858,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="128"/>
+      <c r="A94" s="138"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -10870,7 +10885,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="128"/>
+      <c r="A95" s="138"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -10883,7 +10898,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="128"/>
+      <c r="A96" s="138"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -10896,7 +10911,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="128"/>
+      <c r="A97" s="138"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -10909,7 +10924,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="128"/>
+      <c r="A98" s="138"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -10922,7 +10937,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="128"/>
+      <c r="A99" s="138"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -10935,7 +10950,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="128"/>
+      <c r="A100" s="138"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -10948,7 +10963,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="129"/>
+      <c r="A101" s="139"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -10961,7 +10976,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="127" t="s">
+      <c r="A102" s="137" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -10976,7 +10991,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="128"/>
+      <c r="A103" s="138"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -10989,7 +11004,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="128"/>
+      <c r="A104" s="138"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11002,7 +11017,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="128"/>
+      <c r="A105" s="138"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11015,7 +11030,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="128"/>
+      <c r="A106" s="138"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11028,7 +11043,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="128"/>
+      <c r="A107" s="138"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11041,7 +11056,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="128"/>
+      <c r="A108" s="138"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11054,7 +11069,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="128"/>
+      <c r="A109" s="138"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11067,7 +11082,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="128"/>
+      <c r="A110" s="138"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11080,7 +11095,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="128"/>
+      <c r="A111" s="138"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11093,7 +11108,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="128"/>
+      <c r="A112" s="138"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11106,7 +11121,7 @@
       <c r="I112" s="66"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="128"/>
+      <c r="A113" s="138"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11119,7 +11134,7 @@
       <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="128"/>
+      <c r="A114" s="138"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11132,7 +11147,7 @@
       <c r="I114" s="66"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="128"/>
+      <c r="A115" s="138"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11145,7 +11160,7 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="129"/>
+      <c r="A116" s="139"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11158,7 +11173,7 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="130" t="s">
+      <c r="A117" s="140" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11173,7 +11188,7 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="131"/>
+      <c r="A118" s="141"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11186,7 +11201,7 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="131"/>
+      <c r="A119" s="141"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11199,7 +11214,7 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="131"/>
+      <c r="A120" s="141"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11212,7 +11227,7 @@
       <c r="I120" s="66"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="131"/>
+      <c r="A121" s="141"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11225,7 +11240,7 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="131"/>
+      <c r="A122" s="141"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11238,7 +11253,7 @@
       <c r="I122" s="66"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="131"/>
+      <c r="A123" s="141"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11251,7 +11266,7 @@
       <c r="I123" s="66"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="131"/>
+      <c r="A124" s="141"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11264,7 +11279,7 @@
       <c r="I124" s="66"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="131"/>
+      <c r="A125" s="141"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11277,7 +11292,7 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="131"/>
+      <c r="A126" s="141"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11290,7 +11305,7 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="131"/>
+      <c r="A127" s="141"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11303,7 +11318,7 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="131"/>
+      <c r="A128" s="141"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11316,7 +11331,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="131"/>
+      <c r="A129" s="141"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11329,7 +11344,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="131"/>
+      <c r="A130" s="141"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11342,7 +11357,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="132"/>
+      <c r="A131" s="142"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11356,18 +11371,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11384,6 +11387,18 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11402,24 +11417,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="154" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="156" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="145"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
       </c>
@@ -11440,7 +11455,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="140" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11454,7 +11469,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11466,7 +11481,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11478,7 +11493,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11490,7 +11505,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11502,7 +11517,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
+      <c r="A8" s="141"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11514,7 +11529,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
+      <c r="A9" s="141"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11526,7 +11541,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11538,7 +11553,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11550,7 +11565,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11562,7 +11577,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11574,7 +11589,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11586,7 +11601,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11598,7 +11613,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11610,7 +11625,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11622,7 +11637,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11634,7 +11649,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
+      <c r="A19" s="141"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11646,7 +11661,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11658,7 +11673,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11670,7 +11685,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11682,7 +11697,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11694,7 +11709,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -11706,7 +11721,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -11718,7 +11733,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -11730,7 +11745,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -11742,7 +11757,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -11754,7 +11769,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -11766,7 +11781,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="131"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -11778,7 +11793,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -11790,7 +11805,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -11802,7 +11817,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -11814,7 +11829,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -11826,7 +11841,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -11838,7 +11853,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -11850,7 +11865,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -11862,7 +11877,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="132"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -11874,7 +11889,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="140" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -11888,7 +11903,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -11900,7 +11915,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -11912,7 +11927,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -11924,7 +11939,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -11936,7 +11951,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
+      <c r="A44" s="141"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -11948,7 +11963,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
+      <c r="A45" s="141"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -11960,7 +11975,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -11972,7 +11987,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -11984,7 +11999,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
+      <c r="A48" s="141"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -11996,7 +12011,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
+      <c r="A49" s="141"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12008,7 +12023,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
+      <c r="A50" s="141"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12020,7 +12035,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
+      <c r="A51" s="141"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12032,7 +12047,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="131"/>
+      <c r="A52" s="141"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12044,7 +12059,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
+      <c r="A53" s="141"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12056,7 +12071,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
+      <c r="A54" s="141"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12068,7 +12083,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
+      <c r="A55" s="141"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12080,7 +12095,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="131"/>
+      <c r="A56" s="141"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12092,7 +12107,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="131"/>
+      <c r="A57" s="141"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12104,7 +12119,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="131"/>
+      <c r="A58" s="141"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12116,7 +12131,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="131"/>
+      <c r="A59" s="141"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12128,7 +12143,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="131"/>
+      <c r="A60" s="141"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12140,7 +12155,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131"/>
+      <c r="A61" s="141"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12152,7 +12167,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131"/>
+      <c r="A62" s="141"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12164,7 +12179,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
+      <c r="A63" s="141"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12176,7 +12191,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="131"/>
+      <c r="A64" s="141"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12188,7 +12203,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131"/>
+      <c r="A65" s="141"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12200,7 +12215,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131"/>
+      <c r="A66" s="141"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12212,7 +12227,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="131"/>
+      <c r="A67" s="141"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12224,7 +12239,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="131"/>
+      <c r="A68" s="141"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12236,7 +12251,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="131"/>
+      <c r="A69" s="141"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12248,7 +12263,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="131"/>
+      <c r="A70" s="141"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12260,7 +12275,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="131"/>
+      <c r="A71" s="141"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12272,7 +12287,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="131"/>
+      <c r="A72" s="141"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12284,7 +12299,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="131"/>
+      <c r="A73" s="141"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12296,7 +12311,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="132"/>
+      <c r="A74" s="142"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12308,7 +12323,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="130" t="s">
+      <c r="A75" s="140" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12322,7 +12337,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="131"/>
+      <c r="A76" s="141"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12334,7 +12349,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="131"/>
+      <c r="A77" s="141"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12346,7 +12361,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="131"/>
+      <c r="A78" s="141"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12358,7 +12373,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="131"/>
+      <c r="A79" s="141"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12370,7 +12385,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="131"/>
+      <c r="A80" s="141"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12382,7 +12397,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="131"/>
+      <c r="A81" s="141"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12394,7 +12409,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="131"/>
+      <c r="A82" s="141"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12406,7 +12421,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="131"/>
+      <c r="A83" s="141"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12418,7 +12433,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="131"/>
+      <c r="A84" s="141"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12430,7 +12445,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="131"/>
+      <c r="A85" s="141"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12442,7 +12457,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="131"/>
+      <c r="A86" s="141"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12454,7 +12469,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="131"/>
+      <c r="A87" s="141"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12466,7 +12481,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="131"/>
+      <c r="A88" s="141"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12478,7 +12493,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="131"/>
+      <c r="A89" s="141"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12490,7 +12505,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="131"/>
+      <c r="A90" s="141"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12502,7 +12517,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="131"/>
+      <c r="A91" s="141"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12514,7 +12529,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="131"/>
+      <c r="A92" s="141"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12526,7 +12541,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="131"/>
+      <c r="A93" s="141"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12538,7 +12553,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="131"/>
+      <c r="A94" s="141"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12550,7 +12565,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="131"/>
+      <c r="A95" s="141"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12562,7 +12577,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="131"/>
+      <c r="A96" s="141"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12574,7 +12589,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="131"/>
+      <c r="A97" s="141"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12586,7 +12601,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="131"/>
+      <c r="A98" s="141"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12598,7 +12613,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="131"/>
+      <c r="A99" s="141"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12610,7 +12625,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="131"/>
+      <c r="A100" s="141"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12622,7 +12637,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="131"/>
+      <c r="A101" s="141"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12634,7 +12649,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="131"/>
+      <c r="A102" s="141"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12646,7 +12661,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="131"/>
+      <c r="A103" s="141"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12658,7 +12673,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="131"/>
+      <c r="A104" s="141"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12670,7 +12685,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="131"/>
+      <c r="A105" s="141"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12682,7 +12697,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="131"/>
+      <c r="A106" s="141"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12694,7 +12709,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="131"/>
+      <c r="A107" s="141"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -12706,7 +12721,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="131"/>
+      <c r="A108" s="141"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -12718,7 +12733,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="131"/>
+      <c r="A109" s="141"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -12730,7 +12745,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="132"/>
+      <c r="A110" s="142"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -12742,7 +12757,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="130" t="s">
+      <c r="A111" s="140" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -12756,7 +12771,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="131"/>
+      <c r="A112" s="141"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -12768,7 +12783,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="131"/>
+      <c r="A113" s="141"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -12780,7 +12795,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="131"/>
+      <c r="A114" s="141"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -12792,7 +12807,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="131"/>
+      <c r="A115" s="141"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -12804,7 +12819,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="131"/>
+      <c r="A116" s="141"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -12816,7 +12831,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="131"/>
+      <c r="A117" s="141"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -12828,7 +12843,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="131"/>
+      <c r="A118" s="141"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -12840,7 +12855,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="131"/>
+      <c r="A119" s="141"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -12852,7 +12867,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="131"/>
+      <c r="A120" s="141"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -12864,7 +12879,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="131"/>
+      <c r="A121" s="141"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -12876,7 +12891,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="131"/>
+      <c r="A122" s="141"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -12888,7 +12903,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="131"/>
+      <c r="A123" s="141"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -12900,7 +12915,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="131"/>
+      <c r="A124" s="141"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -12912,7 +12927,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="131"/>
+      <c r="A125" s="141"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -12924,7 +12939,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="131"/>
+      <c r="A126" s="141"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -12936,7 +12951,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="131"/>
+      <c r="A127" s="141"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -12948,7 +12963,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="131"/>
+      <c r="A128" s="141"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -12960,7 +12975,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="131"/>
+      <c r="A129" s="141"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -12972,7 +12987,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="131"/>
+      <c r="A130" s="141"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -12984,7 +12999,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="131"/>
+      <c r="A131" s="141"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -12996,7 +13011,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="131"/>
+      <c r="A132" s="141"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13008,7 +13023,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="131"/>
+      <c r="A133" s="141"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13020,7 +13035,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="131"/>
+      <c r="A134" s="141"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13032,7 +13047,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="131"/>
+      <c r="A135" s="141"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13044,7 +13059,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="131"/>
+      <c r="A136" s="141"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13056,7 +13071,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="131"/>
+      <c r="A137" s="141"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13068,7 +13083,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="131"/>
+      <c r="A138" s="141"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13080,7 +13095,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="131"/>
+      <c r="A139" s="141"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13092,7 +13107,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="131"/>
+      <c r="A140" s="141"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13104,7 +13119,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="131"/>
+      <c r="A141" s="141"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13116,7 +13131,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="131"/>
+      <c r="A142" s="141"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13128,7 +13143,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="131"/>
+      <c r="A143" s="141"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13140,7 +13155,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="131"/>
+      <c r="A144" s="141"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13152,7 +13167,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="131"/>
+      <c r="A145" s="141"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13164,7 +13179,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="132"/>
+      <c r="A146" s="142"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13177,24 +13192,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="130" t="s">
+      <c r="A152" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="B152" s="133" t="s">
+      <c r="B152" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="135" t="s">
+      <c r="C152" s="148" t="s">
         <v>401</v>
       </c>
-      <c r="D152" s="136"/>
-      <c r="E152" s="136"/>
-      <c r="F152" s="136"/>
-      <c r="G152" s="136"/>
-      <c r="H152" s="137"/>
+      <c r="D152" s="149"/>
+      <c r="E152" s="149"/>
+      <c r="F152" s="149"/>
+      <c r="G152" s="149"/>
+      <c r="H152" s="150"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="132"/>
-      <c r="B153" s="134"/>
+      <c r="A153" s="142"/>
+      <c r="B153" s="147"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
       </c>
@@ -13215,7 +13230,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="130" t="s">
+      <c r="A154" s="140" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13229,7 +13244,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="131"/>
+      <c r="A155" s="141"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13241,7 +13256,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="131"/>
+      <c r="A156" s="141"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13253,7 +13268,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="131"/>
+      <c r="A157" s="141"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13265,7 +13280,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="131"/>
+      <c r="A158" s="141"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13277,7 +13292,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="131"/>
+      <c r="A159" s="141"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13289,7 +13304,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="131"/>
+      <c r="A160" s="141"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13301,7 +13316,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="131"/>
+      <c r="A161" s="141"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13313,7 +13328,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="131"/>
+      <c r="A162" s="141"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13325,7 +13340,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="131"/>
+      <c r="A163" s="141"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13337,7 +13352,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="131"/>
+      <c r="A164" s="141"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13349,7 +13364,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="131"/>
+      <c r="A165" s="141"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13361,7 +13376,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="131"/>
+      <c r="A166" s="141"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13373,7 +13388,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="131"/>
+      <c r="A167" s="141"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13385,7 +13400,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="132"/>
+      <c r="A168" s="142"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13397,7 +13412,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="130" t="s">
+      <c r="A169" s="140" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13411,7 +13426,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="131"/>
+      <c r="A170" s="141"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13423,7 +13438,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="131"/>
+      <c r="A171" s="141"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13435,7 +13450,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="131"/>
+      <c r="A172" s="141"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13447,7 +13462,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="131"/>
+      <c r="A173" s="141"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13459,7 +13474,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="131"/>
+      <c r="A174" s="141"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13471,7 +13486,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="131"/>
+      <c r="A175" s="141"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13483,7 +13498,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="131"/>
+      <c r="A176" s="141"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13495,7 +13510,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="131"/>
+      <c r="A177" s="141"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13507,7 +13522,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="131"/>
+      <c r="A178" s="141"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13519,7 +13534,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="131"/>
+      <c r="A179" s="141"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13531,7 +13546,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="131"/>
+      <c r="A180" s="141"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13543,7 +13558,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="131"/>
+      <c r="A181" s="141"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13555,7 +13570,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="131"/>
+      <c r="A182" s="141"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13567,7 +13582,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="132"/>
+      <c r="A183" s="142"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13579,7 +13594,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="130" t="s">
+      <c r="A184" s="140" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13593,7 +13608,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="131"/>
+      <c r="A185" s="141"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13605,7 +13620,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="131"/>
+      <c r="A186" s="141"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13617,7 +13632,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="131"/>
+      <c r="A187" s="141"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13629,7 +13644,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="131"/>
+      <c r="A188" s="141"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13641,7 +13656,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="131"/>
+      <c r="A189" s="141"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13653,7 +13668,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="131"/>
+      <c r="A190" s="141"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13665,7 +13680,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="131"/>
+      <c r="A191" s="141"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13677,7 +13692,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="131"/>
+      <c r="A192" s="141"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13689,7 +13704,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="131"/>
+      <c r="A193" s="141"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13701,7 +13716,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="131"/>
+      <c r="A194" s="141"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -13713,7 +13728,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="131"/>
+      <c r="A195" s="141"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -13725,7 +13740,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="131"/>
+      <c r="A196" s="141"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -13737,7 +13752,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="131"/>
+      <c r="A197" s="141"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -13749,7 +13764,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="132"/>
+      <c r="A198" s="142"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -13761,7 +13776,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="130" t="s">
+      <c r="A199" s="140" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -13775,7 +13790,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="131"/>
+      <c r="A200" s="141"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -13787,7 +13802,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="131"/>
+      <c r="A201" s="141"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -13799,7 +13814,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="131"/>
+      <c r="A202" s="141"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -13811,7 +13826,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="131"/>
+      <c r="A203" s="141"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -13823,7 +13838,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="131"/>
+      <c r="A204" s="141"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -13835,7 +13850,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="131"/>
+      <c r="A205" s="141"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -13847,7 +13862,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="131"/>
+      <c r="A206" s="141"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -13859,7 +13874,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="131"/>
+      <c r="A207" s="141"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -13871,7 +13886,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="131"/>
+      <c r="A208" s="141"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -13883,7 +13898,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="131"/>
+      <c r="A209" s="141"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -13895,7 +13910,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="131"/>
+      <c r="A210" s="141"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -13907,7 +13922,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="131"/>
+      <c r="A211" s="141"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -13919,7 +13934,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="131"/>
+      <c r="A212" s="141"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -13931,7 +13946,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="132"/>
+      <c r="A213" s="142"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -13944,11 +13959,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -13958,6 +13968,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="528">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1899,6 +1899,105 @@
     <t>模2^16-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <r>
+      <t>PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方案</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占整个架构面积比例</t>
+    </r>
+  </si>
+  <si>
+    <t>功能单元利用率</t>
+  </si>
+  <si>
+    <t>算</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>功能单元</t>
+  </si>
+  <si>
+    <t>算术</t>
+  </si>
+  <si>
+    <t>单元</t>
+  </si>
+  <si>
+    <t>移位</t>
+  </si>
+  <si>
+    <t>置换</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+  </si>
+  <si>
+    <t>模乘</t>
+  </si>
+  <si>
+    <t>平均利用率</t>
+  </si>
+  <si>
+    <t>串行组合</t>
+  </si>
+  <si>
+    <t>ProDFA</t>
+  </si>
+  <si>
+    <t>并行组合</t>
+  </si>
+  <si>
+    <t>串并混合</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
 </sst>
 </file>
 
@@ -1908,7 +2007,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,6 +2077,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2029,7 +2134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2288,6 +2393,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2295,7 +2424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2544,6 +2673,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,20 +2736,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2619,20 +2763,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2652,6 +2808,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2661,41 +2826,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2715,15 +2853,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2762,6 +2891,89 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3490,53 +3702,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="99"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="89"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3559,7 +3771,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3574,7 +3786,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3595,7 +3807,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3616,7 +3828,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3628,11 +3840,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92" t="s">
+      <c r="G7" s="97"/>
+      <c r="H7" s="97" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3643,7 +3855,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3653,9 +3865,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3664,7 +3876,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3696,7 +3908,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3726,7 +3938,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,10 +3968,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="87"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -3780,10 +3992,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -3801,10 +4013,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="103"/>
+      <c r="B14" s="87"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -3822,10 +4034,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -3840,7 +4052,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3864,7 +4076,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -3886,7 +4098,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="106"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -3899,11 +4111,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -3917,6 +4124,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -3937,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
@@ -3947,31 +4159,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="111" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="107" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="112"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3986,7 +4198,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +4207,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4008,7 +4220,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4021,7 +4233,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4033,13 +4245,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="109" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="112" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4048,24 +4260,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="114"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="88"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4079,8 +4291,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4092,7 +4304,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4107,8 +4319,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="109" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="114" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4122,8 +4334,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4135,10 +4347,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4148,10 +4360,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="103"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4161,10 +4373,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4174,12 +4386,6 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4187,6 +4393,12 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
@@ -4227,83 +4439,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="134"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="122"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="129"/>
-      <c r="B2" s="135" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="132" t="s">
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="134"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="122"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4366,13 +4578,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="131" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4425,9 +4637,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="126"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4478,9 +4690,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="126"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4531,9 +4743,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="126"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4566,9 +4778,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="127"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4595,13 +4807,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="128" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4642,9 +4854,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4671,9 +4883,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4700,9 +4912,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4729,9 +4941,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4758,13 +4970,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="128" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -4823,9 +5035,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -4876,9 +5088,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -4929,9 +5141,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -4976,9 +5188,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="118"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5005,13 +5217,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="128" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5076,9 +5288,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5141,9 +5353,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5188,9 +5400,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="123"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5223,9 +5435,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5252,13 +5464,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="128" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5311,9 +5523,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5346,9 +5558,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5381,9 +5593,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5410,9 +5622,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="118"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5439,13 +5651,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="128" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="128" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5498,9 +5710,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5533,9 +5745,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5568,9 +5780,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5597,9 +5809,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="118"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5626,13 +5838,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="128" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="128" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5697,9 +5909,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -5750,9 +5962,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -5783,9 +5995,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -5816,9 +6028,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="118"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6078,6 +6290,2211 @@
       <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA114"/>
+  <sheetViews>
+    <sheetView topLeftCell="K79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114:K123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="55"/>
+    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18"/>
+    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9" style="55"/>
+    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9" style="46"/>
+    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="122"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="122"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="51">
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="126"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="126"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="126"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="126"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="126"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="126"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="57">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="126"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="51">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="126"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="51">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="126"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="127"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="51">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" s="57">
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="135"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="51">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" s="57">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="135"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="51">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="57">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="135"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="136"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="25">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" s="57">
+        <v>2E-3</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="126"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="126"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O26" s="58">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="126"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="127"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="51">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="25">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" s="27">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="126"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="126"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="126"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="127"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="57">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="R34" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="126"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="51">
+        <v>2E-3</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" s="57">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="R35" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="126"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="126"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="127"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="53">
+        <v>3.0555555555555557E-3</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="N75" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="O75" s="18"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L76" s="61">
+        <v>1</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="46"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O77" s="18"/>
+      <c r="P77" s="46"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L78" s="62">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M78" s="55"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="46"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L79" s="62">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M79" s="55"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="46"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="L80" s="55">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K81" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="L81" s="55">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K87" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K88" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K89" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K90" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K91" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K92" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K93" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K96" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K97" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K98" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M98" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K99" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K100" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K101" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K102" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K103" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K104" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K105" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K106" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M106" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K107" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="M107" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K108" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M108" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K113" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K114" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
@@ -6109,2211 +8526,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA114"/>
-  <sheetViews>
-    <sheetView topLeftCell="K106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114:K123"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="55"/>
-    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9" style="18"/>
-    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9" style="55"/>
-    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9" style="46"/>
-    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="134"/>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="129"/>
-      <c r="B2" s="135" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="134"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-    </row>
-    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="51">
-        <v>4.6666666666666671E-3</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="57">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="27">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-    </row>
-    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="51">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="57">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="27">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="51">
-        <v>1.3333333333333333E-3</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="57">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="27">
-        <v>9.375E-2</v>
-      </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-    </row>
-    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="51">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.21944444444444444</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="57">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="R14" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-    </row>
-    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="51">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="57">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-    </row>
-    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="51">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="57">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-    </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="118"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-    </row>
-    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="51">
-        <v>3.7037037037037034E-3</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.22708333333333333</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="57">
-        <v>7.7777777777777776E-3</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="R19" s="27">
-        <v>0.31041666666666667</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="51">
-        <v>1.4814814814814814E-3</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="O20" s="57">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R20" s="27">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="51">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0.10208333333333335</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="57">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="123"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-    </row>
-    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="25">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" s="57">
-        <v>2E-3</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="R24" s="27">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O25" s="57">
-        <v>1E-3</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-    </row>
-    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="O26" s="58">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="118"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="51">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="25">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="O29" s="57">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="R29" s="27">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="57">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="57">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="118"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="51">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" s="57">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q34" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="R34" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S34" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="T34" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="U34" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="51">
-        <v>2E-3</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="O35" s="57">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q35" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="R35" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-    </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="118"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-    </row>
-    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-    </row>
-    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="53">
-        <v>3.0555555555555557E-3</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-    </row>
-    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K75" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="N75" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="O75" s="18"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="18"/>
-    </row>
-    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K76" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L76" s="61">
-        <v>1</v>
-      </c>
-      <c r="M76" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="46"/>
-      <c r="R76" s="18"/>
-    </row>
-    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K77" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L77" s="2">
-        <v>0</v>
-      </c>
-      <c r="M77" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="O77" s="18"/>
-      <c r="P77" s="46"/>
-      <c r="R77" s="18"/>
-    </row>
-    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K78" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L78" s="62">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="M78" s="55"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="46"/>
-      <c r="R78" s="18"/>
-    </row>
-    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K79" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="L79" s="62">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M79" s="55"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="46"/>
-      <c r="R79" s="18"/>
-    </row>
-    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="K80" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="L80" s="55">
-        <v>0.30559999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K81" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="L81" s="55">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K87" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K88" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K89" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K90" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K91" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K92" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L92" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M92" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K93" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="M93" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K96" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="M96" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K97" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K98" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K99" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K100" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M100" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K101" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M101" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K102" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="M102" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K103" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="M103" s="18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K104" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M104" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K105" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M105" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K106" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="M106" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K107" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="M107" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K108" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="M108" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K113" s="18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K114" s="18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8770,7 +8982,7 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="143" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="146" t="s">
@@ -8800,14 +9012,14 @@
       </c>
       <c r="P40" s="152"/>
       <c r="Q40" s="153"/>
-      <c r="R40" s="143" t="s">
+      <c r="R40" s="137" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="144"/>
-      <c r="T40" s="145"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="139"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="142"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="147"/>
       <c r="C41" s="147"/>
       <c r="D41" s="63" t="s">
@@ -8831,24 +9043,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="143">
+      <c r="L41" s="137">
         <v>65</v>
       </c>
-      <c r="M41" s="144"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="143">
+      <c r="M41" s="138"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="137">
         <v>65</v>
       </c>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="143">
+      <c r="P41" s="138"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="137">
         <v>45</v>
       </c>
-      <c r="S41" s="144"/>
-      <c r="T41" s="145"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="139"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="143" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -8878,26 +9090,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="143">
+      <c r="L42" s="137">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="144"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="143">
+      <c r="M42" s="138"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="137">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="145"/>
-      <c r="R42" s="143">
+      <c r="P42" s="138"/>
+      <c r="Q42" s="139"/>
+      <c r="R42" s="137">
         <v>1</v>
       </c>
-      <c r="S42" s="144"/>
-      <c r="T42" s="145"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="139"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="141"/>
+      <c r="A43" s="144"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -8952,7 +9164,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="141"/>
+      <c r="A44" s="144"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9027,7 +9239,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="141"/>
+      <c r="A45" s="144"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9102,7 +9314,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="141"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9177,7 +9389,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="141"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9252,7 +9464,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="141"/>
+      <c r="A48" s="144"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9327,7 +9539,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="141"/>
+      <c r="A49" s="144"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9402,7 +9614,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="141"/>
+      <c r="A50" s="144"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9463,7 +9675,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="141"/>
+      <c r="A51" s="144"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9524,7 +9736,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="141"/>
+      <c r="A52" s="144"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9549,7 +9761,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="141"/>
+      <c r="A53" s="144"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9578,7 +9790,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="141"/>
+      <c r="A54" s="144"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9603,7 +9815,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141"/>
+      <c r="A55" s="144"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9628,7 +9840,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="142"/>
+      <c r="A56" s="145"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9653,7 +9865,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="143" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9694,7 +9906,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="141"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -9733,7 +9945,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="141"/>
+      <c r="A59" s="144"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -9772,7 +9984,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="141"/>
+      <c r="A60" s="144"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -9811,7 +10023,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="141"/>
+      <c r="A61" s="144"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -9850,7 +10062,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="141"/>
+      <c r="A62" s="144"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -9889,7 +10101,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="141"/>
+      <c r="A63" s="144"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -9928,7 +10140,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="141"/>
+      <c r="A64" s="144"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -9956,7 +10168,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="141"/>
+      <c r="A65" s="144"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -9970,7 +10182,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="141"/>
+      <c r="A66" s="144"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -9984,24 +10196,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="143" t="s">
+      <c r="L66" s="137" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="144"/>
-      <c r="N66" s="145"/>
-      <c r="O66" s="143" t="s">
+      <c r="M66" s="138"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="137" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="145"/>
-      <c r="R66" s="143" t="s">
+      <c r="P66" s="138"/>
+      <c r="Q66" s="139"/>
+      <c r="R66" s="137" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="144"/>
-      <c r="T66" s="145"/>
+      <c r="S66" s="138"/>
+      <c r="T66" s="139"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="141"/>
+      <c r="A67" s="144"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10015,18 +10227,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="143"/>
-      <c r="M67" s="144"/>
-      <c r="N67" s="145"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="145"/>
-      <c r="R67" s="143"/>
-      <c r="S67" s="144"/>
-      <c r="T67" s="145"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="138"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="137"/>
+      <c r="P67" s="138"/>
+      <c r="Q67" s="139"/>
+      <c r="R67" s="137"/>
+      <c r="S67" s="138"/>
+      <c r="T67" s="139"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="141"/>
+      <c r="A68" s="144"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10040,18 +10252,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="143"/>
-      <c r="M68" s="144"/>
-      <c r="N68" s="145"/>
-      <c r="O68" s="143"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="145"/>
-      <c r="R68" s="143"/>
-      <c r="S68" s="144"/>
-      <c r="T68" s="145"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="138"/>
+      <c r="N68" s="139"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="138"/>
+      <c r="Q68" s="139"/>
+      <c r="R68" s="137"/>
+      <c r="S68" s="138"/>
+      <c r="T68" s="139"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="141"/>
+      <c r="A69" s="144"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10092,7 +10304,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="141"/>
+      <c r="A70" s="144"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10117,7 +10329,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="142"/>
+      <c r="A71" s="145"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10142,7 +10354,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="137" t="s">
+      <c r="A72" s="140" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10183,7 +10395,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="138"/>
+      <c r="A73" s="141"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10222,7 +10434,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="138"/>
+      <c r="A74" s="141"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10261,7 +10473,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="138"/>
+      <c r="A75" s="141"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10300,7 +10512,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="138"/>
+      <c r="A76" s="141"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10339,7 +10551,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="138"/>
+      <c r="A77" s="141"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10378,7 +10590,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="138"/>
+      <c r="A78" s="141"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10417,7 +10629,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="138"/>
+      <c r="A79" s="141"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10456,7 +10668,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="138"/>
+      <c r="A80" s="141"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10481,7 +10693,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="138"/>
+      <c r="A81" s="141"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10506,7 +10718,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="138"/>
+      <c r="A82" s="141"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10531,7 +10743,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="138"/>
+      <c r="A83" s="141"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10556,7 +10768,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="138"/>
+      <c r="A84" s="141"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10581,7 +10793,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="138"/>
+      <c r="A85" s="141"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10606,7 +10818,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="139"/>
+      <c r="A86" s="142"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10631,7 +10843,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="137" t="s">
+      <c r="A87" s="140" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10672,7 +10884,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="138"/>
+      <c r="A88" s="141"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10711,7 +10923,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="138"/>
+      <c r="A89" s="141"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -10750,7 +10962,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="138"/>
+      <c r="A90" s="141"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -10777,7 +10989,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="138"/>
+      <c r="A91" s="141"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -10804,7 +11016,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="138"/>
+      <c r="A92" s="141"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -10831,7 +11043,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="138"/>
+      <c r="A93" s="141"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -10858,7 +11070,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="138"/>
+      <c r="A94" s="141"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -10885,7 +11097,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="138"/>
+      <c r="A95" s="141"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -10898,7 +11110,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="138"/>
+      <c r="A96" s="141"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -10911,7 +11123,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="138"/>
+      <c r="A97" s="141"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -10924,7 +11136,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="138"/>
+      <c r="A98" s="141"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -10937,7 +11149,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="138"/>
+      <c r="A99" s="141"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -10950,7 +11162,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="138"/>
+      <c r="A100" s="141"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -10963,7 +11175,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="139"/>
+      <c r="A101" s="142"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -10976,7 +11188,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="137" t="s">
+      <c r="A102" s="140" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -10991,7 +11203,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="138"/>
+      <c r="A103" s="141"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -11004,7 +11216,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="138"/>
+      <c r="A104" s="141"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11017,7 +11229,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="138"/>
+      <c r="A105" s="141"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11030,7 +11242,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="138"/>
+      <c r="A106" s="141"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11043,7 +11255,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="138"/>
+      <c r="A107" s="141"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11056,7 +11268,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="138"/>
+      <c r="A108" s="141"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11069,7 +11281,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="138"/>
+      <c r="A109" s="141"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11082,7 +11294,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="138"/>
+      <c r="A110" s="141"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11095,7 +11307,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="138"/>
+      <c r="A111" s="141"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11108,7 +11320,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="138"/>
+      <c r="A112" s="141"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11121,7 +11333,7 @@
       <c r="I112" s="66"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="138"/>
+      <c r="A113" s="141"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11134,7 +11346,7 @@
       <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="138"/>
+      <c r="A114" s="141"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11147,7 +11359,7 @@
       <c r="I114" s="66"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="138"/>
+      <c r="A115" s="141"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11160,7 +11372,7 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="139"/>
+      <c r="A116" s="142"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11173,7 +11385,7 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="140" t="s">
+      <c r="A117" s="143" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11188,7 +11400,7 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="141"/>
+      <c r="A118" s="144"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11201,7 +11413,7 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="141"/>
+      <c r="A119" s="144"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11214,7 +11426,7 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="141"/>
+      <c r="A120" s="144"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11227,7 +11439,7 @@
       <c r="I120" s="66"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="141"/>
+      <c r="A121" s="144"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11240,7 +11452,7 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="141"/>
+      <c r="A122" s="144"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11253,7 +11465,7 @@
       <c r="I122" s="66"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="141"/>
+      <c r="A123" s="144"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11266,7 +11478,7 @@
       <c r="I123" s="66"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="141"/>
+      <c r="A124" s="144"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11279,7 +11491,7 @@
       <c r="I124" s="66"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="141"/>
+      <c r="A125" s="144"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11292,7 +11504,7 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="141"/>
+      <c r="A126" s="144"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11305,7 +11517,7 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="141"/>
+      <c r="A127" s="144"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11318,7 +11530,7 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="141"/>
+      <c r="A128" s="144"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11331,7 +11543,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="141"/>
+      <c r="A129" s="144"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11344,7 +11556,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="141"/>
+      <c r="A130" s="144"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11357,7 +11569,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="142"/>
+      <c r="A131" s="145"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11371,6 +11583,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11387,18 +11611,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11408,16 +11620,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="F262" workbookViewId="0">
+      <selection activeCell="P282" sqref="P282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>400</v>
       </c>
       <c r="B1" s="154" t="s">
@@ -11433,7 +11648,7 @@
       <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142"/>
+      <c r="A2" s="145"/>
       <c r="B2" s="155"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
@@ -11455,7 +11670,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="143" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11469,7 +11684,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11481,7 +11696,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="141"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11493,7 +11708,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11505,7 +11720,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="141"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11517,7 +11732,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="141"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11529,7 +11744,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11541,7 +11756,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11553,7 +11768,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11565,7 +11780,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="141"/>
+      <c r="A12" s="144"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11577,7 +11792,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="141"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11589,7 +11804,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11601,7 +11816,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11613,7 +11828,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="141"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11625,7 +11840,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="141"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11637,7 +11852,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="141"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11649,7 +11864,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="141"/>
+      <c r="A19" s="144"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11661,7 +11876,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11673,7 +11888,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="141"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11685,7 +11900,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11697,7 +11912,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="141"/>
+      <c r="A23" s="144"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11709,7 +11924,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="141"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -11721,7 +11936,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="141"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -11733,7 +11948,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="141"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -11745,7 +11960,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -11757,7 +11972,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="141"/>
+      <c r="A28" s="144"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -11769,7 +11984,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="141"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -11781,7 +11996,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141"/>
+      <c r="A30" s="144"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -11793,7 +12008,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="141"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -11805,7 +12020,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="141"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -11817,7 +12032,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="141"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -11829,7 +12044,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="141"/>
+      <c r="A34" s="144"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -11841,7 +12056,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="141"/>
+      <c r="A35" s="144"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -11853,7 +12068,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
+      <c r="A36" s="144"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -11865,7 +12080,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="141"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -11877,7 +12092,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="142"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -11889,7 +12104,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="143" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -11903,7 +12118,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="141"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -11915,7 +12130,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="141"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -11927,7 +12142,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="141"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -11939,7 +12154,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="141"/>
+      <c r="A43" s="144"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -11951,7 +12166,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="141"/>
+      <c r="A44" s="144"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -11963,7 +12178,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="141"/>
+      <c r="A45" s="144"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -11975,7 +12190,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="141"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -11987,7 +12202,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="141"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -11999,7 +12214,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="141"/>
+      <c r="A48" s="144"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -12011,7 +12226,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="141"/>
+      <c r="A49" s="144"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12023,7 +12238,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="141"/>
+      <c r="A50" s="144"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12035,7 +12250,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="141"/>
+      <c r="A51" s="144"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12047,7 +12262,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="141"/>
+      <c r="A52" s="144"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12059,7 +12274,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="141"/>
+      <c r="A53" s="144"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12071,7 +12286,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="141"/>
+      <c r="A54" s="144"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12083,7 +12298,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141"/>
+      <c r="A55" s="144"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12095,7 +12310,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="141"/>
+      <c r="A56" s="144"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12107,7 +12322,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="141"/>
+      <c r="A57" s="144"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12119,7 +12334,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="141"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12131,7 +12346,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="141"/>
+      <c r="A59" s="144"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12143,7 +12358,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="141"/>
+      <c r="A60" s="144"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12155,7 +12370,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="141"/>
+      <c r="A61" s="144"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12167,7 +12382,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="141"/>
+      <c r="A62" s="144"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12179,7 +12394,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="141"/>
+      <c r="A63" s="144"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12191,7 +12406,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="141"/>
+      <c r="A64" s="144"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12203,7 +12418,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="141"/>
+      <c r="A65" s="144"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12215,7 +12430,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="141"/>
+      <c r="A66" s="144"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12227,7 +12442,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="141"/>
+      <c r="A67" s="144"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12239,7 +12454,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="141"/>
+      <c r="A68" s="144"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12251,7 +12466,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="141"/>
+      <c r="A69" s="144"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12263,7 +12478,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="141"/>
+      <c r="A70" s="144"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12275,7 +12490,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="141"/>
+      <c r="A71" s="144"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12287,7 +12502,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="141"/>
+      <c r="A72" s="144"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12299,7 +12514,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="141"/>
+      <c r="A73" s="144"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12311,7 +12526,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="142"/>
+      <c r="A74" s="145"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12323,7 +12538,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="140" t="s">
+      <c r="A75" s="143" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12337,7 +12552,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="141"/>
+      <c r="A76" s="144"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12349,7 +12564,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="141"/>
+      <c r="A77" s="144"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12361,7 +12576,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="141"/>
+      <c r="A78" s="144"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12373,7 +12588,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="141"/>
+      <c r="A79" s="144"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12385,7 +12600,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="141"/>
+      <c r="A80" s="144"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12397,7 +12612,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="141"/>
+      <c r="A81" s="144"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12409,7 +12624,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="141"/>
+      <c r="A82" s="144"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12421,7 +12636,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="141"/>
+      <c r="A83" s="144"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12433,7 +12648,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="141"/>
+      <c r="A84" s="144"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12445,7 +12660,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="141"/>
+      <c r="A85" s="144"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12457,7 +12672,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="141"/>
+      <c r="A86" s="144"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12469,7 +12684,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="141"/>
+      <c r="A87" s="144"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12481,7 +12696,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="141"/>
+      <c r="A88" s="144"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12493,7 +12708,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="141"/>
+      <c r="A89" s="144"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12505,7 +12720,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="141"/>
+      <c r="A90" s="144"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12517,7 +12732,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="141"/>
+      <c r="A91" s="144"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12529,7 +12744,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="141"/>
+      <c r="A92" s="144"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12541,7 +12756,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="141"/>
+      <c r="A93" s="144"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12553,7 +12768,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="141"/>
+      <c r="A94" s="144"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12565,7 +12780,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="141"/>
+      <c r="A95" s="144"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12577,7 +12792,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="141"/>
+      <c r="A96" s="144"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12589,7 +12804,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="141"/>
+      <c r="A97" s="144"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12601,7 +12816,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="141"/>
+      <c r="A98" s="144"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12613,7 +12828,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="141"/>
+      <c r="A99" s="144"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12625,7 +12840,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="141"/>
+      <c r="A100" s="144"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12637,7 +12852,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="141"/>
+      <c r="A101" s="144"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12649,7 +12864,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="141"/>
+      <c r="A102" s="144"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12661,7 +12876,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="141"/>
+      <c r="A103" s="144"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12673,7 +12888,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="141"/>
+      <c r="A104" s="144"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12685,7 +12900,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="141"/>
+      <c r="A105" s="144"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12697,7 +12912,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="141"/>
+      <c r="A106" s="144"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12709,7 +12924,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="141"/>
+      <c r="A107" s="144"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -12721,7 +12936,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="141"/>
+      <c r="A108" s="144"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -12733,7 +12948,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="141"/>
+      <c r="A109" s="144"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -12745,7 +12960,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="142"/>
+      <c r="A110" s="145"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -12757,7 +12972,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="140" t="s">
+      <c r="A111" s="143" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -12771,7 +12986,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="141"/>
+      <c r="A112" s="144"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -12783,7 +12998,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="141"/>
+      <c r="A113" s="144"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -12795,7 +13010,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="141"/>
+      <c r="A114" s="144"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -12807,7 +13022,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="141"/>
+      <c r="A115" s="144"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -12819,7 +13034,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="141"/>
+      <c r="A116" s="144"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -12831,7 +13046,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="141"/>
+      <c r="A117" s="144"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -12843,7 +13058,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="141"/>
+      <c r="A118" s="144"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -12855,7 +13070,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="141"/>
+      <c r="A119" s="144"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -12867,7 +13082,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="141"/>
+      <c r="A120" s="144"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -12879,7 +13094,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="141"/>
+      <c r="A121" s="144"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -12891,7 +13106,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="141"/>
+      <c r="A122" s="144"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -12903,7 +13118,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="141"/>
+      <c r="A123" s="144"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -12915,7 +13130,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="141"/>
+      <c r="A124" s="144"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -12927,7 +13142,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="141"/>
+      <c r="A125" s="144"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -12939,7 +13154,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="141"/>
+      <c r="A126" s="144"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -12951,7 +13166,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="141"/>
+      <c r="A127" s="144"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -12963,7 +13178,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="141"/>
+      <c r="A128" s="144"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -12975,7 +13190,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="141"/>
+      <c r="A129" s="144"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -12987,7 +13202,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="141"/>
+      <c r="A130" s="144"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -12999,7 +13214,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="141"/>
+      <c r="A131" s="144"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -13011,7 +13226,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="141"/>
+      <c r="A132" s="144"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13023,7 +13238,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="141"/>
+      <c r="A133" s="144"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13035,7 +13250,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="141"/>
+      <c r="A134" s="144"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13047,7 +13262,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="141"/>
+      <c r="A135" s="144"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13059,7 +13274,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="141"/>
+      <c r="A136" s="144"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13071,7 +13286,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="141"/>
+      <c r="A137" s="144"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13083,7 +13298,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="141"/>
+      <c r="A138" s="144"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13095,7 +13310,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="141"/>
+      <c r="A139" s="144"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13107,7 +13322,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="141"/>
+      <c r="A140" s="144"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13119,7 +13334,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="141"/>
+      <c r="A141" s="144"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13131,7 +13346,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="141"/>
+      <c r="A142" s="144"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13143,7 +13358,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="141"/>
+      <c r="A143" s="144"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13155,7 +13370,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="141"/>
+      <c r="A144" s="144"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13167,7 +13382,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="141"/>
+      <c r="A145" s="144"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13179,7 +13394,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="142"/>
+      <c r="A146" s="145"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13192,7 +13407,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="140" t="s">
+      <c r="A152" s="143" t="s">
         <v>400</v>
       </c>
       <c r="B152" s="146" t="s">
@@ -13208,7 +13423,7 @@
       <c r="H152" s="150"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="142"/>
+      <c r="A153" s="145"/>
       <c r="B153" s="147"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
@@ -13230,7 +13445,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="140" t="s">
+      <c r="A154" s="143" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13244,7 +13459,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="141"/>
+      <c r="A155" s="144"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13256,7 +13471,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="141"/>
+      <c r="A156" s="144"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13268,7 +13483,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="141"/>
+      <c r="A157" s="144"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13280,7 +13495,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="141"/>
+      <c r="A158" s="144"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13292,7 +13507,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="141"/>
+      <c r="A159" s="144"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13304,7 +13519,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="141"/>
+      <c r="A160" s="144"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13316,7 +13531,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="141"/>
+      <c r="A161" s="144"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13328,7 +13543,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="141"/>
+      <c r="A162" s="144"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13340,7 +13555,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="141"/>
+      <c r="A163" s="144"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13352,7 +13567,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="141"/>
+      <c r="A164" s="144"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13364,7 +13579,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="141"/>
+      <c r="A165" s="144"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13376,7 +13591,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="141"/>
+      <c r="A166" s="144"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13388,7 +13603,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="141"/>
+      <c r="A167" s="144"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13400,7 +13615,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="142"/>
+      <c r="A168" s="145"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13412,7 +13627,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="140" t="s">
+      <c r="A169" s="143" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13426,7 +13641,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="141"/>
+      <c r="A170" s="144"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13438,7 +13653,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="141"/>
+      <c r="A171" s="144"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13450,7 +13665,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="141"/>
+      <c r="A172" s="144"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13462,7 +13677,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="141"/>
+      <c r="A173" s="144"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13474,7 +13689,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="141"/>
+      <c r="A174" s="144"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13486,7 +13701,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="141"/>
+      <c r="A175" s="144"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13498,7 +13713,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="141"/>
+      <c r="A176" s="144"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13510,7 +13725,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="141"/>
+      <c r="A177" s="144"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13522,7 +13737,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="141"/>
+      <c r="A178" s="144"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13534,7 +13749,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="141"/>
+      <c r="A179" s="144"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13546,7 +13761,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="141"/>
+      <c r="A180" s="144"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13558,7 +13773,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="141"/>
+      <c r="A181" s="144"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13570,7 +13785,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="141"/>
+      <c r="A182" s="144"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13582,7 +13797,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="142"/>
+      <c r="A183" s="145"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13594,7 +13809,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="140" t="s">
+      <c r="A184" s="143" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13608,7 +13823,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="141"/>
+      <c r="A185" s="144"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13620,7 +13835,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="141"/>
+      <c r="A186" s="144"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13632,7 +13847,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="141"/>
+      <c r="A187" s="144"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13644,7 +13859,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="141"/>
+      <c r="A188" s="144"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13656,7 +13871,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="141"/>
+      <c r="A189" s="144"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13668,7 +13883,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="141"/>
+      <c r="A190" s="144"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13680,7 +13895,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="141"/>
+      <c r="A191" s="144"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13692,7 +13907,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="141"/>
+      <c r="A192" s="144"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13704,7 +13919,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="141"/>
+      <c r="A193" s="144"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13716,7 +13931,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="141"/>
+      <c r="A194" s="144"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -13728,7 +13943,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="141"/>
+      <c r="A195" s="144"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -13740,7 +13955,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="141"/>
+      <c r="A196" s="144"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -13752,7 +13967,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="141"/>
+      <c r="A197" s="144"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -13764,7 +13979,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="142"/>
+      <c r="A198" s="145"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -13776,7 +13991,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="140" t="s">
+      <c r="A199" s="143" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -13790,7 +14005,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="141"/>
+      <c r="A200" s="144"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -13802,7 +14017,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="141"/>
+      <c r="A201" s="144"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -13814,7 +14029,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="141"/>
+      <c r="A202" s="144"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -13826,7 +14041,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="141"/>
+      <c r="A203" s="144"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -13838,7 +14053,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="141"/>
+      <c r="A204" s="144"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -13850,7 +14065,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="141"/>
+      <c r="A205" s="144"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -13862,7 +14077,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="141"/>
+      <c r="A206" s="144"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -13874,7 +14089,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="141"/>
+      <c r="A207" s="144"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -13886,7 +14101,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="141"/>
+      <c r="A208" s="144"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -13898,7 +14113,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="141"/>
+      <c r="A209" s="144"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -13910,7 +14125,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="141"/>
+      <c r="A210" s="144"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -13922,7 +14137,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="141"/>
+      <c r="A211" s="144"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -13934,7 +14149,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="141"/>
+      <c r="A212" s="144"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -13946,7 +14161,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="142"/>
+      <c r="A213" s="145"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -13957,8 +14172,845 @@
       <c r="G213" s="66"/>
       <c r="H213" s="66"/>
     </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>19286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>85473</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>12826</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>127260</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>1160372</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>49816</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f>SUM(A247:A254)</f>
+        <v>1461885</v>
+      </c>
+      <c r="B255">
+        <f>A255*16</f>
+        <v>23390160</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>159571</v>
+      </c>
+      <c r="B256">
+        <f>A256*4</f>
+        <v>638284</v>
+      </c>
+      <c r="C256">
+        <v>718592</v>
+      </c>
+      <c r="G256" s="160" t="s">
+        <v>400</v>
+      </c>
+      <c r="H256" s="172" t="s">
+        <v>508</v>
+      </c>
+      <c r="I256" s="172" t="s">
+        <v>509</v>
+      </c>
+      <c r="J256" s="176" t="s">
+        <v>510</v>
+      </c>
+      <c r="K256" s="175"/>
+      <c r="L256" s="175"/>
+      <c r="M256" s="175"/>
+      <c r="N256" s="175"/>
+      <c r="O256" s="175"/>
+      <c r="P256" s="175"/>
+      <c r="Q256" s="175"/>
+      <c r="R256" s="177"/>
+    </row>
+    <row r="257" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="159">
+        <f>B256/C256</f>
+        <v>0.88824256323477024</v>
+      </c>
+      <c r="G257" s="161" t="s">
+        <v>507</v>
+      </c>
+      <c r="H257" s="173"/>
+      <c r="I257" s="173"/>
+      <c r="J257" s="164" t="s">
+        <v>511</v>
+      </c>
+      <c r="K257" s="176" t="s">
+        <v>513</v>
+      </c>
+      <c r="L257" s="175"/>
+      <c r="M257" s="175"/>
+      <c r="N257" s="175"/>
+      <c r="O257" s="175"/>
+      <c r="P257" s="175"/>
+      <c r="Q257" s="175"/>
+      <c r="R257" s="177"/>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>4.54</v>
+      </c>
+      <c r="B258">
+        <v>6.32</v>
+      </c>
+      <c r="C258" s="159">
+        <f>A258/B258</f>
+        <v>0.71835443037974678</v>
+      </c>
+      <c r="G258" s="162"/>
+      <c r="H258" s="173"/>
+      <c r="I258" s="173"/>
+      <c r="J258" s="164" t="s">
+        <v>512</v>
+      </c>
+      <c r="K258" s="164" t="s">
+        <v>514</v>
+      </c>
+      <c r="L258" s="164" t="s">
+        <v>516</v>
+      </c>
+      <c r="M258" s="164" t="s">
+        <v>517</v>
+      </c>
+      <c r="N258" s="164" t="s">
+        <v>518</v>
+      </c>
+      <c r="O258" s="172" t="s">
+        <v>519</v>
+      </c>
+      <c r="P258" s="178" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q258" s="167" t="s">
+        <v>521</v>
+      </c>
+      <c r="R258" s="178" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2692840</v>
+      </c>
+      <c r="B259">
+        <v>6691514</v>
+      </c>
+      <c r="C259" s="159">
+        <f>A259/B259</f>
+        <v>0.40242611761702957</v>
+      </c>
+      <c r="G259" s="163"/>
+      <c r="H259" s="174"/>
+      <c r="I259" s="174"/>
+      <c r="J259" s="165"/>
+      <c r="K259" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="L259" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="M259" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="N259" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="O259" s="174"/>
+      <c r="P259" s="179"/>
+      <c r="Q259" s="168" t="s">
+        <v>515</v>
+      </c>
+      <c r="R259" s="179"/>
+    </row>
+    <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G260" s="172" t="s">
+        <v>472</v>
+      </c>
+      <c r="H260" s="178" t="s">
+        <v>523</v>
+      </c>
+      <c r="I260" s="172"/>
+      <c r="J260" s="169" t="s">
+        <v>408</v>
+      </c>
+      <c r="K260" s="169"/>
+      <c r="L260" s="169"/>
+      <c r="M260" s="169"/>
+      <c r="N260" s="169"/>
+      <c r="O260" s="169"/>
+      <c r="P260" s="169"/>
+      <c r="Q260" s="169"/>
+      <c r="R260" s="169"/>
+    </row>
+    <row r="261" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G261" s="173"/>
+      <c r="H261" s="180"/>
+      <c r="I261" s="173"/>
+      <c r="J261" s="169" t="s">
+        <v>409</v>
+      </c>
+      <c r="K261" s="169"/>
+      <c r="L261" s="169"/>
+      <c r="M261" s="169"/>
+      <c r="N261" s="169"/>
+      <c r="O261" s="169"/>
+      <c r="P261" s="169"/>
+      <c r="Q261" s="169"/>
+      <c r="R261" s="169"/>
+    </row>
+    <row r="262" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G262" s="174"/>
+      <c r="H262" s="179"/>
+      <c r="I262" s="174"/>
+      <c r="J262" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="K262" s="169"/>
+      <c r="L262" s="169"/>
+      <c r="M262" s="169"/>
+      <c r="N262" s="169"/>
+      <c r="O262" s="169"/>
+      <c r="P262" s="169"/>
+      <c r="Q262" s="169"/>
+      <c r="R262" s="169"/>
+    </row>
+    <row r="263" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G263" s="172" t="s">
+        <v>524</v>
+      </c>
+      <c r="H263" s="178" t="s">
+        <v>525</v>
+      </c>
+      <c r="I263" s="181">
+        <v>0.89</v>
+      </c>
+      <c r="J263" s="169" t="s">
+        <v>408</v>
+      </c>
+      <c r="K263" s="169"/>
+      <c r="L263" s="169"/>
+      <c r="M263" s="169"/>
+      <c r="N263" s="169"/>
+      <c r="O263" s="169"/>
+      <c r="P263" s="169"/>
+      <c r="Q263" s="169"/>
+      <c r="R263" s="169"/>
+    </row>
+    <row r="264" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G264" s="173"/>
+      <c r="H264" s="180"/>
+      <c r="I264" s="182"/>
+      <c r="J264" s="169" t="s">
+        <v>409</v>
+      </c>
+      <c r="K264" s="169"/>
+      <c r="L264" s="169"/>
+      <c r="M264" s="169"/>
+      <c r="N264" s="169"/>
+      <c r="O264" s="169"/>
+      <c r="P264" s="169"/>
+      <c r="Q264" s="169"/>
+      <c r="R264" s="169"/>
+    </row>
+    <row r="265" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G265" s="174"/>
+      <c r="H265" s="179"/>
+      <c r="I265" s="183"/>
+      <c r="J265" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="K265" s="169"/>
+      <c r="L265" s="169"/>
+      <c r="M265" s="169"/>
+      <c r="N265" s="169"/>
+      <c r="O265" s="169"/>
+      <c r="P265" s="169"/>
+      <c r="Q265" s="169"/>
+      <c r="R265" s="169"/>
+    </row>
+    <row r="266" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G266" s="172" t="s">
+        <v>471</v>
+      </c>
+      <c r="H266" s="178" t="s">
+        <v>526</v>
+      </c>
+      <c r="I266" s="181">
+        <v>0.9</v>
+      </c>
+      <c r="J266" s="169" t="s">
+        <v>408</v>
+      </c>
+      <c r="K266" s="171">
+        <v>0</v>
+      </c>
+      <c r="L266" s="171">
+        <v>0</v>
+      </c>
+      <c r="M266" s="171">
+        <v>0</v>
+      </c>
+      <c r="N266" s="171">
+        <v>0.25</v>
+      </c>
+      <c r="O266" s="171">
+        <v>0.25</v>
+      </c>
+      <c r="P266" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="Q266" s="171">
+        <v>0</v>
+      </c>
+      <c r="R266" s="171">
+        <f>AVERAGE(K266:Q266)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G267" s="173"/>
+      <c r="H267" s="180"/>
+      <c r="I267" s="182"/>
+      <c r="J267" s="169" t="s">
+        <v>409</v>
+      </c>
+      <c r="K267" s="171">
+        <v>0</v>
+      </c>
+      <c r="L267" s="171">
+        <v>0</v>
+      </c>
+      <c r="M267" s="171">
+        <v>0.17</v>
+      </c>
+      <c r="N267" s="171">
+        <v>0.08</v>
+      </c>
+      <c r="O267" s="171">
+        <v>0.08</v>
+      </c>
+      <c r="P267" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="171">
+        <v>0</v>
+      </c>
+      <c r="R267" s="171">
+        <f t="shared" ref="R267:R268" si="0">AVERAGE(K267:Q267)</f>
+        <v>4.7142857142857146E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G268" s="174"/>
+      <c r="H268" s="179"/>
+      <c r="I268" s="183"/>
+      <c r="J268" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="K268" s="171">
+        <v>0.13</v>
+      </c>
+      <c r="L268" s="171">
+        <v>0.13</v>
+      </c>
+      <c r="M268" s="171">
+        <v>0</v>
+      </c>
+      <c r="N268" s="171">
+        <v>0.06</v>
+      </c>
+      <c r="O268" s="171">
+        <v>0</v>
+      </c>
+      <c r="P268" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="171">
+        <v>0</v>
+      </c>
+      <c r="R268" s="171">
+        <f t="shared" si="0"/>
+        <v>4.5714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G269" s="185" t="s">
+        <v>470</v>
+      </c>
+      <c r="H269" s="178" t="s">
+        <v>526</v>
+      </c>
+      <c r="I269" s="181">
+        <v>0.72</v>
+      </c>
+      <c r="J269" s="169" t="s">
+        <v>408</v>
+      </c>
+      <c r="K269" s="171">
+        <v>0</v>
+      </c>
+      <c r="L269" s="171">
+        <v>0</v>
+      </c>
+      <c r="M269" s="171">
+        <v>0</v>
+      </c>
+      <c r="N269" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="O269" s="171">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P269" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q269" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="R269" s="171">
+        <f>AVERAGE(K269:O269)</f>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G270" s="184"/>
+      <c r="H270" s="180"/>
+      <c r="I270" s="182"/>
+      <c r="J270" s="169" t="s">
+        <v>409</v>
+      </c>
+      <c r="K270" s="171">
+        <v>0</v>
+      </c>
+      <c r="L270" s="171">
+        <v>0</v>
+      </c>
+      <c r="M270" s="171">
+        <v>0.17</v>
+      </c>
+      <c r="N270" s="171">
+        <v>0.17</v>
+      </c>
+      <c r="O270" s="171">
+        <v>0.02</v>
+      </c>
+      <c r="P270" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q270" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="R270" s="171">
+        <f t="shared" ref="R270:R271" si="1">AVERAGE(K270:O270)</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G271" s="186"/>
+      <c r="H271" s="179"/>
+      <c r="I271" s="183"/>
+      <c r="J271" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="K271" s="171">
+        <v>0.13</v>
+      </c>
+      <c r="L271" s="171">
+        <v>0.13</v>
+      </c>
+      <c r="M271" s="171">
+        <v>0</v>
+      </c>
+      <c r="N271" s="171">
+        <v>0.13</v>
+      </c>
+      <c r="O271" s="171">
+        <v>0</v>
+      </c>
+      <c r="P271" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q271" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="R271" s="171">
+        <f t="shared" si="1"/>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G274" s="164" t="s">
+        <v>514</v>
+      </c>
+      <c r="H274" s="164" t="s">
+        <v>516</v>
+      </c>
+      <c r="I274" s="164" t="s">
+        <v>517</v>
+      </c>
+      <c r="J274" s="164" t="s">
+        <v>518</v>
+      </c>
+      <c r="K274" s="172" t="s">
+        <v>519</v>
+      </c>
+      <c r="L274" s="178" t="s">
+        <v>520</v>
+      </c>
+      <c r="M274" s="167" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G275" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="H275" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="I275" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="J275" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="K275" s="174"/>
+      <c r="L275" s="179"/>
+      <c r="M275" s="168" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276">
+        <v>3</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>3</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>3</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G278">
+        <f>SUM(G276:G277)</f>
+        <v>4</v>
+      </c>
+      <c r="H278">
+        <f t="shared" ref="H278:M278" si="2">SUM(H276:H277)</f>
+        <v>6</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <f>SUM(G278:M278)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G279">
+        <f>G278*8</f>
+        <v>32</v>
+      </c>
+      <c r="H279">
+        <f t="shared" ref="H279:M279" si="3">H278*8</f>
+        <v>48</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M279">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A280" s="187">
+        <v>0</v>
+      </c>
+      <c r="B280" s="187">
+        <v>0</v>
+      </c>
+      <c r="C280" s="187">
+        <v>0</v>
+      </c>
+      <c r="D280" s="187">
+        <v>4</v>
+      </c>
+      <c r="E280" s="187">
+        <v>4</v>
+      </c>
+      <c r="F280" s="187">
+        <v>4</v>
+      </c>
+      <c r="G280" s="159">
+        <f>A280*2/G$279</f>
+        <v>0</v>
+      </c>
+      <c r="H280" s="159">
+        <f t="shared" ref="H280:M280" si="4">B280*2/H$279</f>
+        <v>0</v>
+      </c>
+      <c r="I280" s="159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J280" s="159">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K280" s="159">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L280" s="159">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M280" s="159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N280" s="170">
+        <f>AVERAGE(G280:M280)</f>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="O280">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A281" s="187">
+        <v>0</v>
+      </c>
+      <c r="B281" s="187">
+        <v>0</v>
+      </c>
+      <c r="C281" s="187">
+        <v>2</v>
+      </c>
+      <c r="D281" s="187">
+        <v>2</v>
+      </c>
+      <c r="E281" s="187">
+        <v>2</v>
+      </c>
+      <c r="F281" s="187">
+        <v>0</v>
+      </c>
+      <c r="G281" s="159">
+        <f t="shared" ref="G281:G282" si="5">A281/G$279</f>
+        <v>0</v>
+      </c>
+      <c r="H281" s="159">
+        <f t="shared" ref="H281" si="6">B281/H$279</f>
+        <v>0</v>
+      </c>
+      <c r="I281" s="159">
+        <f t="shared" ref="I281" si="7">C281/I$279</f>
+        <v>0.125</v>
+      </c>
+      <c r="J281" s="159">
+        <f t="shared" ref="J281" si="8">D281/J$279</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K281" s="159">
+        <f t="shared" ref="K281" si="9">E281/K$279</f>
+        <v>0.25</v>
+      </c>
+      <c r="L281" s="159">
+        <f t="shared" ref="L281" si="10">F281/L$279</f>
+        <v>0</v>
+      </c>
+      <c r="M281" s="159">
+        <f t="shared" ref="M281" si="11">G281/M$279</f>
+        <v>0</v>
+      </c>
+      <c r="N281" s="170">
+        <f t="shared" ref="N281:N282" si="12">AVERAGE(G281:M281)</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="O281">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A282" s="187">
+        <v>2</v>
+      </c>
+      <c r="B282" s="187">
+        <v>2</v>
+      </c>
+      <c r="C282" s="187">
+        <v>0</v>
+      </c>
+      <c r="D282" s="187">
+        <v>2</v>
+      </c>
+      <c r="E282" s="187">
+        <v>0</v>
+      </c>
+      <c r="F282" s="187">
+        <v>0</v>
+      </c>
+      <c r="G282" s="159">
+        <f>A282*2/G$279</f>
+        <v>0.125</v>
+      </c>
+      <c r="H282" s="159">
+        <f t="shared" ref="H282:M282" si="13">B282*2/H$279</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I282" s="159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J282" s="159">
+        <f t="shared" si="13"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K282" s="159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L282" s="159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M282" s="159">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="N282" s="170">
+        <f t="shared" si="12"/>
+        <v>4.6130952380952377E-2</v>
+      </c>
+      <c r="O282">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="35">
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="I269:I271"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:R256"/>
+    <mergeCell ref="K257:R257"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="R258:R259"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -13968,13 +15020,9 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
@@ -2748,6 +2748,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2796,20 +2818,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2823,20 +2845,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2856,6 +2890,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2865,41 +2908,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2919,15 +2935,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2952,21 +2959,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2988,37 +3019,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3746,53 +3746,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="114"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="104"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3884,11 +3884,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="115" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3909,9 +3909,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="109" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4012,10 +4012,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="118"/>
+      <c r="B12" s="105"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -4036,10 +4036,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -4057,10 +4057,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="118"/>
+      <c r="B14" s="105"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -4078,10 +4078,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="106" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4120,7 +4120,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4142,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -4155,11 +4155,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -4173,6 +4168,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4203,31 +4203,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="126" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="125" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="127"/>
+      <c r="E2" s="126"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4242,7 +4242,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4289,13 +4289,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="127" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="122" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="130" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4304,24 +4304,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="129"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="130"/>
+      <c r="E9" s="129"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="130" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4335,8 +4335,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4363,8 +4363,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="124" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="132" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4378,8 +4378,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4391,10 +4391,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4404,10 +4404,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="118"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="118"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4430,12 +4430,6 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4443,6 +4437,12 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4483,83 +4483,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="149"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="140"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="150" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="147" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="147" t="s">
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="149"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4622,13 +4622,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="149" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4681,9 +4681,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="141"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4734,9 +4734,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="141"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4787,9 +4787,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="141"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4822,9 +4822,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="142"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4851,13 +4851,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="146" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4898,9 +4898,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4927,9 +4927,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="132"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4956,9 +4956,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4985,9 +4985,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5014,13 +5014,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="146" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -5079,9 +5079,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -5132,9 +5132,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="132"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -5185,9 +5185,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="132"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -5232,9 +5232,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="133"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5261,13 +5261,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5332,9 +5332,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5397,9 +5397,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="138"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5444,9 +5444,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="138"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5479,9 +5479,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5508,13 +5508,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="146" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5567,9 +5567,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="132"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5602,9 +5602,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5637,9 +5637,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="132"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5666,9 +5666,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5695,13 +5695,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="146" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="146" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5754,9 +5754,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="132"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5789,9 +5789,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="132"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5824,9 +5824,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="132"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5853,9 +5853,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="133"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5882,13 +5882,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131" t="s">
+      <c r="A34" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="134" t="s">
+      <c r="C34" s="146" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5953,9 +5953,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="132"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -6006,9 +6006,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="132"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -6039,9 +6039,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="132"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -6072,9 +6072,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6334,6 +6334,2227 @@
       <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA114"/>
+  <sheetViews>
+    <sheetView topLeftCell="K91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114:K123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="55"/>
+    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18"/>
+    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9" style="55"/>
+    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9" style="46"/>
+    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="140"/>
+    </row>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="135"/>
+      <c r="B2" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
+    </row>
+    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="136"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+    </row>
+    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="51">
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="144"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="144"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="57">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="144"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="144"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="144"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="144"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="145"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="57">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="51">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="144"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="51">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="57">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="144"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+    </row>
+    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="51">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" s="57">
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="153"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="51">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" s="57">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="153"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="51">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="57">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="153"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="154"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="143" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="25">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" s="57">
+        <v>2E-3</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="144"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="144"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O26" s="58">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="144"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="145"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="51">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="25">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" s="57">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" s="27">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="144"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="144"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="57">
+        <v>1.6666666666666666E-3</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="144"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="143" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="57">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="R34" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="144"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="51">
+        <v>2E-3</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" s="57">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="R35" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="144"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="144"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="53">
+        <v>3.0555555555555557E-3</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="N75" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="O75" s="18"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L76" s="61">
+        <v>1</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="46"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O77" s="18"/>
+      <c r="P77" s="46"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L78" s="62">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M78" s="55"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="46"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L79" s="62">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M79" s="55"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="46"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="L80" s="55">
+        <v>0.30559999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K81" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="L81" s="55">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K87" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K88" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K89" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K90" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K91" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K92" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K93" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K96" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K97" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K98" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M98" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K99" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K100" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K101" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M101" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K102" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M102" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K103" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K104" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K105" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M105" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K106" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M106" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K107" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="M107" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K108" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M108" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K113" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K114" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
@@ -6373,2227 +8594,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA114"/>
-  <sheetViews>
-    <sheetView topLeftCell="K79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114:K123"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="55"/>
-    <col min="7" max="7" width="19.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9" style="18"/>
-    <col min="13" max="13" width="21.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9" style="55"/>
-    <col min="16" max="16" width="14.25" style="18" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9" style="46"/>
-    <col min="19" max="19" width="16.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.25" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="149"/>
-    </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="150" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="147" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="149"/>
-    </row>
-    <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-    </row>
-    <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="134" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="51">
-        <v>4.6666666666666671E-3</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="57">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="27">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-    </row>
-    <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="51">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="57">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="27">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="51">
-        <v>1.3333333333333333E-3</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="57">
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="27">
-        <v>9.375E-2</v>
-      </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="25">
-        <v>9.375E-2</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="132"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-    </row>
-    <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="51">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.21944444444444444</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="57">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="R14" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-    </row>
-    <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="51">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="57">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="27">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-    </row>
-    <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="132"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="51">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="57">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-    </row>
-    <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="132"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="133"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-    </row>
-    <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="51">
-        <v>3.7037037037037034E-3</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.22708333333333333</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="57">
-        <v>7.7777777777777776E-3</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="R19" s="27">
-        <v>0.31041666666666667</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="51">
-        <v>1.4814814814814814E-3</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="25">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="O20" s="57">
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R20" s="27">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="138"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="51">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0.10208333333333335</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="N21" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="57">
-        <v>7.407407407407407E-4</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="138"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-    </row>
-    <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="134" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="25">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" s="57">
-        <v>2E-3</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="R24" s="27">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="132"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="O25" s="57">
-        <v>1E-3</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-    </row>
-    <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="O26" s="58">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="132"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="51">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="25">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="O29" s="57">
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="R29" s="27">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="132"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="57">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="132"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="57">
-        <v>1.6666666666666666E-3</v>
-      </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="132"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="133"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="134" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="51">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" s="57">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q34" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="R34" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S34" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="T34" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="U34" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="132"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="51">
-        <v>2E-3</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="O35" s="57">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q35" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="R35" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="132"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="132"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-    </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-    </row>
-    <row r="39" spans="1:27" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-    </row>
-    <row r="40" spans="1:27" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="53">
-        <v>3.0555555555555557E-3</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="1:27" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="1:27" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-    </row>
-    <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="11:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K75" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="N75" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="O75" s="18"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="18"/>
-    </row>
-    <row r="76" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K76" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L76" s="61">
-        <v>1</v>
-      </c>
-      <c r="M76" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="46"/>
-      <c r="R76" s="18"/>
-    </row>
-    <row r="77" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K77" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L77" s="2">
-        <v>0</v>
-      </c>
-      <c r="M77" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="O77" s="18"/>
-      <c r="P77" s="46"/>
-      <c r="R77" s="18"/>
-    </row>
-    <row r="78" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K78" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L78" s="62">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="M78" s="55"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="46"/>
-      <c r="R78" s="18"/>
-    </row>
-    <row r="79" spans="11:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K79" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="L79" s="62">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M79" s="55"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="46"/>
-      <c r="R79" s="18"/>
-    </row>
-    <row r="80" spans="11:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="K80" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="L80" s="55">
-        <v>0.30559999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K81" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="L81" s="55">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="87" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K87" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="88" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K88" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="89" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K89" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="90" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K90" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K91" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="92" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K92" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L92" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="M92" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K93" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="M93" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K96" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="M96" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K97" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K98" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K99" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="100" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K100" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M100" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="101" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K101" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M101" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K102" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="M102" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K103" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="M103" s="18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K104" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M104" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="105" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K105" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="M105" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K106" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="M106" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K107" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="M107" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K108" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="M108" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K113" s="18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K114" s="18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AE45">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8603,7 +8603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -9042,46 +9042,46 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="161" t="s">
+      <c r="C40" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="163" t="s">
+      <c r="D40" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="165"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="168"/>
       <c r="K40" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L40" s="166" t="s">
+      <c r="L40" s="169" t="s">
         <v>407</v>
       </c>
-      <c r="M40" s="167"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="166" t="s">
+      <c r="M40" s="170"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="169" t="s">
         <v>469</v>
       </c>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="158" t="s">
+      <c r="P40" s="170"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="155" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="159"/>
-      <c r="T40" s="160"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="157"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="157"/>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
       <c r="D41" s="63" t="s">
         <v>402</v>
       </c>
@@ -9103,24 +9103,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="158">
+      <c r="L41" s="155">
         <v>65</v>
       </c>
-      <c r="M41" s="159"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="158">
+      <c r="M41" s="156"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="155">
         <v>65</v>
       </c>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="160"/>
-      <c r="R41" s="158">
+      <c r="P41" s="156"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="155">
         <v>45</v>
       </c>
-      <c r="S41" s="159"/>
-      <c r="T41" s="160"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="157"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -9150,26 +9150,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="158">
+      <c r="L42" s="155">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="159"/>
-      <c r="N42" s="160"/>
-      <c r="O42" s="158">
+      <c r="M42" s="156"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="155">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="160"/>
-      <c r="R42" s="158">
+      <c r="P42" s="156"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="155">
         <v>1</v>
       </c>
-      <c r="S42" s="159"/>
-      <c r="T42" s="160"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="157"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="156"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -9224,7 +9224,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="156"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="156"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9449,7 +9449,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="156"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9524,7 +9524,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="156"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="156"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9674,7 +9674,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="156"/>
+      <c r="A50" s="162"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="156"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="156"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="156"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="156"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="156"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="157"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="161" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9966,7 +9966,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="156"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="156"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="156"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="156"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -10122,7 +10122,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="156"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -10161,7 +10161,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="156"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="156"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -10228,7 +10228,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="156"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -10242,7 +10242,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="156"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -10256,24 +10256,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="158" t="s">
+      <c r="L66" s="155" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="159"/>
-      <c r="N66" s="160"/>
-      <c r="O66" s="158" t="s">
+      <c r="M66" s="156"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="155" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="158" t="s">
+      <c r="P66" s="156"/>
+      <c r="Q66" s="157"/>
+      <c r="R66" s="155" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="159"/>
-      <c r="T66" s="160"/>
+      <c r="S66" s="156"/>
+      <c r="T66" s="157"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="156"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10287,18 +10287,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="158"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="160"/>
-      <c r="O67" s="158"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="160"/>
-      <c r="R67" s="158"/>
-      <c r="S67" s="159"/>
-      <c r="T67" s="160"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="155"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="157"/>
+      <c r="R67" s="155"/>
+      <c r="S67" s="156"/>
+      <c r="T67" s="157"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="156"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10312,18 +10312,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="158"/>
-      <c r="M68" s="159"/>
-      <c r="N68" s="160"/>
-      <c r="O68" s="158"/>
-      <c r="P68" s="159"/>
-      <c r="Q68" s="160"/>
-      <c r="R68" s="158"/>
-      <c r="S68" s="159"/>
-      <c r="T68" s="160"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="157"/>
+      <c r="R68" s="155"/>
+      <c r="S68" s="156"/>
+      <c r="T68" s="157"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="156"/>
+      <c r="A69" s="162"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10364,7 +10364,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="156"/>
+      <c r="A70" s="162"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10389,7 +10389,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="157"/>
+      <c r="A71" s="163"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="152" t="s">
+      <c r="A72" s="158" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10455,7 +10455,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="153"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="153"/>
+      <c r="A74" s="159"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="153"/>
+      <c r="A75" s="159"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="153"/>
+      <c r="A76" s="159"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="153"/>
+      <c r="A77" s="159"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="153"/>
+      <c r="A78" s="159"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="153"/>
+      <c r="A79" s="159"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="153"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10753,7 +10753,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="153"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="153"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="153"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="153"/>
+      <c r="A84" s="159"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="153"/>
+      <c r="A85" s="159"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="154"/>
+      <c r="A86" s="160"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10903,7 +10903,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="152" t="s">
+      <c r="A87" s="158" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10944,7 +10944,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="153"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="153"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="153"/>
+      <c r="A90" s="159"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="153"/>
+      <c r="A91" s="159"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -11076,7 +11076,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="153"/>
+      <c r="A92" s="159"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -11103,7 +11103,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="153"/>
+      <c r="A93" s="159"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="153"/>
+      <c r="A94" s="159"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="153"/>
+      <c r="A95" s="159"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="153"/>
+      <c r="A96" s="159"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="153"/>
+      <c r="A97" s="159"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="153"/>
+      <c r="A98" s="159"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="153"/>
+      <c r="A99" s="159"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -11222,7 +11222,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="153"/>
+      <c r="A100" s="159"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="154"/>
+      <c r="A101" s="160"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="152" t="s">
+      <c r="A102" s="158" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -11263,7 +11263,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="153"/>
+      <c r="A103" s="159"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -11276,7 +11276,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="153"/>
+      <c r="A104" s="159"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="153"/>
+      <c r="A105" s="159"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="153"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="153"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="153"/>
+      <c r="A108" s="159"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11341,7 +11341,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="153"/>
+      <c r="A109" s="159"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11354,7 +11354,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="153"/>
+      <c r="A110" s="159"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="153"/>
+      <c r="A111" s="159"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="153"/>
+      <c r="A112" s="159"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11393,7 +11393,7 @@
       <c r="I112" s="66"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="153"/>
+      <c r="A113" s="159"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="153"/>
+      <c r="A114" s="159"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="I114" s="66"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="153"/>
+      <c r="A115" s="159"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="154"/>
+      <c r="A116" s="160"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11445,7 +11445,7 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="155" t="s">
+      <c r="A117" s="161" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11460,7 +11460,7 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="156"/>
+      <c r="A118" s="162"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="156"/>
+      <c r="A119" s="162"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11486,7 +11486,7 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="156"/>
+      <c r="A120" s="162"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="I120" s="66"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="156"/>
+      <c r="A121" s="162"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="156"/>
+      <c r="A122" s="162"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="I122" s="66"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="156"/>
+      <c r="A123" s="162"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11538,7 +11538,7 @@
       <c r="I123" s="66"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="156"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11551,7 +11551,7 @@
       <c r="I124" s="66"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="156"/>
+      <c r="A125" s="162"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="156"/>
+      <c r="A126" s="162"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="156"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="156"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="156"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="156"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11629,7 +11629,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="157"/>
+      <c r="A131" s="163"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11643,6 +11643,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11659,18 +11671,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11682,8 +11682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView topLeftCell="F247" workbookViewId="0">
-      <selection activeCell="P282" sqref="P282"/>
+    <sheetView tabSelected="1" topLeftCell="F283" workbookViewId="0">
+      <selection activeCell="V269" sqref="V269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11692,24 +11692,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="172" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="174" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="188"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="157"/>
-      <c r="B2" s="185"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
       </c>
@@ -11730,7 +11730,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11744,7 +11744,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11756,7 +11756,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11768,7 +11768,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11780,7 +11780,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11792,7 +11792,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11804,7 +11804,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11816,7 +11816,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="156"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11852,7 +11852,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11888,7 +11888,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="156"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11948,7 +11948,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="156"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="156"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="156"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="156"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -12044,7 +12044,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="156"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="156"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -12092,7 +12092,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="156"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="156"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="156"/>
+      <c r="A35" s="162"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -12128,7 +12128,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="156"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
+      <c r="A37" s="162"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="157"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -12164,7 +12164,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="161" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -12178,7 +12178,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="156"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="156"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="156"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -12226,7 +12226,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="156"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -12238,7 +12238,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="156"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -12250,7 +12250,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="156"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -12274,7 +12274,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="156"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -12286,7 +12286,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="156"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="156"/>
+      <c r="A50" s="162"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="156"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12322,7 +12322,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="156"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="156"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="156"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="156"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="156"/>
+      <c r="A56" s="162"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="156"/>
+      <c r="A57" s="162"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="156"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12406,7 +12406,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="156"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12418,7 +12418,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="156"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="156"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12442,7 +12442,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="156"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="156"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12466,7 +12466,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="156"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12478,7 +12478,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="156"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="156"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12502,7 +12502,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="156"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="156"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12526,7 +12526,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="156"/>
+      <c r="A69" s="162"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12538,7 +12538,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="156"/>
+      <c r="A70" s="162"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="156"/>
+      <c r="A71" s="162"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12562,7 +12562,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="156"/>
+      <c r="A72" s="162"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="156"/>
+      <c r="A73" s="162"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="157"/>
+      <c r="A74" s="163"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12598,7 +12598,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="161" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12612,7 +12612,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="156"/>
+      <c r="A76" s="162"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12624,7 +12624,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="156"/>
+      <c r="A77" s="162"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12636,7 +12636,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="156"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12648,7 +12648,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="156"/>
+      <c r="A79" s="162"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12660,7 +12660,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="156"/>
+      <c r="A80" s="162"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="156"/>
+      <c r="A81" s="162"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12684,7 +12684,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="156"/>
+      <c r="A82" s="162"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="156"/>
+      <c r="A83" s="162"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="156"/>
+      <c r="A84" s="162"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12720,7 +12720,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="156"/>
+      <c r="A85" s="162"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12732,7 +12732,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="156"/>
+      <c r="A86" s="162"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12744,7 +12744,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="156"/>
+      <c r="A87" s="162"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="156"/>
+      <c r="A88" s="162"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12768,7 +12768,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="156"/>
+      <c r="A89" s="162"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="156"/>
+      <c r="A90" s="162"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12792,7 +12792,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="156"/>
+      <c r="A91" s="162"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="156"/>
+      <c r="A92" s="162"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="156"/>
+      <c r="A93" s="162"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="156"/>
+      <c r="A94" s="162"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12840,7 +12840,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="156"/>
+      <c r="A95" s="162"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="156"/>
+      <c r="A96" s="162"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12864,7 +12864,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="156"/>
+      <c r="A97" s="162"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="156"/>
+      <c r="A98" s="162"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12888,7 +12888,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="156"/>
+      <c r="A99" s="162"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="156"/>
+      <c r="A100" s="162"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="156"/>
+      <c r="A101" s="162"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12924,7 +12924,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="156"/>
+      <c r="A102" s="162"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="156"/>
+      <c r="A103" s="162"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="156"/>
+      <c r="A104" s="162"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="156"/>
+      <c r="A105" s="162"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="156"/>
+      <c r="A106" s="162"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="156"/>
+      <c r="A107" s="162"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -12996,7 +12996,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="156"/>
+      <c r="A108" s="162"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -13008,7 +13008,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="156"/>
+      <c r="A109" s="162"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -13020,7 +13020,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="157"/>
+      <c r="A110" s="163"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -13032,7 +13032,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="155" t="s">
+      <c r="A111" s="161" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -13046,7 +13046,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="156"/>
+      <c r="A112" s="162"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="156"/>
+      <c r="A113" s="162"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -13070,7 +13070,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="156"/>
+      <c r="A114" s="162"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -13082,7 +13082,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="156"/>
+      <c r="A115" s="162"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="156"/>
+      <c r="A116" s="162"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -13106,7 +13106,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="156"/>
+      <c r="A117" s="162"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -13118,7 +13118,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="156"/>
+      <c r="A118" s="162"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -13130,7 +13130,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="156"/>
+      <c r="A119" s="162"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -13142,7 +13142,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="156"/>
+      <c r="A120" s="162"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="156"/>
+      <c r="A121" s="162"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -13166,7 +13166,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="156"/>
+      <c r="A122" s="162"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -13178,7 +13178,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="156"/>
+      <c r="A123" s="162"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="156"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="156"/>
+      <c r="A125" s="162"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="156"/>
+      <c r="A126" s="162"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -13226,7 +13226,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="156"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -13238,7 +13238,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="156"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="156"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="156"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -13274,7 +13274,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="156"/>
+      <c r="A131" s="162"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="156"/>
+      <c r="A132" s="162"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="156"/>
+      <c r="A133" s="162"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="156"/>
+      <c r="A134" s="162"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="156"/>
+      <c r="A135" s="162"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13334,7 +13334,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="156"/>
+      <c r="A136" s="162"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="156"/>
+      <c r="A137" s="162"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13358,7 +13358,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="156"/>
+      <c r="A138" s="162"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="156"/>
+      <c r="A139" s="162"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="156"/>
+      <c r="A140" s="162"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="156"/>
+      <c r="A141" s="162"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13406,7 +13406,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="156"/>
+      <c r="A142" s="162"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="156"/>
+      <c r="A143" s="162"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13430,7 +13430,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="156"/>
+      <c r="A144" s="162"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="156"/>
+      <c r="A145" s="162"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="157"/>
+      <c r="A146" s="163"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13467,24 +13467,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="155" t="s">
+      <c r="A152" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="B152" s="161" t="s">
+      <c r="B152" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="163" t="s">
+      <c r="C152" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="D152" s="164"/>
-      <c r="E152" s="164"/>
-      <c r="F152" s="164"/>
-      <c r="G152" s="164"/>
-      <c r="H152" s="165"/>
+      <c r="D152" s="167"/>
+      <c r="E152" s="167"/>
+      <c r="F152" s="167"/>
+      <c r="G152" s="167"/>
+      <c r="H152" s="168"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="157"/>
-      <c r="B153" s="162"/>
+      <c r="A153" s="163"/>
+      <c r="B153" s="165"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
       </c>
@@ -13505,7 +13505,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="155" t="s">
+      <c r="A154" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13519,7 +13519,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="156"/>
+      <c r="A155" s="162"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="156"/>
+      <c r="A156" s="162"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13543,7 +13543,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="156"/>
+      <c r="A157" s="162"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="156"/>
+      <c r="A158" s="162"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13567,7 +13567,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="156"/>
+      <c r="A159" s="162"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="156"/>
+      <c r="A160" s="162"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13591,7 +13591,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="156"/>
+      <c r="A161" s="162"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="156"/>
+      <c r="A162" s="162"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13615,7 +13615,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="156"/>
+      <c r="A163" s="162"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13627,7 +13627,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="156"/>
+      <c r="A164" s="162"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13639,7 +13639,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="156"/>
+      <c r="A165" s="162"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="156"/>
+      <c r="A166" s="162"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="156"/>
+      <c r="A167" s="162"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="157"/>
+      <c r="A168" s="163"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="155" t="s">
+      <c r="A169" s="161" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13701,7 +13701,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="156"/>
+      <c r="A170" s="162"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13713,7 +13713,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="156"/>
+      <c r="A171" s="162"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13725,7 +13725,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="156"/>
+      <c r="A172" s="162"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13737,7 +13737,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="156"/>
+      <c r="A173" s="162"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="156"/>
+      <c r="A174" s="162"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="156"/>
+      <c r="A175" s="162"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13773,7 +13773,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="156"/>
+      <c r="A176" s="162"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13785,7 +13785,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="156"/>
+      <c r="A177" s="162"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13797,7 +13797,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="156"/>
+      <c r="A178" s="162"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="156"/>
+      <c r="A179" s="162"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="156"/>
+      <c r="A180" s="162"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="156"/>
+      <c r="A181" s="162"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13845,7 +13845,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="156"/>
+      <c r="A182" s="162"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="157"/>
+      <c r="A183" s="163"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13869,7 +13869,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="155" t="s">
+      <c r="A184" s="161" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13883,7 +13883,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="156"/>
+      <c r="A185" s="162"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="156"/>
+      <c r="A186" s="162"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="156"/>
+      <c r="A187" s="162"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13919,7 +13919,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="156"/>
+      <c r="A188" s="162"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13931,7 +13931,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="156"/>
+      <c r="A189" s="162"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13943,7 +13943,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="156"/>
+      <c r="A190" s="162"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13955,7 +13955,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="156"/>
+      <c r="A191" s="162"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="156"/>
+      <c r="A192" s="162"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="156"/>
+      <c r="A193" s="162"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="156"/>
+      <c r="A194" s="162"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="156"/>
+      <c r="A195" s="162"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -14015,7 +14015,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="156"/>
+      <c r="A196" s="162"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -14027,7 +14027,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="156"/>
+      <c r="A197" s="162"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="157"/>
+      <c r="A198" s="163"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -14051,7 +14051,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="155" t="s">
+      <c r="A199" s="161" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -14065,7 +14065,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="156"/>
+      <c r="A200" s="162"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -14077,7 +14077,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="156"/>
+      <c r="A201" s="162"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -14089,7 +14089,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="156"/>
+      <c r="A202" s="162"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -14101,7 +14101,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="156"/>
+      <c r="A203" s="162"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="156"/>
+      <c r="A204" s="162"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="156"/>
+      <c r="A205" s="162"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -14137,7 +14137,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="156"/>
+      <c r="A206" s="162"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -14149,7 +14149,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="156"/>
+      <c r="A207" s="162"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -14161,7 +14161,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="156"/>
+      <c r="A208" s="162"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -14173,7 +14173,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="156"/>
+      <c r="A209" s="162"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="156"/>
+      <c r="A210" s="162"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="156"/>
+      <c r="A211" s="162"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="156"/>
+      <c r="A212" s="162"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="157"/>
+      <c r="A213" s="163"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -14291,23 +14291,23 @@
       <c r="G256" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="H256" s="169" t="s">
+      <c r="H256" s="177" t="s">
         <v>508</v>
       </c>
-      <c r="I256" s="169" t="s">
+      <c r="I256" s="177" t="s">
         <v>509</v>
       </c>
-      <c r="J256" s="181" t="s">
+      <c r="J256" s="180" t="s">
         <v>510</v>
       </c>
-      <c r="K256" s="182"/>
-      <c r="L256" s="182"/>
-      <c r="M256" s="182"/>
-      <c r="N256" s="182"/>
-      <c r="O256" s="182"/>
-      <c r="P256" s="182"/>
-      <c r="Q256" s="182"/>
-      <c r="R256" s="183"/>
+      <c r="K256" s="181"/>
+      <c r="L256" s="181"/>
+      <c r="M256" s="181"/>
+      <c r="N256" s="181"/>
+      <c r="O256" s="181"/>
+      <c r="P256" s="181"/>
+      <c r="Q256" s="181"/>
+      <c r="R256" s="182"/>
     </row>
     <row r="257" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C257" s="87">
@@ -14317,21 +14317,21 @@
       <c r="G257" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="H257" s="173"/>
-      <c r="I257" s="173"/>
+      <c r="H257" s="178"/>
+      <c r="I257" s="178"/>
       <c r="J257" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="K257" s="181" t="s">
+      <c r="K257" s="180" t="s">
         <v>513</v>
       </c>
-      <c r="L257" s="182"/>
-      <c r="M257" s="182"/>
-      <c r="N257" s="182"/>
-      <c r="O257" s="182"/>
-      <c r="P257" s="182"/>
-      <c r="Q257" s="182"/>
-      <c r="R257" s="183"/>
+      <c r="L257" s="181"/>
+      <c r="M257" s="181"/>
+      <c r="N257" s="181"/>
+      <c r="O257" s="181"/>
+      <c r="P257" s="181"/>
+      <c r="Q257" s="181"/>
+      <c r="R257" s="182"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258">
@@ -14345,8 +14345,8 @@
         <v>0.71835443037974678</v>
       </c>
       <c r="G258" s="90"/>
-      <c r="H258" s="173"/>
-      <c r="I258" s="173"/>
+      <c r="H258" s="178"/>
+      <c r="I258" s="178"/>
       <c r="J258" s="92" t="s">
         <v>512</v>
       </c>
@@ -14362,16 +14362,16 @@
       <c r="N258" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="O258" s="169" t="s">
+      <c r="O258" s="177" t="s">
         <v>519</v>
       </c>
-      <c r="P258" s="171" t="s">
+      <c r="P258" s="183" t="s">
         <v>520</v>
       </c>
       <c r="Q258" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="R258" s="171" t="s">
+      <c r="R258" s="183" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14387,8 +14387,8 @@
         <v>0.40242611761702957</v>
       </c>
       <c r="G259" s="91"/>
-      <c r="H259" s="170"/>
-      <c r="I259" s="170"/>
+      <c r="H259" s="179"/>
+      <c r="I259" s="179"/>
       <c r="J259" s="93"/>
       <c r="K259" s="94" t="s">
         <v>515</v>
@@ -14402,21 +14402,21 @@
       <c r="N259" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="O259" s="170"/>
-      <c r="P259" s="172"/>
+      <c r="O259" s="179"/>
+      <c r="P259" s="184"/>
       <c r="Q259" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="R259" s="172"/>
+      <c r="R259" s="184"/>
     </row>
     <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="169" t="s">
+      <c r="G260" s="177" t="s">
         <v>472</v>
       </c>
-      <c r="H260" s="171" t="s">
+      <c r="H260" s="183" t="s">
         <v>523</v>
       </c>
-      <c r="I260" s="169"/>
+      <c r="I260" s="177"/>
       <c r="J260" s="97" t="s">
         <v>408</v>
       </c>
@@ -14430,9 +14430,9 @@
       <c r="R260" s="97"/>
     </row>
     <row r="261" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G261" s="173"/>
-      <c r="H261" s="174"/>
-      <c r="I261" s="173"/>
+      <c r="G261" s="178"/>
+      <c r="H261" s="185"/>
+      <c r="I261" s="178"/>
       <c r="J261" s="97" t="s">
         <v>409</v>
       </c>
@@ -14446,9 +14446,9 @@
       <c r="R261" s="97"/>
     </row>
     <row r="262" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G262" s="170"/>
-      <c r="H262" s="172"/>
-      <c r="I262" s="170"/>
+      <c r="G262" s="179"/>
+      <c r="H262" s="184"/>
+      <c r="I262" s="179"/>
       <c r="J262" s="97" t="s">
         <v>414</v>
       </c>
@@ -14462,13 +14462,13 @@
       <c r="R262" s="97"/>
     </row>
     <row r="263" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G263" s="169" t="s">
+      <c r="G263" s="177" t="s">
         <v>524</v>
       </c>
-      <c r="H263" s="171" t="s">
+      <c r="H263" s="183" t="s">
         <v>525</v>
       </c>
-      <c r="I263" s="175">
+      <c r="I263" s="186">
         <v>0.89</v>
       </c>
       <c r="J263" s="97" t="s">
@@ -14484,9 +14484,9 @@
       <c r="R263" s="97"/>
     </row>
     <row r="264" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G264" s="173"/>
-      <c r="H264" s="174"/>
-      <c r="I264" s="176"/>
+      <c r="G264" s="178"/>
+      <c r="H264" s="185"/>
+      <c r="I264" s="187"/>
       <c r="J264" s="97" t="s">
         <v>409</v>
       </c>
@@ -14500,9 +14500,9 @@
       <c r="R264" s="97"/>
     </row>
     <row r="265" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G265" s="170"/>
-      <c r="H265" s="172"/>
-      <c r="I265" s="177"/>
+      <c r="G265" s="179"/>
+      <c r="H265" s="184"/>
+      <c r="I265" s="188"/>
       <c r="J265" s="97" t="s">
         <v>414</v>
       </c>
@@ -14516,13 +14516,13 @@
       <c r="R265" s="97"/>
     </row>
     <row r="266" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G266" s="169" t="s">
+      <c r="G266" s="177" t="s">
         <v>471</v>
       </c>
-      <c r="H266" s="171" t="s">
+      <c r="H266" s="183" t="s">
         <v>526</v>
       </c>
-      <c r="I266" s="175">
+      <c r="I266" s="186">
         <v>0.9</v>
       </c>
       <c r="J266" s="97" t="s">
@@ -14555,9 +14555,9 @@
       </c>
     </row>
     <row r="267" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G267" s="173"/>
-      <c r="H267" s="174"/>
-      <c r="I267" s="176"/>
+      <c r="G267" s="178"/>
+      <c r="H267" s="185"/>
+      <c r="I267" s="187"/>
       <c r="J267" s="97" t="s">
         <v>409</v>
       </c>
@@ -14588,9 +14588,9 @@
       </c>
     </row>
     <row r="268" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G268" s="170"/>
-      <c r="H268" s="172"/>
-      <c r="I268" s="177"/>
+      <c r="G268" s="179"/>
+      <c r="H268" s="184"/>
+      <c r="I268" s="188"/>
       <c r="J268" s="97" t="s">
         <v>414</v>
       </c>
@@ -14621,13 +14621,13 @@
       </c>
     </row>
     <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G269" s="178" t="s">
+      <c r="G269" s="189" t="s">
         <v>470</v>
       </c>
-      <c r="H269" s="171" t="s">
+      <c r="H269" s="183" t="s">
         <v>526</v>
       </c>
-      <c r="I269" s="175">
+      <c r="I269" s="186">
         <v>0.72</v>
       </c>
       <c r="J269" s="97" t="s">
@@ -14660,9 +14660,9 @@
       </c>
     </row>
     <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G270" s="179"/>
-      <c r="H270" s="174"/>
-      <c r="I270" s="176"/>
+      <c r="G270" s="190"/>
+      <c r="H270" s="185"/>
+      <c r="I270" s="187"/>
       <c r="J270" s="97" t="s">
         <v>409</v>
       </c>
@@ -14693,9 +14693,9 @@
       </c>
     </row>
     <row r="271" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G271" s="180"/>
-      <c r="H271" s="172"/>
-      <c r="I271" s="177"/>
+      <c r="G271" s="191"/>
+      <c r="H271" s="184"/>
+      <c r="I271" s="188"/>
       <c r="J271" s="97" t="s">
         <v>414</v>
       </c>
@@ -14739,10 +14739,10 @@
       <c r="J274" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="K274" s="169" t="s">
+      <c r="K274" s="177" t="s">
         <v>519</v>
       </c>
-      <c r="L274" s="171" t="s">
+      <c r="L274" s="183" t="s">
         <v>520</v>
       </c>
       <c r="M274" s="95" t="s">
@@ -14762,8 +14762,8 @@
       <c r="J275" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="K275" s="170"/>
-      <c r="L275" s="172"/>
+      <c r="K275" s="179"/>
+      <c r="L275" s="184"/>
       <c r="M275" s="96" t="s">
         <v>515</v>
       </c>
@@ -15045,6 +15045,32 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="I269:I271"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:R256"/>
+    <mergeCell ref="K257:R257"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="R258:R259"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -15054,32 +15080,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="H256:H259"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="J256:R256"/>
-    <mergeCell ref="K257:R257"/>
-    <mergeCell ref="O258:O259"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="R258:R259"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="I260:I262"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="I266:I268"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="I269:I271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15091,39 +15091,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="6.25" style="191" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="103" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="191" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="191" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="103" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="103" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="191" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="135" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="147" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="138" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
@@ -15150,294 +15150,294 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="143" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="C3" s="189">
+      <c r="C3" s="101">
         <v>0.46666666666666667</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="189">
+      <c r="E3" s="101">
         <v>0.2</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="190">
+      <c r="G3" s="102">
         <v>0.66666666666666663</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="190">
+      <c r="I3" s="102">
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="189">
+      <c r="C4" s="101">
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="189">
+      <c r="E4" s="101">
         <v>0.13333333333333333</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="190">
+      <c r="G4" s="102">
         <v>0.26666666666666666</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="190">
+      <c r="I4" s="102">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="189">
+      <c r="C5" s="101">
         <v>0.13333333333333333</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="189">
+      <c r="E5" s="101">
         <v>0.13333333333333333</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="190">
+      <c r="G5" s="102">
         <v>0.26666666666666666</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="190">
+      <c r="I5" s="102">
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="143" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="101">
         <v>0.75</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="189">
+      <c r="E6" s="101">
         <v>0.3125</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="190">
+      <c r="G6" s="102">
         <v>0.5625</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="190">
+      <c r="I6" s="102">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="189">
+      <c r="C7" s="101">
         <v>0.3125</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="189">
+      <c r="E7" s="101">
         <v>0.25</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="190">
+      <c r="G7" s="102">
         <v>0.3125</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="190">
+      <c r="I7" s="102">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="189">
+      <c r="C8" s="101">
         <v>0.25</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="189">
+      <c r="E8" s="101">
         <v>0.25</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="190">
+      <c r="G8" s="102">
         <v>0.3125</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="190">
+      <c r="I8" s="102">
         <v>0.1875</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="189">
+      <c r="C9" s="101">
         <v>0.37037037037037035</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="189">
+      <c r="E9" s="101">
         <v>0.18518518518518517</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="190">
+      <c r="G9" s="102">
         <v>0.77777777777777779</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="190">
+      <c r="I9" s="102">
         <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="189">
+      <c r="C10" s="101">
         <v>0.14814814814814814</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="189">
+      <c r="E10" s="101">
         <v>0.1111111111111111</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="102">
         <v>0.1111111111111111</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="190">
+      <c r="I10" s="102">
         <v>0.1111111111111111</v>
       </c>
       <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="189">
+      <c r="C11" s="101">
         <v>7.407407407407407E-2</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="189">
+      <c r="E11" s="101">
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="190">
+      <c r="G11" s="102">
         <v>7.407407407407407E-2</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="190"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="143" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="101">
         <v>0.7</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="189">
+      <c r="E12" s="101">
         <v>0.1</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="190">
+      <c r="G12" s="102">
         <v>0.2</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="190">
+      <c r="I12" s="102">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="189"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="189"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="190">
+      <c r="G13" s="102">
         <v>0.1</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="190"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="86" t="s">
@@ -15446,37 +15446,37 @@
       <c r="B14" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="189">
+      <c r="C14" s="101">
         <v>0.83333333333333337</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="189">
+      <c r="E14" s="101">
         <v>0.16666666666666666</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="190">
+      <c r="G14" s="102">
         <v>0.66666666666666663</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="190">
+      <c r="I14" s="102">
         <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
@@ -2755,6 +2755,54 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2771,52 +2819,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2833,17 +2845,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2872,41 +2908,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2917,24 +2935,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2959,6 +2959,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2972,51 +3017,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3746,53 +3746,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="122"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="112"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3884,11 +3884,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="110"/>
+      <c r="H7" s="110" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3909,9 +3909,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="104" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="110"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4012,10 +4012,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="121"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -4036,10 +4036,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -4057,10 +4057,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="121"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -4078,10 +4078,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="122" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4120,7 +4120,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4142,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -4155,6 +4155,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -4168,11 +4173,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4203,31 +4203,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="125" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="129" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="126"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4242,7 +4242,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4289,13 +4289,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="131" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="130" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="125" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4304,24 +4304,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="128"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="131"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="129"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4335,8 +4335,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4363,8 +4363,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
-      <c r="B13" s="132" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="127" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4378,8 +4378,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4391,10 +4391,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4404,10 +4404,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4430,6 +4430,12 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4437,12 +4443,6 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4483,83 +4483,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="140"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="152"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="138" t="s">
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="138" t="s">
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="152"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4622,13 +4622,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="143" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4681,9 +4681,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="150"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4734,9 +4734,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="150"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4787,9 +4787,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4822,9 +4822,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4851,13 +4851,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="137" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4898,9 +4898,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4927,9 +4927,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4956,9 +4956,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4985,9 +4985,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5014,13 +5014,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="137" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -5079,9 +5079,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -5132,9 +5132,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -5185,9 +5185,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -5232,9 +5232,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5261,13 +5261,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5332,9 +5332,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5397,9 +5397,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5444,9 +5444,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="153"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5479,9 +5479,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5508,13 +5508,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5567,9 +5567,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5602,9 +5602,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5637,9 +5637,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5666,9 +5666,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5695,13 +5695,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5754,9 +5754,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5789,9 +5789,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5824,9 +5824,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5853,9 +5853,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5882,13 +5882,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="137" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5953,9 +5953,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -6006,9 +6006,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -6039,9 +6039,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -6072,9 +6072,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6336,6 +6336,26 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -6345,26 +6365,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6428,83 +6428,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="140"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="152"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="138" t="s">
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="138" t="s">
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="152"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -6567,13 +6567,13 @@
       <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="143" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -6626,9 +6626,9 @@
       <c r="AA4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="150"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="24" t="s">
         <v>257</v>
       </c>
@@ -6679,9 +6679,9 @@
       <c r="AA5" s="49"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="150"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="24" t="s">
         <v>258</v>
       </c>
@@ -6732,9 +6732,9 @@
       <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="51"/>
@@ -6767,9 +6767,9 @@
       <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
@@ -6796,13 +6796,13 @@
       <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="137" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -6843,9 +6843,9 @@
       <c r="AA9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="51"/>
@@ -6872,9 +6872,9 @@
       <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="51"/>
@@ -6901,9 +6901,9 @@
       <c r="AA11" s="49"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="51"/>
@@ -6930,9 +6930,9 @@
       <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="51"/>
@@ -6959,13 +6959,13 @@
       <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="137" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -7024,9 +7024,9 @@
       <c r="AA14" s="49"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="24" t="s">
         <v>261</v>
       </c>
@@ -7077,9 +7077,9 @@
       <c r="AA15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="24" t="s">
         <v>262</v>
       </c>
@@ -7130,9 +7130,9 @@
       <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="24" t="s">
         <v>263</v>
       </c>
@@ -7177,9 +7177,9 @@
       <c r="AA17" s="49"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="51"/>
@@ -7206,13 +7206,13 @@
       <c r="AA18" s="49"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -7277,9 +7277,9 @@
       <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="24" t="s">
         <v>265</v>
       </c>
@@ -7342,9 +7342,9 @@
       <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="24" t="s">
         <v>266</v>
       </c>
@@ -7389,9 +7389,9 @@
       <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="153"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="24" t="s">
         <v>263</v>
       </c>
@@ -7424,9 +7424,9 @@
       <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="51"/>
@@ -7453,13 +7453,13 @@
       <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -7512,9 +7512,9 @@
       <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="51"/>
@@ -7547,9 +7547,9 @@
       <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="51"/>
@@ -7582,9 +7582,9 @@
       <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="51"/>
@@ -7611,9 +7611,9 @@
       <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="51"/>
@@ -7640,13 +7640,13 @@
       <c r="AA28" s="49"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -7699,9 +7699,9 @@
       <c r="AA29" s="49"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="51"/>
@@ -7734,9 +7734,9 @@
       <c r="AA30" s="49"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="51"/>
@@ -7769,9 +7769,9 @@
       <c r="AA31" s="49"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="51"/>
@@ -7798,9 +7798,9 @@
       <c r="AA32" s="49"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="51"/>
@@ -7827,13 +7827,13 @@
       <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="137" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -7898,9 +7898,9 @@
       <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="24" t="s">
         <v>270</v>
       </c>
@@ -7951,9 +7951,9 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="24" t="s">
         <v>271</v>
       </c>
@@ -7984,9 +7984,9 @@
       <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="24" t="s">
         <v>272</v>
       </c>
@@ -8017,9 +8017,9 @@
       <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="51"/>
@@ -8557,26 +8557,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -8586,6 +8566,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8603,7 +8603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView topLeftCell="D82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="158" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="164" t="s">
@@ -9072,14 +9072,14 @@
       </c>
       <c r="P40" s="170"/>
       <c r="Q40" s="171"/>
-      <c r="R40" s="155" t="s">
+      <c r="R40" s="161" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="156"/>
-      <c r="T40" s="157"/>
+      <c r="S40" s="162"/>
+      <c r="T40" s="163"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="163"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="165"/>
       <c r="C41" s="165"/>
       <c r="D41" s="63" t="s">
@@ -9103,24 +9103,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="155">
+      <c r="L41" s="161">
         <v>65</v>
       </c>
-      <c r="M41" s="156"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="155">
+      <c r="M41" s="162"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="161">
         <v>65</v>
       </c>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="157"/>
-      <c r="R41" s="155">
+      <c r="P41" s="162"/>
+      <c r="Q41" s="163"/>
+      <c r="R41" s="161">
         <v>45</v>
       </c>
-      <c r="S41" s="156"/>
-      <c r="T41" s="157"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="163"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -9150,26 +9150,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="155">
+      <c r="L42" s="161">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="156"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="155">
+      <c r="M42" s="162"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="161">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="157"/>
-      <c r="R42" s="155">
+      <c r="P42" s="162"/>
+      <c r="Q42" s="163"/>
+      <c r="R42" s="161">
         <v>1</v>
       </c>
-      <c r="S42" s="156"/>
-      <c r="T42" s="157"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="163"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="162"/>
+      <c r="A43" s="159"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -9224,7 +9224,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="162"/>
+      <c r="A44" s="159"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9449,7 +9449,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="162"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9524,7 +9524,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="162"/>
+      <c r="A48" s="159"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9674,7 +9674,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="162"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="162"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="162"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="163"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="161" t="s">
+      <c r="A57" s="158" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9966,7 +9966,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="162"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="162"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="162"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="162"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -10122,7 +10122,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="162"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -10161,7 +10161,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="162"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="162"/>
+      <c r="A64" s="159"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -10228,7 +10228,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="162"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -10242,7 +10242,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="162"/>
+      <c r="A66" s="159"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -10256,24 +10256,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="155" t="s">
+      <c r="L66" s="161" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="156"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="155" t="s">
+      <c r="M66" s="162"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="161" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="157"/>
-      <c r="R66" s="155" t="s">
+      <c r="P66" s="162"/>
+      <c r="Q66" s="163"/>
+      <c r="R66" s="161" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="156"/>
-      <c r="T66" s="157"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="163"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="162"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10287,18 +10287,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="155"/>
-      <c r="M67" s="156"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="156"/>
-      <c r="Q67" s="157"/>
-      <c r="R67" s="155"/>
-      <c r="S67" s="156"/>
-      <c r="T67" s="157"/>
+      <c r="L67" s="161"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="161"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="163"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="162"/>
+      <c r="A68" s="159"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10312,18 +10312,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="155"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="157"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="156"/>
-      <c r="Q68" s="157"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="156"/>
-      <c r="T68" s="157"/>
+      <c r="L68" s="161"/>
+      <c r="M68" s="162"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="163"/>
+      <c r="R68" s="161"/>
+      <c r="S68" s="162"/>
+      <c r="T68" s="163"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="162"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10364,7 +10364,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="162"/>
+      <c r="A70" s="159"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10389,7 +10389,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="163"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="158" t="s">
+      <c r="A72" s="155" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10455,7 +10455,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="159"/>
+      <c r="A73" s="156"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="159"/>
+      <c r="A74" s="156"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="159"/>
+      <c r="A75" s="156"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="159"/>
+      <c r="A76" s="156"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="159"/>
+      <c r="A77" s="156"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="159"/>
+      <c r="A78" s="156"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="159"/>
+      <c r="A79" s="156"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="159"/>
+      <c r="A80" s="156"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10753,7 +10753,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="159"/>
+      <c r="A81" s="156"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="159"/>
+      <c r="A82" s="156"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="159"/>
+      <c r="A83" s="156"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="159"/>
+      <c r="A84" s="156"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="159"/>
+      <c r="A85" s="156"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="160"/>
+      <c r="A86" s="157"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10903,7 +10903,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="158" t="s">
+      <c r="A87" s="155" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10944,7 +10944,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="159"/>
+      <c r="A88" s="156"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="159"/>
+      <c r="A89" s="156"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="159"/>
+      <c r="A90" s="156"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="159"/>
+      <c r="A91" s="156"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -11076,7 +11076,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="159"/>
+      <c r="A92" s="156"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -11103,7 +11103,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="159"/>
+      <c r="A93" s="156"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="159"/>
+      <c r="A94" s="156"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="159"/>
+      <c r="A95" s="156"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="159"/>
+      <c r="A96" s="156"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="159"/>
+      <c r="A97" s="156"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="159"/>
+      <c r="A98" s="156"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="159"/>
+      <c r="A99" s="156"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -11222,7 +11222,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="159"/>
+      <c r="A100" s="156"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="160"/>
+      <c r="A101" s="157"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="158" t="s">
+      <c r="A102" s="155" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -11263,7 +11263,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="159"/>
+      <c r="A103" s="156"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -11276,7 +11276,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="159"/>
+      <c r="A104" s="156"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="159"/>
+      <c r="A105" s="156"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="159"/>
+      <c r="A106" s="156"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="159"/>
+      <c r="A107" s="156"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="159"/>
+      <c r="A108" s="156"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11341,7 +11341,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="159"/>
+      <c r="A109" s="156"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11354,7 +11354,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="159"/>
+      <c r="A110" s="156"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="159"/>
+      <c r="A111" s="156"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="159"/>
+      <c r="A112" s="156"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11393,7 +11393,7 @@
       <c r="I112" s="66"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="159"/>
+      <c r="A113" s="156"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="159"/>
+      <c r="A114" s="156"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="I114" s="66"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="159"/>
+      <c r="A115" s="156"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="160"/>
+      <c r="A116" s="157"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11445,7 +11445,7 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="161" t="s">
+      <c r="A117" s="158" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11460,7 +11460,7 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="162"/>
+      <c r="A118" s="159"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="162"/>
+      <c r="A119" s="159"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11486,7 +11486,7 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="162"/>
+      <c r="A120" s="159"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="I120" s="66"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="162"/>
+      <c r="A121" s="159"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="162"/>
+      <c r="A122" s="159"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="I122" s="66"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="162"/>
+      <c r="A123" s="159"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11538,7 +11538,7 @@
       <c r="I123" s="66"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="162"/>
+      <c r="A124" s="159"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11551,7 +11551,7 @@
       <c r="I124" s="66"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="162"/>
+      <c r="A125" s="159"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="162"/>
+      <c r="A126" s="159"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="162"/>
+      <c r="A127" s="159"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="162"/>
+      <c r="A128" s="159"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="162"/>
+      <c r="A129" s="159"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="162"/>
+      <c r="A130" s="159"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11629,7 +11629,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="163"/>
+      <c r="A131" s="160"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11643,18 +11643,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11671,6 +11659,18 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11682,8 +11682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F283" workbookViewId="0">
-      <selection activeCell="V269" sqref="V269"/>
+    <sheetView tabSelected="1" topLeftCell="F265" workbookViewId="0">
+      <selection activeCell="L279" sqref="L279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11692,24 +11692,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="187" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="189" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="188"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
       </c>
@@ -11730,7 +11730,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11744,7 +11744,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11756,7 +11756,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11768,7 +11768,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11780,7 +11780,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11792,7 +11792,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11804,7 +11804,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11816,7 +11816,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="162"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11852,7 +11852,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11888,7 +11888,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="162"/>
+      <c r="A16" s="159"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="162"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="162"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11948,7 +11948,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="162"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="162"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="162"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="162"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="162"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="162"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="162"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="162"/>
+      <c r="A28" s="159"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -12044,7 +12044,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="162"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="162"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="162"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="162"/>
+      <c r="A32" s="159"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -12092,7 +12092,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="162"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="162"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -12128,7 +12128,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="162"/>
+      <c r="A36" s="159"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="162"/>
+      <c r="A37" s="159"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="163"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -12164,7 +12164,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="158" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -12178,7 +12178,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="162"/>
+      <c r="A40" s="159"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="162"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="162"/>
+      <c r="A42" s="159"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="162"/>
+      <c r="A43" s="159"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -12226,7 +12226,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="162"/>
+      <c r="A44" s="159"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -12238,7 +12238,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -12250,7 +12250,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="162"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -12274,7 +12274,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="162"/>
+      <c r="A48" s="159"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -12286,7 +12286,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12322,7 +12322,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="162"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="162"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="162"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="162"/>
+      <c r="A56" s="159"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="162"/>
+      <c r="A57" s="159"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="162"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12406,7 +12406,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="162"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12418,7 +12418,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="162"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="162"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12442,7 +12442,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="162"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="162"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12466,7 +12466,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="162"/>
+      <c r="A64" s="159"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12478,7 +12478,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="162"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="162"/>
+      <c r="A66" s="159"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12502,7 +12502,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="162"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="162"/>
+      <c r="A68" s="159"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12526,7 +12526,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="162"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12538,7 +12538,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="162"/>
+      <c r="A70" s="159"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="162"/>
+      <c r="A71" s="159"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12562,7 +12562,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="162"/>
+      <c r="A72" s="159"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="162"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="163"/>
+      <c r="A74" s="160"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12598,7 +12598,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="161" t="s">
+      <c r="A75" s="158" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12612,7 +12612,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="162"/>
+      <c r="A76" s="159"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12624,7 +12624,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="162"/>
+      <c r="A77" s="159"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12636,7 +12636,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="162"/>
+      <c r="A78" s="159"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12648,7 +12648,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="162"/>
+      <c r="A79" s="159"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12660,7 +12660,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="162"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="162"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12684,7 +12684,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="162"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="162"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="162"/>
+      <c r="A84" s="159"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12720,7 +12720,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="162"/>
+      <c r="A85" s="159"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12732,7 +12732,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="162"/>
+      <c r="A86" s="159"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12744,7 +12744,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="162"/>
+      <c r="A87" s="159"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="162"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12768,7 +12768,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="162"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="162"/>
+      <c r="A90" s="159"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12792,7 +12792,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="162"/>
+      <c r="A91" s="159"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="162"/>
+      <c r="A92" s="159"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="162"/>
+      <c r="A93" s="159"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="162"/>
+      <c r="A94" s="159"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12840,7 +12840,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="162"/>
+      <c r="A95" s="159"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="162"/>
+      <c r="A96" s="159"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12864,7 +12864,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="162"/>
+      <c r="A97" s="159"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="162"/>
+      <c r="A98" s="159"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12888,7 +12888,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="162"/>
+      <c r="A99" s="159"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="162"/>
+      <c r="A100" s="159"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="162"/>
+      <c r="A101" s="159"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12924,7 +12924,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="162"/>
+      <c r="A102" s="159"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="162"/>
+      <c r="A103" s="159"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="162"/>
+      <c r="A104" s="159"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="162"/>
+      <c r="A105" s="159"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="162"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="162"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -12996,7 +12996,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="162"/>
+      <c r="A108" s="159"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -13008,7 +13008,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="162"/>
+      <c r="A109" s="159"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -13020,7 +13020,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="163"/>
+      <c r="A110" s="160"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -13032,7 +13032,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="161" t="s">
+      <c r="A111" s="158" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -13046,7 +13046,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="162"/>
+      <c r="A112" s="159"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="162"/>
+      <c r="A113" s="159"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -13070,7 +13070,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="162"/>
+      <c r="A114" s="159"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -13082,7 +13082,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="162"/>
+      <c r="A115" s="159"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="162"/>
+      <c r="A116" s="159"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -13106,7 +13106,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="162"/>
+      <c r="A117" s="159"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -13118,7 +13118,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="162"/>
+      <c r="A118" s="159"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -13130,7 +13130,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="162"/>
+      <c r="A119" s="159"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -13142,7 +13142,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="162"/>
+      <c r="A120" s="159"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="162"/>
+      <c r="A121" s="159"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -13166,7 +13166,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="162"/>
+      <c r="A122" s="159"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -13178,7 +13178,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="162"/>
+      <c r="A123" s="159"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="162"/>
+      <c r="A124" s="159"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="162"/>
+      <c r="A125" s="159"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="162"/>
+      <c r="A126" s="159"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -13226,7 +13226,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="162"/>
+      <c r="A127" s="159"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -13238,7 +13238,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="162"/>
+      <c r="A128" s="159"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="162"/>
+      <c r="A129" s="159"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="162"/>
+      <c r="A130" s="159"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -13274,7 +13274,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="162"/>
+      <c r="A131" s="159"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="162"/>
+      <c r="A132" s="159"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="162"/>
+      <c r="A133" s="159"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="162"/>
+      <c r="A134" s="159"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="162"/>
+      <c r="A135" s="159"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13334,7 +13334,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="162"/>
+      <c r="A136" s="159"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="162"/>
+      <c r="A137" s="159"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13358,7 +13358,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="162"/>
+      <c r="A138" s="159"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="162"/>
+      <c r="A139" s="159"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="162"/>
+      <c r="A140" s="159"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="162"/>
+      <c r="A141" s="159"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13406,7 +13406,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="162"/>
+      <c r="A142" s="159"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="162"/>
+      <c r="A143" s="159"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13430,7 +13430,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="162"/>
+      <c r="A144" s="159"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="162"/>
+      <c r="A145" s="159"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="163"/>
+      <c r="A146" s="160"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="161" t="s">
+      <c r="A152" s="158" t="s">
         <v>400</v>
       </c>
       <c r="B152" s="164" t="s">
@@ -13483,7 +13483,7 @@
       <c r="H152" s="168"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="163"/>
+      <c r="A153" s="160"/>
       <c r="B153" s="165"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
@@ -13505,7 +13505,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="161" t="s">
+      <c r="A154" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13519,7 +13519,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="162"/>
+      <c r="A155" s="159"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="162"/>
+      <c r="A156" s="159"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13543,7 +13543,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="162"/>
+      <c r="A157" s="159"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="162"/>
+      <c r="A158" s="159"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13567,7 +13567,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="162"/>
+      <c r="A159" s="159"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="162"/>
+      <c r="A160" s="159"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13591,7 +13591,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="162"/>
+      <c r="A161" s="159"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="162"/>
+      <c r="A162" s="159"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13615,7 +13615,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="162"/>
+      <c r="A163" s="159"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13627,7 +13627,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="162"/>
+      <c r="A164" s="159"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13639,7 +13639,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="162"/>
+      <c r="A165" s="159"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="162"/>
+      <c r="A166" s="159"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="162"/>
+      <c r="A167" s="159"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="163"/>
+      <c r="A168" s="160"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="161" t="s">
+      <c r="A169" s="158" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13701,7 +13701,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="162"/>
+      <c r="A170" s="159"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13713,7 +13713,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="162"/>
+      <c r="A171" s="159"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13725,7 +13725,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="162"/>
+      <c r="A172" s="159"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13737,7 +13737,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="162"/>
+      <c r="A173" s="159"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="162"/>
+      <c r="A174" s="159"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="162"/>
+      <c r="A175" s="159"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13773,7 +13773,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="162"/>
+      <c r="A176" s="159"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13785,7 +13785,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="162"/>
+      <c r="A177" s="159"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13797,7 +13797,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="162"/>
+      <c r="A178" s="159"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="162"/>
+      <c r="A179" s="159"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="162"/>
+      <c r="A180" s="159"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="162"/>
+      <c r="A181" s="159"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13845,7 +13845,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="162"/>
+      <c r="A182" s="159"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="163"/>
+      <c r="A183" s="160"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13869,7 +13869,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="161" t="s">
+      <c r="A184" s="158" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13883,7 +13883,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="162"/>
+      <c r="A185" s="159"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="162"/>
+      <c r="A186" s="159"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="162"/>
+      <c r="A187" s="159"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13919,7 +13919,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="162"/>
+      <c r="A188" s="159"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13931,7 +13931,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="162"/>
+      <c r="A189" s="159"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13943,7 +13943,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="162"/>
+      <c r="A190" s="159"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13955,7 +13955,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="162"/>
+      <c r="A191" s="159"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="162"/>
+      <c r="A192" s="159"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="162"/>
+      <c r="A193" s="159"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="162"/>
+      <c r="A194" s="159"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="162"/>
+      <c r="A195" s="159"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -14015,7 +14015,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="162"/>
+      <c r="A196" s="159"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -14027,7 +14027,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="162"/>
+      <c r="A197" s="159"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="163"/>
+      <c r="A198" s="160"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -14051,7 +14051,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="161" t="s">
+      <c r="A199" s="158" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -14065,7 +14065,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="162"/>
+      <c r="A200" s="159"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -14077,7 +14077,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="162"/>
+      <c r="A201" s="159"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -14089,7 +14089,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="162"/>
+      <c r="A202" s="159"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -14101,7 +14101,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="162"/>
+      <c r="A203" s="159"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="162"/>
+      <c r="A204" s="159"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="162"/>
+      <c r="A205" s="159"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -14137,7 +14137,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="162"/>
+      <c r="A206" s="159"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -14149,7 +14149,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="162"/>
+      <c r="A207" s="159"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -14161,7 +14161,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="162"/>
+      <c r="A208" s="159"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -14173,7 +14173,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="162"/>
+      <c r="A209" s="159"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="162"/>
+      <c r="A210" s="159"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="162"/>
+      <c r="A211" s="159"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="162"/>
+      <c r="A212" s="159"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="163"/>
+      <c r="A213" s="160"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -14291,23 +14291,23 @@
       <c r="G256" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="H256" s="177" t="s">
+      <c r="H256" s="172" t="s">
         <v>508</v>
       </c>
-      <c r="I256" s="177" t="s">
+      <c r="I256" s="172" t="s">
         <v>509</v>
       </c>
-      <c r="J256" s="180" t="s">
+      <c r="J256" s="184" t="s">
         <v>510</v>
       </c>
-      <c r="K256" s="181"/>
-      <c r="L256" s="181"/>
-      <c r="M256" s="181"/>
-      <c r="N256" s="181"/>
-      <c r="O256" s="181"/>
-      <c r="P256" s="181"/>
-      <c r="Q256" s="181"/>
-      <c r="R256" s="182"/>
+      <c r="K256" s="185"/>
+      <c r="L256" s="185"/>
+      <c r="M256" s="185"/>
+      <c r="N256" s="185"/>
+      <c r="O256" s="185"/>
+      <c r="P256" s="185"/>
+      <c r="Q256" s="185"/>
+      <c r="R256" s="186"/>
     </row>
     <row r="257" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C257" s="87">
@@ -14317,21 +14317,21 @@
       <c r="G257" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="H257" s="178"/>
-      <c r="I257" s="178"/>
+      <c r="H257" s="176"/>
+      <c r="I257" s="176"/>
       <c r="J257" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="K257" s="180" t="s">
+      <c r="K257" s="184" t="s">
         <v>513</v>
       </c>
-      <c r="L257" s="181"/>
-      <c r="M257" s="181"/>
-      <c r="N257" s="181"/>
-      <c r="O257" s="181"/>
-      <c r="P257" s="181"/>
-      <c r="Q257" s="181"/>
-      <c r="R257" s="182"/>
+      <c r="L257" s="185"/>
+      <c r="M257" s="185"/>
+      <c r="N257" s="185"/>
+      <c r="O257" s="185"/>
+      <c r="P257" s="185"/>
+      <c r="Q257" s="185"/>
+      <c r="R257" s="186"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258">
@@ -14345,8 +14345,8 @@
         <v>0.71835443037974678</v>
       </c>
       <c r="G258" s="90"/>
-      <c r="H258" s="178"/>
-      <c r="I258" s="178"/>
+      <c r="H258" s="176"/>
+      <c r="I258" s="176"/>
       <c r="J258" s="92" t="s">
         <v>512</v>
       </c>
@@ -14362,16 +14362,16 @@
       <c r="N258" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="O258" s="177" t="s">
+      <c r="O258" s="172" t="s">
         <v>519</v>
       </c>
-      <c r="P258" s="183" t="s">
+      <c r="P258" s="174" t="s">
         <v>520</v>
       </c>
       <c r="Q258" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="R258" s="183" t="s">
+      <c r="R258" s="174" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14387,8 +14387,8 @@
         <v>0.40242611761702957</v>
       </c>
       <c r="G259" s="91"/>
-      <c r="H259" s="179"/>
-      <c r="I259" s="179"/>
+      <c r="H259" s="173"/>
+      <c r="I259" s="173"/>
       <c r="J259" s="93"/>
       <c r="K259" s="94" t="s">
         <v>515</v>
@@ -14402,21 +14402,21 @@
       <c r="N259" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="O259" s="179"/>
-      <c r="P259" s="184"/>
+      <c r="O259" s="173"/>
+      <c r="P259" s="175"/>
       <c r="Q259" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="R259" s="184"/>
+      <c r="R259" s="175"/>
     </row>
     <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="177" t="s">
+      <c r="G260" s="172" t="s">
         <v>472</v>
       </c>
-      <c r="H260" s="183" t="s">
+      <c r="H260" s="174" t="s">
         <v>523</v>
       </c>
-      <c r="I260" s="177"/>
+      <c r="I260" s="172"/>
       <c r="J260" s="97" t="s">
         <v>408</v>
       </c>
@@ -14430,9 +14430,9 @@
       <c r="R260" s="97"/>
     </row>
     <row r="261" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G261" s="178"/>
-      <c r="H261" s="185"/>
-      <c r="I261" s="178"/>
+      <c r="G261" s="176"/>
+      <c r="H261" s="177"/>
+      <c r="I261" s="176"/>
       <c r="J261" s="97" t="s">
         <v>409</v>
       </c>
@@ -14446,9 +14446,9 @@
       <c r="R261" s="97"/>
     </row>
     <row r="262" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G262" s="179"/>
-      <c r="H262" s="184"/>
-      <c r="I262" s="179"/>
+      <c r="G262" s="173"/>
+      <c r="H262" s="175"/>
+      <c r="I262" s="173"/>
       <c r="J262" s="97" t="s">
         <v>414</v>
       </c>
@@ -14462,13 +14462,13 @@
       <c r="R262" s="97"/>
     </row>
     <row r="263" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G263" s="177" t="s">
+      <c r="G263" s="172" t="s">
         <v>524</v>
       </c>
-      <c r="H263" s="183" t="s">
+      <c r="H263" s="174" t="s">
         <v>525</v>
       </c>
-      <c r="I263" s="186">
+      <c r="I263" s="178">
         <v>0.89</v>
       </c>
       <c r="J263" s="97" t="s">
@@ -14484,9 +14484,9 @@
       <c r="R263" s="97"/>
     </row>
     <row r="264" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G264" s="178"/>
-      <c r="H264" s="185"/>
-      <c r="I264" s="187"/>
+      <c r="G264" s="176"/>
+      <c r="H264" s="177"/>
+      <c r="I264" s="179"/>
       <c r="J264" s="97" t="s">
         <v>409</v>
       </c>
@@ -14500,9 +14500,9 @@
       <c r="R264" s="97"/>
     </row>
     <row r="265" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G265" s="179"/>
-      <c r="H265" s="184"/>
-      <c r="I265" s="188"/>
+      <c r="G265" s="173"/>
+      <c r="H265" s="175"/>
+      <c r="I265" s="180"/>
       <c r="J265" s="97" t="s">
         <v>414</v>
       </c>
@@ -14516,13 +14516,13 @@
       <c r="R265" s="97"/>
     </row>
     <row r="266" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G266" s="177" t="s">
+      <c r="G266" s="172" t="s">
         <v>471</v>
       </c>
-      <c r="H266" s="183" t="s">
+      <c r="H266" s="174" t="s">
         <v>526</v>
       </c>
-      <c r="I266" s="186">
+      <c r="I266" s="178">
         <v>0.9</v>
       </c>
       <c r="J266" s="97" t="s">
@@ -14555,9 +14555,9 @@
       </c>
     </row>
     <row r="267" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G267" s="178"/>
-      <c r="H267" s="185"/>
-      <c r="I267" s="187"/>
+      <c r="G267" s="176"/>
+      <c r="H267" s="177"/>
+      <c r="I267" s="179"/>
       <c r="J267" s="97" t="s">
         <v>409</v>
       </c>
@@ -14588,9 +14588,9 @@
       </c>
     </row>
     <row r="268" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G268" s="179"/>
-      <c r="H268" s="184"/>
-      <c r="I268" s="188"/>
+      <c r="G268" s="173"/>
+      <c r="H268" s="175"/>
+      <c r="I268" s="180"/>
       <c r="J268" s="97" t="s">
         <v>414</v>
       </c>
@@ -14621,13 +14621,13 @@
       </c>
     </row>
     <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G269" s="189" t="s">
+      <c r="G269" s="181" t="s">
         <v>470</v>
       </c>
-      <c r="H269" s="183" t="s">
+      <c r="H269" s="174" t="s">
         <v>526</v>
       </c>
-      <c r="I269" s="186">
+      <c r="I269" s="178">
         <v>0.72</v>
       </c>
       <c r="J269" s="97" t="s">
@@ -14660,9 +14660,9 @@
       </c>
     </row>
     <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G270" s="190"/>
-      <c r="H270" s="185"/>
-      <c r="I270" s="187"/>
+      <c r="G270" s="182"/>
+      <c r="H270" s="177"/>
+      <c r="I270" s="179"/>
       <c r="J270" s="97" t="s">
         <v>409</v>
       </c>
@@ -14693,9 +14693,9 @@
       </c>
     </row>
     <row r="271" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G271" s="191"/>
-      <c r="H271" s="184"/>
-      <c r="I271" s="188"/>
+      <c r="G271" s="183"/>
+      <c r="H271" s="175"/>
+      <c r="I271" s="180"/>
       <c r="J271" s="97" t="s">
         <v>414</v>
       </c>
@@ -14739,10 +14739,10 @@
       <c r="J274" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="K274" s="177" t="s">
+      <c r="K274" s="172" t="s">
         <v>519</v>
       </c>
-      <c r="L274" s="183" t="s">
+      <c r="L274" s="174" t="s">
         <v>520</v>
       </c>
       <c r="M274" s="95" t="s">
@@ -14762,8 +14762,8 @@
       <c r="J275" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="K275" s="179"/>
-      <c r="L275" s="184"/>
+      <c r="K275" s="173"/>
+      <c r="L275" s="175"/>
       <c r="M275" s="96" t="s">
         <v>515</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>16</v>
       </c>
       <c r="J279">
-        <f t="shared" si="3"/>
+        <f>J278*8</f>
         <v>48</v>
       </c>
       <c r="K279">
@@ -14910,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="87">
-        <f t="shared" si="4"/>
+        <f>D280*2/J$279</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="K280" s="87">
@@ -15045,32 +15045,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="I266:I268"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="I269:I271"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="I260:I262"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="H256:H259"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="J256:R256"/>
-    <mergeCell ref="K257:R257"/>
-    <mergeCell ref="O258:O259"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="R258:R259"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -15080,6 +15054,32 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:R256"/>
+    <mergeCell ref="K257:R257"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="R258:R259"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="I269:I271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15106,24 +15106,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="150" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="138" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="150" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
@@ -15150,7 +15150,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -15179,7 +15179,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
@@ -15206,7 +15206,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
@@ -15233,7 +15233,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="134" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -15262,7 +15262,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="24" t="s">
         <v>119</v>
       </c>
@@ -15289,7 +15289,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
@@ -15316,7 +15316,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -15345,7 +15345,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="24" t="s">
         <v>91</v>
       </c>
@@ -15373,7 +15373,7 @@
       <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="24" t="s">
         <v>159</v>
       </c>
@@ -15396,7 +15396,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="134" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -15425,7 +15425,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="24"/>
       <c r="C13" s="101"/>
       <c r="D13" s="24"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="整体信息" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="537">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2030,6 +2030,10 @@
   </si>
   <si>
     <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模乘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2755,6 +2759,21 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2803,20 +2822,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2830,20 +2849,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2863,6 +2894,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2872,41 +2912,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2926,15 +2939,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2959,21 +2963,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2993,30 +3021,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3746,53 +3750,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="116" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="117"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="107"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3815,7 +3819,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3834,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3851,7 +3855,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3876,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3884,11 +3888,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="115" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3899,7 +3903,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3909,9 +3913,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3924,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="109" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3952,7 +3956,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3982,7 +3986,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4012,10 +4016,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="105"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -4036,10 +4040,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -4057,10 +4061,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="105"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -4078,10 +4082,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -4096,7 +4100,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="106" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4120,7 +4124,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4146,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -4155,11 +4159,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -4173,6 +4172,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4203,31 +4207,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="116" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="129" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="125" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="130"/>
+      <c r="E2" s="126"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4242,7 +4246,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4251,7 +4255,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4277,7 +4281,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4289,13 +4293,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="127" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105"/>
-      <c r="B8" s="125" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="130" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4304,24 +4308,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="133"/>
+      <c r="E9" s="129"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="130" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4335,8 +4339,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4348,7 +4352,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4363,8 +4367,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="132" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4378,8 +4382,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4391,10 +4395,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4404,10 +4408,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="121"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4417,10 +4421,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="121"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4430,12 +4434,6 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4443,6 +4441,12 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4454,7 +4458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U39" sqref="A1:AA39"/>
     </sheetView>
   </sheetViews>
@@ -4483,83 +4487,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="152"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="140"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="150" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="150" t="s">
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4622,13 +4626,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="149" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4681,9 +4685,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="144"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4734,9 +4738,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4787,9 +4791,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4822,9 +4826,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4851,13 +4855,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="146" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4898,9 +4902,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4927,9 +4931,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4956,9 +4960,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4985,9 +4989,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5014,13 +5018,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="146" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -5079,9 +5083,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -5132,9 +5136,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -5185,9 +5189,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -5232,9 +5236,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5261,13 +5265,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5332,9 +5336,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5397,9 +5401,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="141"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5444,9 +5448,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5479,9 +5483,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5508,13 +5512,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="146" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5567,9 +5571,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5602,9 +5606,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5637,9 +5641,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5666,9 +5670,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5695,13 +5699,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="146" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="146" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5754,9 +5758,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5789,9 +5793,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5824,9 +5828,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5853,9 +5857,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="136"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5882,13 +5886,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="146" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5953,9 +5957,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -6006,9 +6010,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -6039,9 +6043,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="135"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -6072,9 +6076,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6336,26 +6340,6 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -6365,6 +6349,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6428,83 +6432,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="152"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="140"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="150" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="150" t="s">
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="140"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -6567,13 +6571,13 @@
       <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="149" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -6626,9 +6630,9 @@
       <c r="AA4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="144"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="24" t="s">
         <v>257</v>
       </c>
@@ -6679,9 +6683,9 @@
       <c r="AA5" s="49"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="24" t="s">
         <v>258</v>
       </c>
@@ -6732,9 +6736,9 @@
       <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="51"/>
@@ -6767,9 +6771,9 @@
       <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
@@ -6796,13 +6800,13 @@
       <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="146" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -6843,9 +6847,9 @@
       <c r="AA9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="51"/>
@@ -6872,9 +6876,9 @@
       <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="51"/>
@@ -6901,9 +6905,9 @@
       <c r="AA11" s="49"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="51"/>
@@ -6930,9 +6934,9 @@
       <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="51"/>
@@ -6959,13 +6963,13 @@
       <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="146" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -7024,9 +7028,9 @@
       <c r="AA14" s="49"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="24" t="s">
         <v>261</v>
       </c>
@@ -7077,9 +7081,9 @@
       <c r="AA15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="24" t="s">
         <v>262</v>
       </c>
@@ -7130,9 +7134,9 @@
       <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="24" t="s">
         <v>263</v>
       </c>
@@ -7177,9 +7181,9 @@
       <c r="AA17" s="49"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="51"/>
@@ -7206,13 +7210,13 @@
       <c r="AA18" s="49"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="146" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -7277,9 +7281,9 @@
       <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="24" t="s">
         <v>265</v>
       </c>
@@ -7342,9 +7346,9 @@
       <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="141"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="24" t="s">
         <v>266</v>
       </c>
@@ -7389,9 +7393,9 @@
       <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="24" t="s">
         <v>263</v>
       </c>
@@ -7424,9 +7428,9 @@
       <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="51"/>
@@ -7453,13 +7457,13 @@
       <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="146" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -7512,9 +7516,9 @@
       <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="51"/>
@@ -7547,9 +7551,9 @@
       <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="51"/>
@@ -7582,9 +7586,9 @@
       <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="51"/>
@@ -7611,9 +7615,9 @@
       <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="51"/>
@@ -7640,13 +7644,13 @@
       <c r="AA28" s="49"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="146" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -7699,9 +7703,9 @@
       <c r="AA29" s="49"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="51"/>
@@ -7734,9 +7738,9 @@
       <c r="AA30" s="49"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="51"/>
@@ -7769,9 +7773,9 @@
       <c r="AA31" s="49"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="51"/>
@@ -7798,9 +7802,9 @@
       <c r="AA32" s="49"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="136"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="51"/>
@@ -7827,13 +7831,13 @@
       <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="146" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -7898,9 +7902,9 @@
       <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="24" t="s">
         <v>270</v>
       </c>
@@ -7951,9 +7955,9 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="24" t="s">
         <v>271</v>
       </c>
@@ -7984,9 +7988,9 @@
       <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="135"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="24" t="s">
         <v>272</v>
       </c>
@@ -8017,9 +8021,9 @@
       <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="51"/>
@@ -8557,6 +8561,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -8566,26 +8590,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8603,7 +8607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView topLeftCell="D106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -9042,7 +9046,7 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="161" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="164" t="s">
@@ -9072,14 +9076,14 @@
       </c>
       <c r="P40" s="170"/>
       <c r="Q40" s="171"/>
-      <c r="R40" s="161" t="s">
+      <c r="R40" s="155" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="162"/>
-      <c r="T40" s="163"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="157"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="160"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="165"/>
       <c r="C41" s="165"/>
       <c r="D41" s="63" t="s">
@@ -9103,24 +9107,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="161">
+      <c r="L41" s="155">
         <v>65</v>
       </c>
-      <c r="M41" s="162"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="161">
+      <c r="M41" s="156"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="155">
         <v>65</v>
       </c>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="163"/>
-      <c r="R41" s="161">
+      <c r="P41" s="156"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="155">
         <v>45</v>
       </c>
-      <c r="S41" s="162"/>
-      <c r="T41" s="163"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="157"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -9150,26 +9154,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="161">
+      <c r="L42" s="155">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="162"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="161">
+      <c r="M42" s="156"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="155">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="161">
+      <c r="P42" s="156"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="155">
         <v>1</v>
       </c>
-      <c r="S42" s="162"/>
-      <c r="T42" s="163"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="157"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="159"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -9224,7 +9228,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="159"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9299,7 +9303,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9374,7 +9378,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9449,7 +9453,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="159"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9524,7 +9528,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="159"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9599,7 +9603,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="159"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9674,7 +9678,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="159"/>
+      <c r="A50" s="162"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9735,7 +9739,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="159"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9796,7 +9800,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="159"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9821,7 +9825,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="159"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9850,7 +9854,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9875,7 +9879,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="159"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9900,7 +9904,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="160"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9925,7 +9929,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="161" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9966,7 +9970,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="159"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -10005,7 +10009,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="159"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -10044,7 +10048,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="159"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -10083,7 +10087,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="159"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -10122,7 +10126,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="159"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -10161,7 +10165,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="159"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -10200,7 +10204,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="159"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -10228,7 +10232,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="159"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -10242,7 +10246,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="159"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -10256,24 +10260,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="161" t="s">
+      <c r="L66" s="155" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="162"/>
-      <c r="N66" s="163"/>
-      <c r="O66" s="161" t="s">
+      <c r="M66" s="156"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="155" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="162"/>
-      <c r="Q66" s="163"/>
-      <c r="R66" s="161" t="s">
+      <c r="P66" s="156"/>
+      <c r="Q66" s="157"/>
+      <c r="R66" s="155" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="162"/>
-      <c r="T66" s="163"/>
+      <c r="S66" s="156"/>
+      <c r="T66" s="157"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="159"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10287,18 +10291,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="161"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="163"/>
-      <c r="O67" s="161"/>
-      <c r="P67" s="162"/>
-      <c r="Q67" s="163"/>
-      <c r="R67" s="161"/>
-      <c r="S67" s="162"/>
-      <c r="T67" s="163"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="155"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="157"/>
+      <c r="R67" s="155"/>
+      <c r="S67" s="156"/>
+      <c r="T67" s="157"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="159"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10312,18 +10316,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="161"/>
-      <c r="M68" s="162"/>
-      <c r="N68" s="163"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="162"/>
-      <c r="Q68" s="163"/>
-      <c r="R68" s="161"/>
-      <c r="S68" s="162"/>
-      <c r="T68" s="163"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="157"/>
+      <c r="R68" s="155"/>
+      <c r="S68" s="156"/>
+      <c r="T68" s="157"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="159"/>
+      <c r="A69" s="162"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10364,7 +10368,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="159"/>
+      <c r="A70" s="162"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10389,7 +10393,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="160"/>
+      <c r="A71" s="163"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10414,7 +10418,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="158" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10455,7 +10459,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="156"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10494,7 +10498,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="156"/>
+      <c r="A74" s="159"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10533,7 +10537,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="156"/>
+      <c r="A75" s="159"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10572,7 +10576,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="156"/>
+      <c r="A76" s="159"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10611,7 +10615,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="156"/>
+      <c r="A77" s="159"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10650,7 +10654,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="156"/>
+      <c r="A78" s="159"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10689,7 +10693,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="156"/>
+      <c r="A79" s="159"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10728,7 +10732,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="156"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10753,7 +10757,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="156"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10778,7 +10782,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="156"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10803,7 +10807,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="156"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10828,7 +10832,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="156"/>
+      <c r="A84" s="159"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10853,7 +10857,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="156"/>
+      <c r="A85" s="159"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10878,7 +10882,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="157"/>
+      <c r="A86" s="160"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10903,7 +10907,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="158" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10944,7 +10948,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="156"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10983,7 +10987,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="156"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -11022,7 +11026,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="156"/>
+      <c r="A90" s="159"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -11049,7 +11053,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="156"/>
+      <c r="A91" s="159"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -11076,7 +11080,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="156"/>
+      <c r="A92" s="159"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -11103,7 +11107,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="156"/>
+      <c r="A93" s="159"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -11130,7 +11134,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="156"/>
+      <c r="A94" s="159"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -11157,7 +11161,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="156"/>
+      <c r="A95" s="159"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -11170,7 +11174,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="156"/>
+      <c r="A96" s="159"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -11183,7 +11187,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="156"/>
+      <c r="A97" s="159"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -11196,7 +11200,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="156"/>
+      <c r="A98" s="159"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -11209,7 +11213,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="156"/>
+      <c r="A99" s="159"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -11222,7 +11226,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="156"/>
+      <c r="A100" s="159"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -11235,7 +11239,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="157"/>
+      <c r="A101" s="160"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -11248,7 +11252,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="155" t="s">
+      <c r="A102" s="158" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -11263,7 +11267,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="156"/>
+      <c r="A103" s="159"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -11276,7 +11280,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="156"/>
+      <c r="A104" s="159"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11289,7 +11293,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="156"/>
+      <c r="A105" s="159"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11302,7 +11306,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="156"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11315,7 +11319,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="156"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11328,7 +11332,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="156"/>
+      <c r="A108" s="159"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11341,7 +11345,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="156"/>
+      <c r="A109" s="159"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11354,7 +11358,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="156"/>
+      <c r="A110" s="159"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11367,7 +11371,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="156"/>
+      <c r="A111" s="159"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11380,7 +11384,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="156"/>
+      <c r="A112" s="159"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11393,7 +11397,7 @@
       <c r="I112" s="66"/>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="156"/>
+      <c r="A113" s="159"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11406,7 +11410,7 @@
       <c r="I113" s="66"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="156"/>
+      <c r="A114" s="159"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11419,7 +11423,7 @@
       <c r="I114" s="66"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="156"/>
+      <c r="A115" s="159"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11432,7 +11436,7 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="157"/>
+      <c r="A116" s="160"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11445,7 +11449,7 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="158" t="s">
+      <c r="A117" s="161" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11460,7 +11464,7 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="159"/>
+      <c r="A118" s="162"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11473,7 +11477,7 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="159"/>
+      <c r="A119" s="162"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11486,7 +11490,7 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="159"/>
+      <c r="A120" s="162"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11499,7 +11503,7 @@
       <c r="I120" s="66"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="159"/>
+      <c r="A121" s="162"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11512,7 +11516,7 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="159"/>
+      <c r="A122" s="162"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11525,7 +11529,7 @@
       <c r="I122" s="66"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="159"/>
+      <c r="A123" s="162"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11538,7 +11542,7 @@
       <c r="I123" s="66"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="159"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11551,7 +11555,7 @@
       <c r="I124" s="66"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="159"/>
+      <c r="A125" s="162"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11564,7 +11568,7 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="159"/>
+      <c r="A126" s="162"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11577,7 +11581,7 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="159"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11590,7 +11594,7 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="159"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11603,7 +11607,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="159"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11616,7 +11620,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="159"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11629,7 +11633,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="160"/>
+      <c r="A131" s="163"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11643,6 +11647,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11659,18 +11675,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11682,8 +11686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F265" workbookViewId="0">
-      <selection activeCell="L279" sqref="L279"/>
+    <sheetView topLeftCell="F265" workbookViewId="0">
+      <selection activeCell="M274" sqref="M274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11692,24 +11696,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="172" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="174" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160"/>
-      <c r="B2" s="188"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
       </c>
@@ -11730,7 +11734,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11744,7 +11748,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="159"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11756,7 +11760,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11768,7 +11772,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11780,7 +11784,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11792,7 +11796,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="159"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11804,7 +11808,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11816,7 +11820,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11828,7 +11832,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11840,7 +11844,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11852,7 +11856,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11864,7 +11868,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11876,7 +11880,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11888,7 +11892,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11900,7 +11904,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11912,7 +11916,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="159"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11924,7 +11928,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11936,7 +11940,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11948,7 +11952,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11960,7 +11964,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11972,7 +11976,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11984,7 +11988,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -11996,7 +12000,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -12008,7 +12012,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -12020,7 +12024,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="159"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -12032,7 +12036,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -12044,7 +12048,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -12056,7 +12060,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="159"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -12068,7 +12072,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="159"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -12080,7 +12084,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -12092,7 +12096,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="159"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -12104,7 +12108,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="159"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -12116,7 +12120,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="159"/>
+      <c r="A35" s="162"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -12128,7 +12132,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="159"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -12140,7 +12144,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="159"/>
+      <c r="A37" s="162"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -12152,7 +12156,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="160"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -12164,7 +12168,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="161" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -12178,7 +12182,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="159"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -12190,7 +12194,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="159"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -12202,7 +12206,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="159"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -12214,7 +12218,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="159"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -12226,7 +12230,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="159"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -12238,7 +12242,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -12250,7 +12254,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -12262,7 +12266,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="159"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -12274,7 +12278,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="159"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -12286,7 +12290,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="159"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12298,7 +12302,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="159"/>
+      <c r="A50" s="162"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12310,7 +12314,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="159"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12322,7 +12326,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="159"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12334,7 +12338,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="159"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12346,7 +12350,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12358,7 +12362,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="159"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12370,7 +12374,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="159"/>
+      <c r="A56" s="162"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12382,7 +12386,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="159"/>
+      <c r="A57" s="162"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12394,7 +12398,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="159"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12406,7 +12410,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="159"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12418,7 +12422,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="159"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12430,7 +12434,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="159"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12442,7 +12446,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="159"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12454,7 +12458,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="159"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12466,7 +12470,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="159"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12478,7 +12482,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="159"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12490,7 +12494,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="159"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12502,7 +12506,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="159"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12514,7 +12518,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="159"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12526,7 +12530,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="159"/>
+      <c r="A69" s="162"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12538,7 +12542,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="159"/>
+      <c r="A70" s="162"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12550,7 +12554,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="159"/>
+      <c r="A71" s="162"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12562,7 +12566,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="159"/>
+      <c r="A72" s="162"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12574,7 +12578,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="159"/>
+      <c r="A73" s="162"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12586,7 +12590,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="160"/>
+      <c r="A74" s="163"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12598,7 +12602,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="158" t="s">
+      <c r="A75" s="161" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12612,7 +12616,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="159"/>
+      <c r="A76" s="162"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12624,7 +12628,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="159"/>
+      <c r="A77" s="162"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12636,7 +12640,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="159"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12648,7 +12652,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="159"/>
+      <c r="A79" s="162"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12660,7 +12664,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="159"/>
+      <c r="A80" s="162"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12672,7 +12676,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="159"/>
+      <c r="A81" s="162"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12684,7 +12688,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="159"/>
+      <c r="A82" s="162"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12696,7 +12700,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="159"/>
+      <c r="A83" s="162"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12708,7 +12712,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="159"/>
+      <c r="A84" s="162"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12720,7 +12724,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="159"/>
+      <c r="A85" s="162"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12732,7 +12736,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="159"/>
+      <c r="A86" s="162"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12744,7 +12748,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="159"/>
+      <c r="A87" s="162"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12756,7 +12760,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="159"/>
+      <c r="A88" s="162"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12768,7 +12772,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="159"/>
+      <c r="A89" s="162"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12780,7 +12784,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="159"/>
+      <c r="A90" s="162"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12792,7 +12796,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="159"/>
+      <c r="A91" s="162"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12804,7 +12808,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="159"/>
+      <c r="A92" s="162"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12816,7 +12820,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="159"/>
+      <c r="A93" s="162"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12828,7 +12832,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="159"/>
+      <c r="A94" s="162"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12840,7 +12844,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="159"/>
+      <c r="A95" s="162"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12852,7 +12856,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="159"/>
+      <c r="A96" s="162"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12864,7 +12868,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="159"/>
+      <c r="A97" s="162"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12876,7 +12880,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="159"/>
+      <c r="A98" s="162"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12888,7 +12892,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="159"/>
+      <c r="A99" s="162"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12900,7 +12904,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="159"/>
+      <c r="A100" s="162"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12912,7 +12916,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="159"/>
+      <c r="A101" s="162"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12924,7 +12928,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="159"/>
+      <c r="A102" s="162"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12936,7 +12940,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="159"/>
+      <c r="A103" s="162"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12948,7 +12952,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="159"/>
+      <c r="A104" s="162"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12960,7 +12964,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="159"/>
+      <c r="A105" s="162"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12972,7 +12976,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="159"/>
+      <c r="A106" s="162"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12984,7 +12988,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="159"/>
+      <c r="A107" s="162"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -12996,7 +13000,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="159"/>
+      <c r="A108" s="162"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -13008,7 +13012,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="159"/>
+      <c r="A109" s="162"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -13020,7 +13024,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="160"/>
+      <c r="A110" s="163"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -13032,7 +13036,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="158" t="s">
+      <c r="A111" s="161" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -13046,7 +13050,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="159"/>
+      <c r="A112" s="162"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -13058,7 +13062,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="159"/>
+      <c r="A113" s="162"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -13070,7 +13074,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="159"/>
+      <c r="A114" s="162"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -13082,7 +13086,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="159"/>
+      <c r="A115" s="162"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -13094,7 +13098,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="159"/>
+      <c r="A116" s="162"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -13106,7 +13110,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="159"/>
+      <c r="A117" s="162"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -13118,7 +13122,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="159"/>
+      <c r="A118" s="162"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -13130,7 +13134,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="159"/>
+      <c r="A119" s="162"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -13142,7 +13146,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="159"/>
+      <c r="A120" s="162"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -13154,7 +13158,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="159"/>
+      <c r="A121" s="162"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -13166,7 +13170,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="159"/>
+      <c r="A122" s="162"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -13178,7 +13182,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="159"/>
+      <c r="A123" s="162"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -13190,7 +13194,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="159"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -13202,7 +13206,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="159"/>
+      <c r="A125" s="162"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -13214,7 +13218,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="159"/>
+      <c r="A126" s="162"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -13226,7 +13230,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="159"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -13238,7 +13242,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="159"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -13250,7 +13254,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="159"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -13262,7 +13266,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="159"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -13274,7 +13278,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="159"/>
+      <c r="A131" s="162"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -13286,7 +13290,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="159"/>
+      <c r="A132" s="162"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13298,7 +13302,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="159"/>
+      <c r="A133" s="162"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13310,7 +13314,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="159"/>
+      <c r="A134" s="162"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13322,7 +13326,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="159"/>
+      <c r="A135" s="162"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13334,7 +13338,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="159"/>
+      <c r="A136" s="162"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13346,7 +13350,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="159"/>
+      <c r="A137" s="162"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13358,7 +13362,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="159"/>
+      <c r="A138" s="162"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13370,7 +13374,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="159"/>
+      <c r="A139" s="162"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13382,7 +13386,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="159"/>
+      <c r="A140" s="162"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13394,7 +13398,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="159"/>
+      <c r="A141" s="162"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13406,7 +13410,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="159"/>
+      <c r="A142" s="162"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13418,7 +13422,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="159"/>
+      <c r="A143" s="162"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13430,7 +13434,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="159"/>
+      <c r="A144" s="162"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13442,7 +13446,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="159"/>
+      <c r="A145" s="162"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13454,7 +13458,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="160"/>
+      <c r="A146" s="163"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13467,7 +13471,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="158" t="s">
+      <c r="A152" s="161" t="s">
         <v>400</v>
       </c>
       <c r="B152" s="164" t="s">
@@ -13483,7 +13487,7 @@
       <c r="H152" s="168"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="160"/>
+      <c r="A153" s="163"/>
       <c r="B153" s="165"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
@@ -13505,7 +13509,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="158" t="s">
+      <c r="A154" s="161" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13519,7 +13523,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="159"/>
+      <c r="A155" s="162"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13531,7 +13535,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="159"/>
+      <c r="A156" s="162"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13543,7 +13547,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="159"/>
+      <c r="A157" s="162"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13559,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="159"/>
+      <c r="A158" s="162"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13567,7 +13571,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="159"/>
+      <c r="A159" s="162"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13579,7 +13583,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="159"/>
+      <c r="A160" s="162"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13591,7 +13595,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="159"/>
+      <c r="A161" s="162"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13603,7 +13607,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="159"/>
+      <c r="A162" s="162"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13615,7 +13619,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="159"/>
+      <c r="A163" s="162"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13627,7 +13631,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="159"/>
+      <c r="A164" s="162"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13639,7 +13643,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="159"/>
+      <c r="A165" s="162"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13651,7 +13655,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="159"/>
+      <c r="A166" s="162"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13663,7 +13667,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="159"/>
+      <c r="A167" s="162"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13675,7 +13679,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="160"/>
+      <c r="A168" s="163"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13687,7 +13691,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="158" t="s">
+      <c r="A169" s="161" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13701,7 +13705,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="159"/>
+      <c r="A170" s="162"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13713,7 +13717,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="159"/>
+      <c r="A171" s="162"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13725,7 +13729,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="159"/>
+      <c r="A172" s="162"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13737,7 +13741,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="159"/>
+      <c r="A173" s="162"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13749,7 +13753,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="159"/>
+      <c r="A174" s="162"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13761,7 +13765,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="159"/>
+      <c r="A175" s="162"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13773,7 +13777,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="159"/>
+      <c r="A176" s="162"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13785,7 +13789,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="159"/>
+      <c r="A177" s="162"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13797,7 +13801,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="159"/>
+      <c r="A178" s="162"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13809,7 +13813,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="159"/>
+      <c r="A179" s="162"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13821,7 +13825,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="159"/>
+      <c r="A180" s="162"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13833,7 +13837,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="159"/>
+      <c r="A181" s="162"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13845,7 +13849,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="159"/>
+      <c r="A182" s="162"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13857,7 +13861,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="160"/>
+      <c r="A183" s="163"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13869,7 +13873,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="158" t="s">
+      <c r="A184" s="161" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13883,7 +13887,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="159"/>
+      <c r="A185" s="162"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13895,7 +13899,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="159"/>
+      <c r="A186" s="162"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13907,7 +13911,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="159"/>
+      <c r="A187" s="162"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13919,7 +13923,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="159"/>
+      <c r="A188" s="162"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13931,7 +13935,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="159"/>
+      <c r="A189" s="162"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13943,7 +13947,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="159"/>
+      <c r="A190" s="162"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13955,7 +13959,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="159"/>
+      <c r="A191" s="162"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13967,7 +13971,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="159"/>
+      <c r="A192" s="162"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13979,7 +13983,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="159"/>
+      <c r="A193" s="162"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13991,7 +13995,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="159"/>
+      <c r="A194" s="162"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -14003,7 +14007,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="159"/>
+      <c r="A195" s="162"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -14015,7 +14019,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="159"/>
+      <c r="A196" s="162"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -14027,7 +14031,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="159"/>
+      <c r="A197" s="162"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -14039,7 +14043,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="160"/>
+      <c r="A198" s="163"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -14051,7 +14055,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="158" t="s">
+      <c r="A199" s="161" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -14065,7 +14069,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="159"/>
+      <c r="A200" s="162"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -14077,7 +14081,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="159"/>
+      <c r="A201" s="162"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -14089,7 +14093,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="159"/>
+      <c r="A202" s="162"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -14101,7 +14105,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="159"/>
+      <c r="A203" s="162"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -14113,7 +14117,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="159"/>
+      <c r="A204" s="162"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -14125,7 +14129,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="159"/>
+      <c r="A205" s="162"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -14137,7 +14141,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="159"/>
+      <c r="A206" s="162"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -14149,7 +14153,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="159"/>
+      <c r="A207" s="162"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -14161,7 +14165,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="159"/>
+      <c r="A208" s="162"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -14173,7 +14177,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="159"/>
+      <c r="A209" s="162"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -14185,7 +14189,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="159"/>
+      <c r="A210" s="162"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -14197,7 +14201,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="159"/>
+      <c r="A211" s="162"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -14209,7 +14213,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="159"/>
+      <c r="A212" s="162"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -14221,7 +14225,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="160"/>
+      <c r="A213" s="163"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -14291,23 +14295,23 @@
       <c r="G256" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="H256" s="172" t="s">
+      <c r="H256" s="177" t="s">
         <v>508</v>
       </c>
-      <c r="I256" s="172" t="s">
+      <c r="I256" s="177" t="s">
         <v>509</v>
       </c>
-      <c r="J256" s="184" t="s">
+      <c r="J256" s="180" t="s">
         <v>510</v>
       </c>
-      <c r="K256" s="185"/>
-      <c r="L256" s="185"/>
-      <c r="M256" s="185"/>
-      <c r="N256" s="185"/>
-      <c r="O256" s="185"/>
-      <c r="P256" s="185"/>
-      <c r="Q256" s="185"/>
-      <c r="R256" s="186"/>
+      <c r="K256" s="181"/>
+      <c r="L256" s="181"/>
+      <c r="M256" s="181"/>
+      <c r="N256" s="181"/>
+      <c r="O256" s="181"/>
+      <c r="P256" s="181"/>
+      <c r="Q256" s="181"/>
+      <c r="R256" s="182"/>
     </row>
     <row r="257" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C257" s="87">
@@ -14317,21 +14321,21 @@
       <c r="G257" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="H257" s="176"/>
-      <c r="I257" s="176"/>
+      <c r="H257" s="178"/>
+      <c r="I257" s="178"/>
       <c r="J257" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="K257" s="184" t="s">
+      <c r="K257" s="180" t="s">
         <v>513</v>
       </c>
-      <c r="L257" s="185"/>
-      <c r="M257" s="185"/>
-      <c r="N257" s="185"/>
-      <c r="O257" s="185"/>
-      <c r="P257" s="185"/>
-      <c r="Q257" s="185"/>
-      <c r="R257" s="186"/>
+      <c r="L257" s="181"/>
+      <c r="M257" s="181"/>
+      <c r="N257" s="181"/>
+      <c r="O257" s="181"/>
+      <c r="P257" s="181"/>
+      <c r="Q257" s="181"/>
+      <c r="R257" s="182"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258">
@@ -14345,8 +14349,8 @@
         <v>0.71835443037974678</v>
       </c>
       <c r="G258" s="90"/>
-      <c r="H258" s="176"/>
-      <c r="I258" s="176"/>
+      <c r="H258" s="178"/>
+      <c r="I258" s="178"/>
       <c r="J258" s="92" t="s">
         <v>512</v>
       </c>
@@ -14362,16 +14366,16 @@
       <c r="N258" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="O258" s="172" t="s">
+      <c r="O258" s="177" t="s">
         <v>519</v>
       </c>
-      <c r="P258" s="174" t="s">
+      <c r="P258" s="183" t="s">
         <v>520</v>
       </c>
       <c r="Q258" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="R258" s="174" t="s">
+      <c r="R258" s="183" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14387,8 +14391,8 @@
         <v>0.40242611761702957</v>
       </c>
       <c r="G259" s="91"/>
-      <c r="H259" s="173"/>
-      <c r="I259" s="173"/>
+      <c r="H259" s="179"/>
+      <c r="I259" s="179"/>
       <c r="J259" s="93"/>
       <c r="K259" s="94" t="s">
         <v>515</v>
@@ -14402,21 +14406,21 @@
       <c r="N259" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="O259" s="173"/>
-      <c r="P259" s="175"/>
+      <c r="O259" s="179"/>
+      <c r="P259" s="184"/>
       <c r="Q259" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="R259" s="175"/>
+      <c r="R259" s="184"/>
     </row>
     <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="172" t="s">
+      <c r="G260" s="177" t="s">
         <v>472</v>
       </c>
-      <c r="H260" s="174" t="s">
+      <c r="H260" s="183" t="s">
         <v>523</v>
       </c>
-      <c r="I260" s="172"/>
+      <c r="I260" s="177"/>
       <c r="J260" s="97" t="s">
         <v>408</v>
       </c>
@@ -14430,9 +14434,9 @@
       <c r="R260" s="97"/>
     </row>
     <row r="261" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G261" s="176"/>
-      <c r="H261" s="177"/>
-      <c r="I261" s="176"/>
+      <c r="G261" s="178"/>
+      <c r="H261" s="185"/>
+      <c r="I261" s="178"/>
       <c r="J261" s="97" t="s">
         <v>409</v>
       </c>
@@ -14446,9 +14450,9 @@
       <c r="R261" s="97"/>
     </row>
     <row r="262" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G262" s="173"/>
-      <c r="H262" s="175"/>
-      <c r="I262" s="173"/>
+      <c r="G262" s="179"/>
+      <c r="H262" s="184"/>
+      <c r="I262" s="179"/>
       <c r="J262" s="97" t="s">
         <v>414</v>
       </c>
@@ -14462,13 +14466,13 @@
       <c r="R262" s="97"/>
     </row>
     <row r="263" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G263" s="172" t="s">
+      <c r="G263" s="177" t="s">
         <v>524</v>
       </c>
-      <c r="H263" s="174" t="s">
+      <c r="H263" s="183" t="s">
         <v>525</v>
       </c>
-      <c r="I263" s="178">
+      <c r="I263" s="186">
         <v>0.89</v>
       </c>
       <c r="J263" s="97" t="s">
@@ -14484,9 +14488,9 @@
       <c r="R263" s="97"/>
     </row>
     <row r="264" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G264" s="176"/>
-      <c r="H264" s="177"/>
-      <c r="I264" s="179"/>
+      <c r="G264" s="178"/>
+      <c r="H264" s="185"/>
+      <c r="I264" s="187"/>
       <c r="J264" s="97" t="s">
         <v>409</v>
       </c>
@@ -14500,9 +14504,9 @@
       <c r="R264" s="97"/>
     </row>
     <row r="265" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G265" s="173"/>
-      <c r="H265" s="175"/>
-      <c r="I265" s="180"/>
+      <c r="G265" s="179"/>
+      <c r="H265" s="184"/>
+      <c r="I265" s="188"/>
       <c r="J265" s="97" t="s">
         <v>414</v>
       </c>
@@ -14516,13 +14520,13 @@
       <c r="R265" s="97"/>
     </row>
     <row r="266" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G266" s="172" t="s">
+      <c r="G266" s="177" t="s">
         <v>471</v>
       </c>
-      <c r="H266" s="174" t="s">
+      <c r="H266" s="183" t="s">
         <v>526</v>
       </c>
-      <c r="I266" s="178">
+      <c r="I266" s="186">
         <v>0.9</v>
       </c>
       <c r="J266" s="97" t="s">
@@ -14555,9 +14559,9 @@
       </c>
     </row>
     <row r="267" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G267" s="176"/>
-      <c r="H267" s="177"/>
-      <c r="I267" s="179"/>
+      <c r="G267" s="178"/>
+      <c r="H267" s="185"/>
+      <c r="I267" s="187"/>
       <c r="J267" s="97" t="s">
         <v>409</v>
       </c>
@@ -14588,9 +14592,9 @@
       </c>
     </row>
     <row r="268" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G268" s="173"/>
-      <c r="H268" s="175"/>
-      <c r="I268" s="180"/>
+      <c r="G268" s="179"/>
+      <c r="H268" s="184"/>
+      <c r="I268" s="188"/>
       <c r="J268" s="97" t="s">
         <v>414</v>
       </c>
@@ -14621,13 +14625,13 @@
       </c>
     </row>
     <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G269" s="181" t="s">
+      <c r="G269" s="189" t="s">
         <v>470</v>
       </c>
-      <c r="H269" s="174" t="s">
+      <c r="H269" s="183" t="s">
         <v>526</v>
       </c>
-      <c r="I269" s="178">
+      <c r="I269" s="186">
         <v>0.72</v>
       </c>
       <c r="J269" s="97" t="s">
@@ -14660,9 +14664,9 @@
       </c>
     </row>
     <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G270" s="182"/>
-      <c r="H270" s="177"/>
-      <c r="I270" s="179"/>
+      <c r="G270" s="190"/>
+      <c r="H270" s="185"/>
+      <c r="I270" s="187"/>
       <c r="J270" s="97" t="s">
         <v>409</v>
       </c>
@@ -14693,9 +14697,9 @@
       </c>
     </row>
     <row r="271" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G271" s="183"/>
-      <c r="H271" s="175"/>
-      <c r="I271" s="180"/>
+      <c r="G271" s="191"/>
+      <c r="H271" s="184"/>
+      <c r="I271" s="188"/>
       <c r="J271" s="97" t="s">
         <v>414</v>
       </c>
@@ -14739,14 +14743,14 @@
       <c r="J274" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="K274" s="172" t="s">
+      <c r="K274" s="177" t="s">
         <v>519</v>
       </c>
-      <c r="L274" s="174" t="s">
+      <c r="L274" s="183" t="s">
         <v>520</v>
       </c>
       <c r="M274" s="95" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="275" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14762,8 +14766,8 @@
       <c r="J275" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="K275" s="173"/>
-      <c r="L275" s="175"/>
+      <c r="K275" s="179"/>
+      <c r="L275" s="184"/>
       <c r="M275" s="96" t="s">
         <v>515</v>
       </c>
@@ -15045,6 +15049,32 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="I269:I271"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:R256"/>
+    <mergeCell ref="K257:R257"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="R258:R259"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -15054,32 +15084,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="H256:H259"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="J256:R256"/>
-    <mergeCell ref="K257:R257"/>
-    <mergeCell ref="O258:O259"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="R258:R259"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="I260:I262"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="I266:I268"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="I269:I271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15106,24 +15110,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="135" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="150" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="138" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
@@ -15150,7 +15154,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="143" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -15179,7 +15183,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
@@ -15206,7 +15210,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
@@ -15233,7 +15237,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="143" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -15262,7 +15266,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="24" t="s">
         <v>119</v>
       </c>
@@ -15289,7 +15293,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="135"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
@@ -15316,7 +15320,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -15345,7 +15349,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="24" t="s">
         <v>91</v>
       </c>
@@ -15373,7 +15377,7 @@
       <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="24" t="s">
         <v>159</v>
       </c>
@@ -15396,7 +15400,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="143" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -15425,7 +15429,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="24"/>
       <c r="C13" s="101"/>
       <c r="D13" s="24"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -2045,7 +2045,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2121,6 +2121,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2172,7 +2178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2455,6 +2461,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2462,7 +2483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2759,6 +2780,54 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2775,52 +2844,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2837,17 +2870,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2876,41 +2933,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2921,24 +2960,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2963,6 +2984,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,50 +3044,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3750,53 +3774,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="122"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="112"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3819,7 +3843,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3834,7 +3858,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3855,7 +3879,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3900,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3888,11 +3912,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="110"/>
+      <c r="H7" s="110" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3903,7 +3927,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3913,9 +3937,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3924,7 +3948,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="104" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3956,7 +3980,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="110"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3986,7 +4010,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4016,10 +4040,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="121"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -4040,10 +4064,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -4061,10 +4085,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="121"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -4082,10 +4106,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -4100,7 +4124,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="122" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4124,7 +4148,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4170,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -4159,6 +4183,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -4172,11 +4201,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4207,31 +4231,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="125" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="129" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="126"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4246,7 +4270,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4255,7 +4279,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4268,7 +4292,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4281,7 +4305,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4293,13 +4317,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="131" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="130" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="125" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4308,24 +4332,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="128"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="131"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="129"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4339,8 +4363,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4352,7 +4376,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="110"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4367,8 +4391,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
-      <c r="B13" s="132" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="127" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4382,8 +4406,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4395,10 +4419,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4408,10 +4432,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4421,10 +4445,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4434,6 +4458,12 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4441,12 +4471,6 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4487,83 +4511,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="140"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="152"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="138" t="s">
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="138" t="s">
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="152"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4626,13 +4650,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="143" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4685,9 +4709,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="150"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4738,9 +4762,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="150"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4791,9 +4815,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4826,9 +4850,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4855,13 +4879,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="137" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4902,9 +4926,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4931,9 +4955,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4960,9 +4984,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4989,9 +5013,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5018,13 +5042,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="137" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -5083,9 +5107,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -5136,9 +5160,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -5189,9 +5213,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -5236,9 +5260,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5265,13 +5289,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5336,9 +5360,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5401,9 +5425,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5448,9 +5472,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="153"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5483,9 +5507,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5512,13 +5536,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5571,9 +5595,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5606,9 +5630,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5641,9 +5665,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5670,9 +5694,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5699,13 +5723,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5758,9 +5782,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5793,9 +5817,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5828,9 +5852,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5857,9 +5881,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5886,13 +5910,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="137" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5957,9 +5981,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -6010,9 +6034,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -6043,9 +6067,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -6076,9 +6100,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6340,6 +6364,26 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -6349,26 +6393,6 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6432,83 +6456,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="140"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="152"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="138" t="s">
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="138" t="s">
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="140"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="152"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -6571,13 +6595,13 @@
       <c r="AA3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="143" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -6630,9 +6654,9 @@
       <c r="AA4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="150"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="24" t="s">
         <v>257</v>
       </c>
@@ -6683,9 +6707,9 @@
       <c r="AA5" s="49"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="150"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="24" t="s">
         <v>258</v>
       </c>
@@ -6736,9 +6760,9 @@
       <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="51"/>
@@ -6771,9 +6795,9 @@
       <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="51"/>
@@ -6800,13 +6824,13 @@
       <c r="AA8" s="49"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="137" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -6847,9 +6871,9 @@
       <c r="AA9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="51"/>
@@ -6876,9 +6900,9 @@
       <c r="AA10" s="49"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="51"/>
@@ -6905,9 +6929,9 @@
       <c r="AA11" s="49"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="51"/>
@@ -6934,9 +6958,9 @@
       <c r="AA12" s="49"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="51"/>
@@ -6963,13 +6987,13 @@
       <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="137" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -7028,9 +7052,9 @@
       <c r="AA14" s="49"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="24" t="s">
         <v>261</v>
       </c>
@@ -7081,9 +7105,9 @@
       <c r="AA15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="24" t="s">
         <v>262</v>
       </c>
@@ -7134,9 +7158,9 @@
       <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="24" t="s">
         <v>263</v>
       </c>
@@ -7181,9 +7205,9 @@
       <c r="AA17" s="49"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="51"/>
@@ -7210,13 +7234,13 @@
       <c r="AA18" s="49"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -7281,9 +7305,9 @@
       <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="24" t="s">
         <v>265</v>
       </c>
@@ -7346,9 +7370,9 @@
       <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="24" t="s">
         <v>266</v>
       </c>
@@ -7393,9 +7417,9 @@
       <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="153"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="24" t="s">
         <v>263</v>
       </c>
@@ -7428,9 +7452,9 @@
       <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="51"/>
@@ -7457,13 +7481,13 @@
       <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -7516,9 +7540,9 @@
       <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="51"/>
@@ -7551,9 +7575,9 @@
       <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="51"/>
@@ -7586,9 +7610,9 @@
       <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="51"/>
@@ -7615,9 +7639,9 @@
       <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="51"/>
@@ -7644,13 +7668,13 @@
       <c r="AA28" s="49"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -7703,9 +7727,9 @@
       <c r="AA29" s="49"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="51"/>
@@ -7738,9 +7762,9 @@
       <c r="AA30" s="49"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="51"/>
@@ -7773,9 +7797,9 @@
       <c r="AA31" s="49"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="51"/>
@@ -7802,9 +7826,9 @@
       <c r="AA32" s="49"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="51"/>
@@ -7831,13 +7855,13 @@
       <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="137" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -7902,9 +7926,9 @@
       <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="24" t="s">
         <v>270</v>
       </c>
@@ -7955,9 +7979,9 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="24" t="s">
         <v>271</v>
       </c>
@@ -7988,9 +8012,9 @@
       <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="24" t="s">
         <v>272</v>
       </c>
@@ -8021,9 +8045,9 @@
       <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="51"/>
@@ -8561,26 +8585,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -8590,6 +8594,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -8608,7 +8632,7 @@
   <dimension ref="A1:W131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+      <selection activeCell="L118" sqref="L118:N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9046,7 +9070,7 @@
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="158" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="164" t="s">
@@ -9076,14 +9100,14 @@
       </c>
       <c r="P40" s="170"/>
       <c r="Q40" s="171"/>
-      <c r="R40" s="155" t="s">
+      <c r="R40" s="161" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="156"/>
-      <c r="T40" s="157"/>
+      <c r="S40" s="162"/>
+      <c r="T40" s="163"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="163"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="165"/>
       <c r="C41" s="165"/>
       <c r="D41" s="63" t="s">
@@ -9107,24 +9131,24 @@
       <c r="K41" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="155">
+      <c r="L41" s="161">
         <v>65</v>
       </c>
-      <c r="M41" s="156"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="155">
+      <c r="M41" s="162"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="161">
         <v>65</v>
       </c>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="157"/>
-      <c r="R41" s="155">
+      <c r="P41" s="162"/>
+      <c r="Q41" s="163"/>
+      <c r="R41" s="161">
         <v>45</v>
       </c>
-      <c r="S41" s="156"/>
-      <c r="T41" s="157"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="163"/>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -9154,26 +9178,26 @@
       <c r="K42" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="155">
+      <c r="L42" s="161">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="156"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="155">
+      <c r="M42" s="162"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="161">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="157"/>
-      <c r="R42" s="155">
+      <c r="P42" s="162"/>
+      <c r="Q42" s="163"/>
+      <c r="R42" s="161">
         <v>1</v>
       </c>
-      <c r="S42" s="156"/>
-      <c r="T42" s="157"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="163"/>
     </row>
     <row r="43" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="162"/>
+      <c r="A43" s="159"/>
       <c r="B43" s="64" t="s">
         <v>409</v>
       </c>
@@ -9228,7 +9252,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="162"/>
+      <c r="A44" s="159"/>
       <c r="B44" s="64" t="s">
         <v>417</v>
       </c>
@@ -9303,7 +9327,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="64" t="s">
         <v>416</v>
       </c>
@@ -9378,7 +9402,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -9453,7 +9477,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="162"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="64" t="s">
         <v>412</v>
       </c>
@@ -9528,7 +9552,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="162"/>
+      <c r="A48" s="159"/>
       <c r="B48" s="64" t="s">
         <v>419</v>
       </c>
@@ -9603,7 +9627,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="64" t="s">
         <v>411</v>
       </c>
@@ -9678,7 +9702,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="64" t="s">
         <v>415</v>
       </c>
@@ -9739,7 +9763,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="64" t="s">
         <v>418</v>
       </c>
@@ -9800,7 +9824,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="162"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="64" t="s">
         <v>410</v>
       </c>
@@ -9825,7 +9849,7 @@
       <c r="T52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="64" t="s">
         <v>210</v>
       </c>
@@ -9854,7 +9878,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="162"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="64" t="s">
         <v>413</v>
       </c>
@@ -9879,7 +9903,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="162"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="64" t="s">
         <v>420</v>
       </c>
@@ -9904,7 +9928,7 @@
       <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="163"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="67" t="s">
         <v>445</v>
       </c>
@@ -9929,7 +9953,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="161" t="s">
+      <c r="A57" s="158" t="s">
         <v>469</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -9970,7 +9994,7 @@
       <c r="T57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="162"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="64" t="s">
         <v>409</v>
       </c>
@@ -10009,7 +10033,7 @@
       <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="162"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="64" t="s">
         <v>417</v>
       </c>
@@ -10048,7 +10072,7 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="162"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="64" t="s">
         <v>416</v>
       </c>
@@ -10087,7 +10111,7 @@
       <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="162"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="64" t="s">
         <v>414</v>
       </c>
@@ -10126,7 +10150,7 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="162"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="64" t="s">
         <v>412</v>
       </c>
@@ -10165,7 +10189,7 @@
       <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="162"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="64" t="s">
         <v>419</v>
       </c>
@@ -10204,7 +10228,7 @@
       <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="162"/>
+      <c r="A64" s="159"/>
       <c r="B64" s="64" t="s">
         <v>411</v>
       </c>
@@ -10232,7 +10256,7 @@
       <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="162"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="64" t="s">
         <v>415</v>
       </c>
@@ -10246,7 +10270,7 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="162"/>
+      <c r="A66" s="159"/>
       <c r="B66" s="64" t="s">
         <v>418</v>
       </c>
@@ -10260,24 +10284,24 @@
       <c r="K66" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="L66" s="155" t="s">
+      <c r="L66" s="161" t="s">
         <v>471</v>
       </c>
-      <c r="M66" s="156"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="155" t="s">
+      <c r="M66" s="162"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="161" t="s">
         <v>482</v>
       </c>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="157"/>
-      <c r="R66" s="155" t="s">
+      <c r="P66" s="162"/>
+      <c r="Q66" s="163"/>
+      <c r="R66" s="161" t="s">
         <v>483</v>
       </c>
-      <c r="S66" s="156"/>
-      <c r="T66" s="157"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="163"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="162"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="64" t="s">
         <v>410</v>
       </c>
@@ -10291,18 +10315,18 @@
       <c r="K67" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="155"/>
-      <c r="M67" s="156"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="156"/>
-      <c r="Q67" s="157"/>
-      <c r="R67" s="155"/>
-      <c r="S67" s="156"/>
-      <c r="T67" s="157"/>
+      <c r="L67" s="161"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="161"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="163"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="162"/>
+      <c r="A68" s="159"/>
       <c r="B68" s="64" t="s">
         <v>210</v>
       </c>
@@ -10316,18 +10340,18 @@
       <c r="K68" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="L68" s="155"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="157"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="156"/>
-      <c r="Q68" s="157"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="156"/>
-      <c r="T68" s="157"/>
+      <c r="L68" s="161"/>
+      <c r="M68" s="162"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="162"/>
+      <c r="Q68" s="163"/>
+      <c r="R68" s="161"/>
+      <c r="S68" s="162"/>
+      <c r="T68" s="163"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="162"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="64" t="s">
         <v>413</v>
       </c>
@@ -10368,7 +10392,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="162"/>
+      <c r="A70" s="159"/>
       <c r="B70" s="64" t="s">
         <v>420</v>
       </c>
@@ -10393,7 +10417,7 @@
       <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="163"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="67" t="s">
         <v>445</v>
       </c>
@@ -10418,7 +10442,7 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="158" t="s">
+      <c r="A72" s="155" t="s">
         <v>470</v>
       </c>
       <c r="B72" s="64" t="s">
@@ -10459,7 +10483,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="159"/>
+      <c r="A73" s="156"/>
       <c r="B73" s="64" t="s">
         <v>409</v>
       </c>
@@ -10498,7 +10522,7 @@
       <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="159"/>
+      <c r="A74" s="156"/>
       <c r="B74" s="64" t="s">
         <v>417</v>
       </c>
@@ -10537,7 +10561,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="159"/>
+      <c r="A75" s="156"/>
       <c r="B75" s="64" t="s">
         <v>416</v>
       </c>
@@ -10576,7 +10600,7 @@
       <c r="T75" s="63"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="159"/>
+      <c r="A76" s="156"/>
       <c r="B76" s="64" t="s">
         <v>414</v>
       </c>
@@ -10615,7 +10639,7 @@
       <c r="T76" s="63"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="159"/>
+      <c r="A77" s="156"/>
       <c r="B77" s="64" t="s">
         <v>412</v>
       </c>
@@ -10654,7 +10678,7 @@
       <c r="T77" s="63"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="159"/>
+      <c r="A78" s="156"/>
       <c r="B78" s="64" t="s">
         <v>419</v>
       </c>
@@ -10693,7 +10717,7 @@
       <c r="T78" s="63"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="159"/>
+      <c r="A79" s="156"/>
       <c r="B79" s="64" t="s">
         <v>411</v>
       </c>
@@ -10732,7 +10756,7 @@
       <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="159"/>
+      <c r="A80" s="156"/>
       <c r="B80" s="64" t="s">
         <v>415</v>
       </c>
@@ -10757,7 +10781,7 @@
       <c r="T80" s="63"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="159"/>
+      <c r="A81" s="156"/>
       <c r="B81" s="64" t="s">
         <v>418</v>
       </c>
@@ -10782,7 +10806,7 @@
       <c r="T81" s="63"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="159"/>
+      <c r="A82" s="156"/>
       <c r="B82" s="64" t="s">
         <v>410</v>
       </c>
@@ -10807,7 +10831,7 @@
       <c r="T82" s="63"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="159"/>
+      <c r="A83" s="156"/>
       <c r="B83" s="64" t="s">
         <v>210</v>
       </c>
@@ -10832,7 +10856,7 @@
       <c r="T83" s="63"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="159"/>
+      <c r="A84" s="156"/>
       <c r="B84" s="64" t="s">
         <v>413</v>
       </c>
@@ -10857,7 +10881,7 @@
       <c r="T84" s="63"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="159"/>
+      <c r="A85" s="156"/>
       <c r="B85" s="64" t="s">
         <v>420</v>
       </c>
@@ -10882,7 +10906,7 @@
       <c r="T85" s="63"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="160"/>
+      <c r="A86" s="157"/>
       <c r="B86" s="67" t="s">
         <v>445</v>
       </c>
@@ -10907,7 +10931,7 @@
       <c r="T86" s="63"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="158" t="s">
+      <c r="A87" s="155" t="s">
         <v>471</v>
       </c>
       <c r="B87" s="64" t="s">
@@ -10948,7 +10972,7 @@
       <c r="T87" s="63"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="159"/>
+      <c r="A88" s="156"/>
       <c r="B88" s="64" t="s">
         <v>409</v>
       </c>
@@ -10987,7 +11011,7 @@
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="159"/>
+      <c r="A89" s="156"/>
       <c r="B89" s="64" t="s">
         <v>417</v>
       </c>
@@ -11026,7 +11050,7 @@
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="159"/>
+      <c r="A90" s="156"/>
       <c r="B90" s="64" t="s">
         <v>416</v>
       </c>
@@ -11053,7 +11077,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="159"/>
+      <c r="A91" s="156"/>
       <c r="B91" s="64" t="s">
         <v>414</v>
       </c>
@@ -11080,7 +11104,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="159"/>
+      <c r="A92" s="156"/>
       <c r="B92" s="64" t="s">
         <v>412</v>
       </c>
@@ -11107,7 +11131,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="159"/>
+      <c r="A93" s="156"/>
       <c r="B93" s="64" t="s">
         <v>419</v>
       </c>
@@ -11134,7 +11158,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="159"/>
+      <c r="A94" s="156"/>
       <c r="B94" s="64" t="s">
         <v>411</v>
       </c>
@@ -11161,7 +11185,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="159"/>
+      <c r="A95" s="156"/>
       <c r="B95" s="64" t="s">
         <v>415</v>
       </c>
@@ -11174,7 +11198,7 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="159"/>
+      <c r="A96" s="156"/>
       <c r="B96" s="64" t="s">
         <v>418</v>
       </c>
@@ -11187,7 +11211,7 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="159"/>
+      <c r="A97" s="156"/>
       <c r="B97" s="64" t="s">
         <v>410</v>
       </c>
@@ -11200,7 +11224,7 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="159"/>
+      <c r="A98" s="156"/>
       <c r="B98" s="64" t="s">
         <v>210</v>
       </c>
@@ -11213,7 +11237,7 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="159"/>
+      <c r="A99" s="156"/>
       <c r="B99" s="64" t="s">
         <v>413</v>
       </c>
@@ -11226,7 +11250,7 @@
       <c r="I99" s="66"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="159"/>
+      <c r="A100" s="156"/>
       <c r="B100" s="64" t="s">
         <v>420</v>
       </c>
@@ -11239,7 +11263,7 @@
       <c r="I100" s="66"/>
     </row>
     <row r="101" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="160"/>
+      <c r="A101" s="157"/>
       <c r="B101" s="67" t="s">
         <v>445</v>
       </c>
@@ -11252,7 +11276,7 @@
       <c r="I101" s="66"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="158" t="s">
+      <c r="A102" s="155" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -11267,7 +11291,7 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="159"/>
+      <c r="A103" s="156"/>
       <c r="B103" s="64" t="s">
         <v>409</v>
       </c>
@@ -11280,7 +11304,7 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="159"/>
+      <c r="A104" s="156"/>
       <c r="B104" s="64" t="s">
         <v>417</v>
       </c>
@@ -11293,7 +11317,7 @@
       <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="159"/>
+      <c r="A105" s="156"/>
       <c r="B105" s="64" t="s">
         <v>416</v>
       </c>
@@ -11306,7 +11330,7 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="159"/>
+      <c r="A106" s="156"/>
       <c r="B106" s="64" t="s">
         <v>414</v>
       </c>
@@ -11319,7 +11343,7 @@
       <c r="I106" s="66"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="159"/>
+      <c r="A107" s="156"/>
       <c r="B107" s="64" t="s">
         <v>412</v>
       </c>
@@ -11332,7 +11356,7 @@
       <c r="I107" s="66"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="159"/>
+      <c r="A108" s="156"/>
       <c r="B108" s="64" t="s">
         <v>419</v>
       </c>
@@ -11345,7 +11369,7 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="159"/>
+      <c r="A109" s="156"/>
       <c r="B109" s="64" t="s">
         <v>411</v>
       </c>
@@ -11358,7 +11382,7 @@
       <c r="I109" s="66"/>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="159"/>
+      <c r="A110" s="156"/>
       <c r="B110" s="64" t="s">
         <v>415</v>
       </c>
@@ -11371,7 +11395,7 @@
       <c r="I110" s="66"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="159"/>
+      <c r="A111" s="156"/>
       <c r="B111" s="64" t="s">
         <v>418</v>
       </c>
@@ -11384,7 +11408,7 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="159"/>
+      <c r="A112" s="156"/>
       <c r="B112" s="64" t="s">
         <v>410</v>
       </c>
@@ -11396,8 +11420,8 @@
       <c r="H112" s="66"/>
       <c r="I112" s="66"/>
     </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="159"/>
+    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="156"/>
       <c r="B113" s="64" t="s">
         <v>210</v>
       </c>
@@ -11409,8 +11433,8 @@
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
     </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="159"/>
+    <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="156"/>
       <c r="B114" s="64" t="s">
         <v>413</v>
       </c>
@@ -11422,8 +11446,8 @@
       <c r="H114" s="66"/>
       <c r="I114" s="66"/>
     </row>
-    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="159"/>
+    <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="156"/>
       <c r="B115" s="64" t="s">
         <v>420</v>
       </c>
@@ -11434,9 +11458,18 @@
       <c r="G115" s="66"/>
       <c r="H115" s="66"/>
       <c r="I115" s="66"/>
-    </row>
-    <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="160"/>
+      <c r="L115" s="192">
+        <v>0.27</v>
+      </c>
+      <c r="M115" s="192">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N115" s="192">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="157"/>
       <c r="B116" s="67" t="s">
         <v>445</v>
       </c>
@@ -11447,9 +11480,18 @@
       <c r="G116" s="66"/>
       <c r="H116" s="66"/>
       <c r="I116" s="66"/>
-    </row>
-    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="161" t="s">
+      <c r="L116" s="192">
+        <v>0.08</v>
+      </c>
+      <c r="M116" s="192">
+        <v>0.05</v>
+      </c>
+      <c r="N116" s="192">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="158" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="64" t="s">
@@ -11462,9 +11504,18 @@
       <c r="G117" s="66"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
-    </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="162"/>
+      <c r="L117" s="192">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M117" s="192">
+        <v>0.1</v>
+      </c>
+      <c r="N117" s="192">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="159"/>
       <c r="B118" s="64" t="s">
         <v>409</v>
       </c>
@@ -11475,9 +11526,21 @@
       <c r="G118" s="66"/>
       <c r="H118" s="66"/>
       <c r="I118" s="66"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="162"/>
+      <c r="L118" s="98">
+        <f>AVERAGE(L115:L117)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M118" s="98">
+        <f t="shared" ref="M118:N118" si="7">AVERAGE(M115:M117)</f>
+        <v>9.6666666666666679E-2</v>
+      </c>
+      <c r="N118" s="98">
+        <f t="shared" si="7"/>
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="159"/>
       <c r="B119" s="64" t="s">
         <v>417</v>
       </c>
@@ -11489,8 +11552,8 @@
       <c r="H119" s="66"/>
       <c r="I119" s="66"/>
     </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="162"/>
+    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="159"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -11502,8 +11565,8 @@
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
     </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="162"/>
+    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="159"/>
       <c r="B121" s="64" t="s">
         <v>414</v>
       </c>
@@ -11515,8 +11578,8 @@
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
     </row>
-    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="162"/>
+    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="159"/>
       <c r="B122" s="64" t="s">
         <v>412</v>
       </c>
@@ -11528,8 +11591,8 @@
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
     </row>
-    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="162"/>
+    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="159"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -11541,8 +11604,8 @@
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
     </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="162"/>
+    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="159"/>
       <c r="B124" s="64" t="s">
         <v>411</v>
       </c>
@@ -11554,8 +11617,8 @@
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
     </row>
-    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="162"/>
+    <row r="125" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="159"/>
       <c r="B125" s="64" t="s">
         <v>415</v>
       </c>
@@ -11567,8 +11630,8 @@
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
     </row>
-    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="162"/>
+    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="159"/>
       <c r="B126" s="64" t="s">
         <v>418</v>
       </c>
@@ -11580,8 +11643,8 @@
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
     </row>
-    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="162"/>
+    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="159"/>
       <c r="B127" s="64" t="s">
         <v>410</v>
       </c>
@@ -11593,8 +11656,8 @@
       <c r="H127" s="66"/>
       <c r="I127" s="66"/>
     </row>
-    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="162"/>
+    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="159"/>
       <c r="B128" s="64" t="s">
         <v>210</v>
       </c>
@@ -11607,7 +11670,7 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="162"/>
+      <c r="A129" s="159"/>
       <c r="B129" s="64" t="s">
         <v>413</v>
       </c>
@@ -11620,7 +11683,7 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="162"/>
+      <c r="A130" s="159"/>
       <c r="B130" s="64" t="s">
         <v>420</v>
       </c>
@@ -11633,7 +11696,7 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="163"/>
+      <c r="A131" s="160"/>
       <c r="B131" s="67" t="s">
         <v>445</v>
       </c>
@@ -11647,18 +11710,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -11675,6 +11726,18 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11696,24 +11759,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="158" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="187" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="189" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="188"/>
       <c r="C2" s="63" t="s">
         <v>402</v>
       </c>
@@ -11734,7 +11797,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -11748,7 +11811,7 @@
       <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="64" t="s">
         <v>409</v>
       </c>
@@ -11760,7 +11823,7 @@
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="64" t="s">
         <v>410</v>
       </c>
@@ -11772,7 +11835,7 @@
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="64" t="s">
         <v>411</v>
       </c>
@@ -11784,7 +11847,7 @@
       <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="64" t="s">
         <v>210</v>
       </c>
@@ -11796,7 +11859,7 @@
       <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="64" t="s">
         <v>412</v>
       </c>
@@ -11808,7 +11871,7 @@
       <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="64" t="s">
         <v>413</v>
       </c>
@@ -11820,7 +11883,7 @@
       <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="64" t="s">
         <v>414</v>
       </c>
@@ -11832,7 +11895,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="64" t="s">
         <v>415</v>
       </c>
@@ -11844,7 +11907,7 @@
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="162"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="64" t="s">
         <v>416</v>
       </c>
@@ -11856,7 +11919,7 @@
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="64" t="s">
         <v>417</v>
       </c>
@@ -11868,7 +11931,7 @@
       <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="64" t="s">
         <v>418</v>
       </c>
@@ -11880,7 +11943,7 @@
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="64" t="s">
         <v>419</v>
       </c>
@@ -11892,7 +11955,7 @@
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="162"/>
+      <c r="A16" s="159"/>
       <c r="B16" s="64" t="s">
         <v>420</v>
       </c>
@@ -11904,7 +11967,7 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="64" t="s">
         <v>421</v>
       </c>
@@ -11916,7 +11979,7 @@
       <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="64" t="s">
         <v>422</v>
       </c>
@@ -11928,7 +11991,7 @@
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="162"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="64" t="s">
         <v>224</v>
       </c>
@@ -11940,7 +12003,7 @@
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="162"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="64" t="s">
         <v>423</v>
       </c>
@@ -11952,7 +12015,7 @@
       <c r="H20" s="63"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="162"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="64" t="s">
         <v>424</v>
       </c>
@@ -11964,7 +12027,7 @@
       <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="162"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="64" t="s">
         <v>425</v>
       </c>
@@ -11976,7 +12039,7 @@
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="162"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="64" t="s">
         <v>426</v>
       </c>
@@ -11988,7 +12051,7 @@
       <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="162"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="64" t="s">
         <v>427</v>
       </c>
@@ -12000,7 +12063,7 @@
       <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="162"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="64" t="s">
         <v>428</v>
       </c>
@@ -12012,7 +12075,7 @@
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="162"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="64" t="s">
         <v>429</v>
       </c>
@@ -12024,7 +12087,7 @@
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="162"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -12036,7 +12099,7 @@
       <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="162"/>
+      <c r="A28" s="159"/>
       <c r="B28" s="64" t="s">
         <v>431</v>
       </c>
@@ -12048,7 +12111,7 @@
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="162"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="64" t="s">
         <v>432</v>
       </c>
@@ -12060,7 +12123,7 @@
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="162"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="64" t="s">
         <v>433</v>
       </c>
@@ -12072,7 +12135,7 @@
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="162"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="64" t="s">
         <v>434</v>
       </c>
@@ -12084,7 +12147,7 @@
       <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="162"/>
+      <c r="A32" s="159"/>
       <c r="B32" s="64" t="s">
         <v>435</v>
       </c>
@@ -12096,7 +12159,7 @@
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="64" t="s">
         <v>436</v>
       </c>
@@ -12108,7 +12171,7 @@
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="162"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="64" t="s">
         <v>437</v>
       </c>
@@ -12120,7 +12183,7 @@
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="162"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="64" t="s">
         <v>438</v>
       </c>
@@ -12132,7 +12195,7 @@
       <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="162"/>
+      <c r="A36" s="159"/>
       <c r="B36" s="64" t="s">
         <v>439</v>
       </c>
@@ -12144,7 +12207,7 @@
       <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="162"/>
+      <c r="A37" s="159"/>
       <c r="B37" s="64" t="s">
         <v>398</v>
       </c>
@@ -12156,7 +12219,7 @@
       <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="163"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="64" t="s">
         <v>440</v>
       </c>
@@ -12168,7 +12231,7 @@
       <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="158" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -12182,7 +12245,7 @@
       <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="162"/>
+      <c r="A40" s="159"/>
       <c r="B40" s="64" t="s">
         <v>409</v>
       </c>
@@ -12194,7 +12257,7 @@
       <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="162"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="64" t="s">
         <v>410</v>
       </c>
@@ -12206,7 +12269,7 @@
       <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="162"/>
+      <c r="A42" s="159"/>
       <c r="B42" s="64" t="s">
         <v>411</v>
       </c>
@@ -12218,7 +12281,7 @@
       <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="162"/>
+      <c r="A43" s="159"/>
       <c r="B43" s="64" t="s">
         <v>210</v>
       </c>
@@ -12230,7 +12293,7 @@
       <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="162"/>
+      <c r="A44" s="159"/>
       <c r="B44" s="64" t="s">
         <v>412</v>
       </c>
@@ -12242,7 +12305,7 @@
       <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="64" t="s">
         <v>413</v>
       </c>
@@ -12254,7 +12317,7 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="64" t="s">
         <v>414</v>
       </c>
@@ -12266,7 +12329,7 @@
       <c r="H46" s="63"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="162"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="64" t="s">
         <v>415</v>
       </c>
@@ -12278,7 +12341,7 @@
       <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="162"/>
+      <c r="A48" s="159"/>
       <c r="B48" s="64" t="s">
         <v>416</v>
       </c>
@@ -12290,7 +12353,7 @@
       <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="64" t="s">
         <v>417</v>
       </c>
@@ -12302,7 +12365,7 @@
       <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="64" t="s">
         <v>418</v>
       </c>
@@ -12314,7 +12377,7 @@
       <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
+      <c r="A51" s="159"/>
       <c r="B51" s="64" t="s">
         <v>419</v>
       </c>
@@ -12326,7 +12389,7 @@
       <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="162"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="64" t="s">
         <v>420</v>
       </c>
@@ -12338,7 +12401,7 @@
       <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="64" t="s">
         <v>421</v>
       </c>
@@ -12350,7 +12413,7 @@
       <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="162"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="64" t="s">
         <v>422</v>
       </c>
@@ -12362,7 +12425,7 @@
       <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="162"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="64" t="s">
         <v>224</v>
       </c>
@@ -12374,7 +12437,7 @@
       <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="162"/>
+      <c r="A56" s="159"/>
       <c r="B56" s="64" t="s">
         <v>423</v>
       </c>
@@ -12386,7 +12449,7 @@
       <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="162"/>
+      <c r="A57" s="159"/>
       <c r="B57" s="64" t="s">
         <v>424</v>
       </c>
@@ -12398,7 +12461,7 @@
       <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="162"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="64" t="s">
         <v>425</v>
       </c>
@@ -12410,7 +12473,7 @@
       <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="162"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="64" t="s">
         <v>426</v>
       </c>
@@ -12422,7 +12485,7 @@
       <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="162"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="64" t="s">
         <v>427</v>
       </c>
@@ -12434,7 +12497,7 @@
       <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="162"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="64" t="s">
         <v>428</v>
       </c>
@@ -12446,7 +12509,7 @@
       <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="162"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="64" t="s">
         <v>429</v>
       </c>
@@ -12458,7 +12521,7 @@
       <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="162"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="64" t="s">
         <v>430</v>
       </c>
@@ -12470,7 +12533,7 @@
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="162"/>
+      <c r="A64" s="159"/>
       <c r="B64" s="64" t="s">
         <v>431</v>
       </c>
@@ -12482,7 +12545,7 @@
       <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="162"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="64" t="s">
         <v>432</v>
       </c>
@@ -12494,7 +12557,7 @@
       <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="162"/>
+      <c r="A66" s="159"/>
       <c r="B66" s="64" t="s">
         <v>433</v>
       </c>
@@ -12506,7 +12569,7 @@
       <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="162"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="64" t="s">
         <v>434</v>
       </c>
@@ -12518,7 +12581,7 @@
       <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="162"/>
+      <c r="A68" s="159"/>
       <c r="B68" s="64" t="s">
         <v>435</v>
       </c>
@@ -12530,7 +12593,7 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="162"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="64" t="s">
         <v>436</v>
       </c>
@@ -12542,7 +12605,7 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="162"/>
+      <c r="A70" s="159"/>
       <c r="B70" s="64" t="s">
         <v>437</v>
       </c>
@@ -12554,7 +12617,7 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="162"/>
+      <c r="A71" s="159"/>
       <c r="B71" s="64" t="s">
         <v>438</v>
       </c>
@@ -12566,7 +12629,7 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="162"/>
+      <c r="A72" s="159"/>
       <c r="B72" s="64" t="s">
         <v>439</v>
       </c>
@@ -12578,7 +12641,7 @@
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="162"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="64" t="s">
         <v>398</v>
       </c>
@@ -12590,7 +12653,7 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="163"/>
+      <c r="A74" s="160"/>
       <c r="B74" s="64" t="s">
         <v>440</v>
       </c>
@@ -12602,7 +12665,7 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="161" t="s">
+      <c r="A75" s="158" t="s">
         <v>443</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -12616,7 +12679,7 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="162"/>
+      <c r="A76" s="159"/>
       <c r="B76" s="64" t="s">
         <v>409</v>
       </c>
@@ -12628,7 +12691,7 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="162"/>
+      <c r="A77" s="159"/>
       <c r="B77" s="64" t="s">
         <v>410</v>
       </c>
@@ -12640,7 +12703,7 @@
       <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="162"/>
+      <c r="A78" s="159"/>
       <c r="B78" s="64" t="s">
         <v>411</v>
       </c>
@@ -12652,7 +12715,7 @@
       <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="162"/>
+      <c r="A79" s="159"/>
       <c r="B79" s="64" t="s">
         <v>210</v>
       </c>
@@ -12664,7 +12727,7 @@
       <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="162"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="64" t="s">
         <v>412</v>
       </c>
@@ -12676,7 +12739,7 @@
       <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="162"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="64" t="s">
         <v>413</v>
       </c>
@@ -12688,7 +12751,7 @@
       <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="162"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="64" t="s">
         <v>414</v>
       </c>
@@ -12700,7 +12763,7 @@
       <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="162"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="64" t="s">
         <v>415</v>
       </c>
@@ -12712,7 +12775,7 @@
       <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="162"/>
+      <c r="A84" s="159"/>
       <c r="B84" s="64" t="s">
         <v>416</v>
       </c>
@@ -12724,7 +12787,7 @@
       <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="162"/>
+      <c r="A85" s="159"/>
       <c r="B85" s="64" t="s">
         <v>417</v>
       </c>
@@ -12736,7 +12799,7 @@
       <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="162"/>
+      <c r="A86" s="159"/>
       <c r="B86" s="64" t="s">
         <v>418</v>
       </c>
@@ -12748,7 +12811,7 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="162"/>
+      <c r="A87" s="159"/>
       <c r="B87" s="64" t="s">
         <v>419</v>
       </c>
@@ -12760,7 +12823,7 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="162"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="64" t="s">
         <v>420</v>
       </c>
@@ -12772,7 +12835,7 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="162"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="64" t="s">
         <v>421</v>
       </c>
@@ -12784,7 +12847,7 @@
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="162"/>
+      <c r="A90" s="159"/>
       <c r="B90" s="64" t="s">
         <v>422</v>
       </c>
@@ -12796,7 +12859,7 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="162"/>
+      <c r="A91" s="159"/>
       <c r="B91" s="64" t="s">
         <v>224</v>
       </c>
@@ -12808,7 +12871,7 @@
       <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="162"/>
+      <c r="A92" s="159"/>
       <c r="B92" s="64" t="s">
         <v>423</v>
       </c>
@@ -12820,7 +12883,7 @@
       <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="162"/>
+      <c r="A93" s="159"/>
       <c r="B93" s="64" t="s">
         <v>424</v>
       </c>
@@ -12832,7 +12895,7 @@
       <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="162"/>
+      <c r="A94" s="159"/>
       <c r="B94" s="64" t="s">
         <v>425</v>
       </c>
@@ -12844,7 +12907,7 @@
       <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="162"/>
+      <c r="A95" s="159"/>
       <c r="B95" s="64" t="s">
         <v>426</v>
       </c>
@@ -12856,7 +12919,7 @@
       <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="162"/>
+      <c r="A96" s="159"/>
       <c r="B96" s="64" t="s">
         <v>427</v>
       </c>
@@ -12868,7 +12931,7 @@
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="162"/>
+      <c r="A97" s="159"/>
       <c r="B97" s="64" t="s">
         <v>428</v>
       </c>
@@ -12880,7 +12943,7 @@
       <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="162"/>
+      <c r="A98" s="159"/>
       <c r="B98" s="64" t="s">
         <v>429</v>
       </c>
@@ -12892,7 +12955,7 @@
       <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="162"/>
+      <c r="A99" s="159"/>
       <c r="B99" s="64" t="s">
         <v>430</v>
       </c>
@@ -12904,7 +12967,7 @@
       <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="162"/>
+      <c r="A100" s="159"/>
       <c r="B100" s="64" t="s">
         <v>431</v>
       </c>
@@ -12916,7 +12979,7 @@
       <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="162"/>
+      <c r="A101" s="159"/>
       <c r="B101" s="64" t="s">
         <v>432</v>
       </c>
@@ -12928,7 +12991,7 @@
       <c r="H101" s="63"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="162"/>
+      <c r="A102" s="159"/>
       <c r="B102" s="64" t="s">
         <v>433</v>
       </c>
@@ -12940,7 +13003,7 @@
       <c r="H102" s="63"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="162"/>
+      <c r="A103" s="159"/>
       <c r="B103" s="64" t="s">
         <v>434</v>
       </c>
@@ -12952,7 +13015,7 @@
       <c r="H103" s="63"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="162"/>
+      <c r="A104" s="159"/>
       <c r="B104" s="64" t="s">
         <v>435</v>
       </c>
@@ -12964,7 +13027,7 @@
       <c r="H104" s="63"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="162"/>
+      <c r="A105" s="159"/>
       <c r="B105" s="64" t="s">
         <v>436</v>
       </c>
@@ -12976,7 +13039,7 @@
       <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="162"/>
+      <c r="A106" s="159"/>
       <c r="B106" s="64" t="s">
         <v>437</v>
       </c>
@@ -12988,7 +13051,7 @@
       <c r="H106" s="63"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="162"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="64" t="s">
         <v>438</v>
       </c>
@@ -13000,7 +13063,7 @@
       <c r="H107" s="63"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="162"/>
+      <c r="A108" s="159"/>
       <c r="B108" s="64" t="s">
         <v>439</v>
       </c>
@@ -13012,7 +13075,7 @@
       <c r="H108" s="63"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="162"/>
+      <c r="A109" s="159"/>
       <c r="B109" s="64" t="s">
         <v>398</v>
       </c>
@@ -13024,7 +13087,7 @@
       <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="163"/>
+      <c r="A110" s="160"/>
       <c r="B110" s="64" t="s">
         <v>440</v>
       </c>
@@ -13036,7 +13099,7 @@
       <c r="H110" s="63"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="161" t="s">
+      <c r="A111" s="158" t="s">
         <v>444</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -13050,7 +13113,7 @@
       <c r="H111" s="63"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="162"/>
+      <c r="A112" s="159"/>
       <c r="B112" s="64" t="s">
         <v>409</v>
       </c>
@@ -13062,7 +13125,7 @@
       <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="162"/>
+      <c r="A113" s="159"/>
       <c r="B113" s="64" t="s">
         <v>410</v>
       </c>
@@ -13074,7 +13137,7 @@
       <c r="H113" s="63"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="162"/>
+      <c r="A114" s="159"/>
       <c r="B114" s="64" t="s">
         <v>411</v>
       </c>
@@ -13086,7 +13149,7 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="162"/>
+      <c r="A115" s="159"/>
       <c r="B115" s="64" t="s">
         <v>210</v>
       </c>
@@ -13098,7 +13161,7 @@
       <c r="H115" s="63"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="162"/>
+      <c r="A116" s="159"/>
       <c r="B116" s="64" t="s">
         <v>412</v>
       </c>
@@ -13110,7 +13173,7 @@
       <c r="H116" s="63"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="162"/>
+      <c r="A117" s="159"/>
       <c r="B117" s="64" t="s">
         <v>413</v>
       </c>
@@ -13122,7 +13185,7 @@
       <c r="H117" s="63"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="162"/>
+      <c r="A118" s="159"/>
       <c r="B118" s="64" t="s">
         <v>414</v>
       </c>
@@ -13134,7 +13197,7 @@
       <c r="H118" s="63"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="162"/>
+      <c r="A119" s="159"/>
       <c r="B119" s="64" t="s">
         <v>415</v>
       </c>
@@ -13146,7 +13209,7 @@
       <c r="H119" s="63"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="162"/>
+      <c r="A120" s="159"/>
       <c r="B120" s="64" t="s">
         <v>416</v>
       </c>
@@ -13158,7 +13221,7 @@
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="162"/>
+      <c r="A121" s="159"/>
       <c r="B121" s="64" t="s">
         <v>417</v>
       </c>
@@ -13170,7 +13233,7 @@
       <c r="H121" s="63"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="162"/>
+      <c r="A122" s="159"/>
       <c r="B122" s="64" t="s">
         <v>418</v>
       </c>
@@ -13182,7 +13245,7 @@
       <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="162"/>
+      <c r="A123" s="159"/>
       <c r="B123" s="64" t="s">
         <v>419</v>
       </c>
@@ -13194,7 +13257,7 @@
       <c r="H123" s="63"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="162"/>
+      <c r="A124" s="159"/>
       <c r="B124" s="64" t="s">
         <v>420</v>
       </c>
@@ -13206,7 +13269,7 @@
       <c r="H124" s="63"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="162"/>
+      <c r="A125" s="159"/>
       <c r="B125" s="64" t="s">
         <v>421</v>
       </c>
@@ -13218,7 +13281,7 @@
       <c r="H125" s="63"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="162"/>
+      <c r="A126" s="159"/>
       <c r="B126" s="64" t="s">
         <v>422</v>
       </c>
@@ -13230,7 +13293,7 @@
       <c r="H126" s="63"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="162"/>
+      <c r="A127" s="159"/>
       <c r="B127" s="64" t="s">
         <v>224</v>
       </c>
@@ -13242,7 +13305,7 @@
       <c r="H127" s="63"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="162"/>
+      <c r="A128" s="159"/>
       <c r="B128" s="64" t="s">
         <v>423</v>
       </c>
@@ -13254,7 +13317,7 @@
       <c r="H128" s="63"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="162"/>
+      <c r="A129" s="159"/>
       <c r="B129" s="64" t="s">
         <v>424</v>
       </c>
@@ -13266,7 +13329,7 @@
       <c r="H129" s="63"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="162"/>
+      <c r="A130" s="159"/>
       <c r="B130" s="64" t="s">
         <v>425</v>
       </c>
@@ -13278,7 +13341,7 @@
       <c r="H130" s="63"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="162"/>
+      <c r="A131" s="159"/>
       <c r="B131" s="64" t="s">
         <v>426</v>
       </c>
@@ -13290,7 +13353,7 @@
       <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="162"/>
+      <c r="A132" s="159"/>
       <c r="B132" s="64" t="s">
         <v>427</v>
       </c>
@@ -13302,7 +13365,7 @@
       <c r="H132" s="63"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="162"/>
+      <c r="A133" s="159"/>
       <c r="B133" s="64" t="s">
         <v>428</v>
       </c>
@@ -13314,7 +13377,7 @@
       <c r="H133" s="63"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="162"/>
+      <c r="A134" s="159"/>
       <c r="B134" s="64" t="s">
         <v>429</v>
       </c>
@@ -13326,7 +13389,7 @@
       <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="162"/>
+      <c r="A135" s="159"/>
       <c r="B135" s="64" t="s">
         <v>430</v>
       </c>
@@ -13338,7 +13401,7 @@
       <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="162"/>
+      <c r="A136" s="159"/>
       <c r="B136" s="64" t="s">
         <v>431</v>
       </c>
@@ -13350,7 +13413,7 @@
       <c r="H136" s="63"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="162"/>
+      <c r="A137" s="159"/>
       <c r="B137" s="64" t="s">
         <v>432</v>
       </c>
@@ -13362,7 +13425,7 @@
       <c r="H137" s="63"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="162"/>
+      <c r="A138" s="159"/>
       <c r="B138" s="64" t="s">
         <v>433</v>
       </c>
@@ -13374,7 +13437,7 @@
       <c r="H138" s="63"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="162"/>
+      <c r="A139" s="159"/>
       <c r="B139" s="64" t="s">
         <v>434</v>
       </c>
@@ -13386,7 +13449,7 @@
       <c r="H139" s="63"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="162"/>
+      <c r="A140" s="159"/>
       <c r="B140" s="64" t="s">
         <v>435</v>
       </c>
@@ -13398,7 +13461,7 @@
       <c r="H140" s="63"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="162"/>
+      <c r="A141" s="159"/>
       <c r="B141" s="64" t="s">
         <v>436</v>
       </c>
@@ -13410,7 +13473,7 @@
       <c r="H141" s="63"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="162"/>
+      <c r="A142" s="159"/>
       <c r="B142" s="64" t="s">
         <v>437</v>
       </c>
@@ -13422,7 +13485,7 @@
       <c r="H142" s="63"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="162"/>
+      <c r="A143" s="159"/>
       <c r="B143" s="64" t="s">
         <v>438</v>
       </c>
@@ -13434,7 +13497,7 @@
       <c r="H143" s="63"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="162"/>
+      <c r="A144" s="159"/>
       <c r="B144" s="64" t="s">
         <v>439</v>
       </c>
@@ -13446,7 +13509,7 @@
       <c r="H144" s="63"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="162"/>
+      <c r="A145" s="159"/>
       <c r="B145" s="64" t="s">
         <v>398</v>
       </c>
@@ -13458,7 +13521,7 @@
       <c r="H145" s="63"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="163"/>
+      <c r="A146" s="160"/>
       <c r="B146" s="64" t="s">
         <v>440</v>
       </c>
@@ -13471,7 +13534,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="161" t="s">
+      <c r="A152" s="158" t="s">
         <v>400</v>
       </c>
       <c r="B152" s="164" t="s">
@@ -13487,7 +13550,7 @@
       <c r="H152" s="168"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="163"/>
+      <c r="A153" s="160"/>
       <c r="B153" s="165"/>
       <c r="C153" s="63" t="s">
         <v>402</v>
@@ -13509,7 +13572,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="161" t="s">
+      <c r="A154" s="158" t="s">
         <v>407</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -13523,7 +13586,7 @@
       <c r="H154" s="66"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="162"/>
+      <c r="A155" s="159"/>
       <c r="B155" s="64" t="s">
         <v>409</v>
       </c>
@@ -13535,7 +13598,7 @@
       <c r="H155" s="66"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="162"/>
+      <c r="A156" s="159"/>
       <c r="B156" s="64" t="s">
         <v>410</v>
       </c>
@@ -13547,7 +13610,7 @@
       <c r="H156" s="66"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="162"/>
+      <c r="A157" s="159"/>
       <c r="B157" s="64" t="s">
         <v>411</v>
       </c>
@@ -13559,7 +13622,7 @@
       <c r="H157" s="66"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="162"/>
+      <c r="A158" s="159"/>
       <c r="B158" s="64" t="s">
         <v>210</v>
       </c>
@@ -13571,7 +13634,7 @@
       <c r="H158" s="66"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="162"/>
+      <c r="A159" s="159"/>
       <c r="B159" s="64" t="s">
         <v>412</v>
       </c>
@@ -13583,7 +13646,7 @@
       <c r="H159" s="66"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="162"/>
+      <c r="A160" s="159"/>
       <c r="B160" s="64" t="s">
         <v>413</v>
       </c>
@@ -13595,7 +13658,7 @@
       <c r="H160" s="66"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="162"/>
+      <c r="A161" s="159"/>
       <c r="B161" s="64" t="s">
         <v>414</v>
       </c>
@@ -13607,7 +13670,7 @@
       <c r="H161" s="66"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="162"/>
+      <c r="A162" s="159"/>
       <c r="B162" s="64" t="s">
         <v>415</v>
       </c>
@@ -13619,7 +13682,7 @@
       <c r="H162" s="66"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="162"/>
+      <c r="A163" s="159"/>
       <c r="B163" s="64" t="s">
         <v>416</v>
       </c>
@@ -13631,7 +13694,7 @@
       <c r="H163" s="66"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="162"/>
+      <c r="A164" s="159"/>
       <c r="B164" s="64" t="s">
         <v>417</v>
       </c>
@@ -13643,7 +13706,7 @@
       <c r="H164" s="66"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="162"/>
+      <c r="A165" s="159"/>
       <c r="B165" s="64" t="s">
         <v>418</v>
       </c>
@@ -13655,7 +13718,7 @@
       <c r="H165" s="66"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="162"/>
+      <c r="A166" s="159"/>
       <c r="B166" s="64" t="s">
         <v>419</v>
       </c>
@@ -13667,7 +13730,7 @@
       <c r="H166" s="66"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="162"/>
+      <c r="A167" s="159"/>
       <c r="B167" s="64" t="s">
         <v>420</v>
       </c>
@@ -13679,7 +13742,7 @@
       <c r="H167" s="66"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="163"/>
+      <c r="A168" s="160"/>
       <c r="B168" s="67" t="s">
         <v>445</v>
       </c>
@@ -13691,7 +13754,7 @@
       <c r="H168" s="66"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="161" t="s">
+      <c r="A169" s="158" t="s">
         <v>441</v>
       </c>
       <c r="B169" s="64" t="s">
@@ -13705,7 +13768,7 @@
       <c r="H169" s="66"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="162"/>
+      <c r="A170" s="159"/>
       <c r="B170" s="64" t="s">
         <v>409</v>
       </c>
@@ -13717,7 +13780,7 @@
       <c r="H170" s="66"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="162"/>
+      <c r="A171" s="159"/>
       <c r="B171" s="64" t="s">
         <v>410</v>
       </c>
@@ -13729,7 +13792,7 @@
       <c r="H171" s="66"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="162"/>
+      <c r="A172" s="159"/>
       <c r="B172" s="64" t="s">
         <v>411</v>
       </c>
@@ -13741,7 +13804,7 @@
       <c r="H172" s="66"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="162"/>
+      <c r="A173" s="159"/>
       <c r="B173" s="64" t="s">
         <v>210</v>
       </c>
@@ -13753,7 +13816,7 @@
       <c r="H173" s="66"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="162"/>
+      <c r="A174" s="159"/>
       <c r="B174" s="64" t="s">
         <v>412</v>
       </c>
@@ -13765,7 +13828,7 @@
       <c r="H174" s="66"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="162"/>
+      <c r="A175" s="159"/>
       <c r="B175" s="64" t="s">
         <v>413</v>
       </c>
@@ -13777,7 +13840,7 @@
       <c r="H175" s="66"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="162"/>
+      <c r="A176" s="159"/>
       <c r="B176" s="64" t="s">
         <v>414</v>
       </c>
@@ -13789,7 +13852,7 @@
       <c r="H176" s="66"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="162"/>
+      <c r="A177" s="159"/>
       <c r="B177" s="64" t="s">
         <v>415</v>
       </c>
@@ -13801,7 +13864,7 @@
       <c r="H177" s="66"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="162"/>
+      <c r="A178" s="159"/>
       <c r="B178" s="64" t="s">
         <v>416</v>
       </c>
@@ -13813,7 +13876,7 @@
       <c r="H178" s="66"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="162"/>
+      <c r="A179" s="159"/>
       <c r="B179" s="64" t="s">
         <v>417</v>
       </c>
@@ -13825,7 +13888,7 @@
       <c r="H179" s="66"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="162"/>
+      <c r="A180" s="159"/>
       <c r="B180" s="64" t="s">
         <v>418</v>
       </c>
@@ -13837,7 +13900,7 @@
       <c r="H180" s="66"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="162"/>
+      <c r="A181" s="159"/>
       <c r="B181" s="64" t="s">
         <v>419</v>
       </c>
@@ -13849,7 +13912,7 @@
       <c r="H181" s="66"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="162"/>
+      <c r="A182" s="159"/>
       <c r="B182" s="64" t="s">
         <v>420</v>
       </c>
@@ -13861,7 +13924,7 @@
       <c r="H182" s="66"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="163"/>
+      <c r="A183" s="160"/>
       <c r="B183" s="67" t="s">
         <v>445</v>
       </c>
@@ -13873,7 +13936,7 @@
       <c r="H183" s="66"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="161" t="s">
+      <c r="A184" s="158" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="64" t="s">
@@ -13887,7 +13950,7 @@
       <c r="H184" s="66"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="162"/>
+      <c r="A185" s="159"/>
       <c r="B185" s="64" t="s">
         <v>409</v>
       </c>
@@ -13899,7 +13962,7 @@
       <c r="H185" s="66"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="162"/>
+      <c r="A186" s="159"/>
       <c r="B186" s="64" t="s">
         <v>410</v>
       </c>
@@ -13911,7 +13974,7 @@
       <c r="H186" s="66"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="162"/>
+      <c r="A187" s="159"/>
       <c r="B187" s="64" t="s">
         <v>411</v>
       </c>
@@ -13923,7 +13986,7 @@
       <c r="H187" s="66"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="162"/>
+      <c r="A188" s="159"/>
       <c r="B188" s="64" t="s">
         <v>210</v>
       </c>
@@ -13935,7 +13998,7 @@
       <c r="H188" s="66"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="162"/>
+      <c r="A189" s="159"/>
       <c r="B189" s="64" t="s">
         <v>412</v>
       </c>
@@ -13947,7 +14010,7 @@
       <c r="H189" s="66"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="162"/>
+      <c r="A190" s="159"/>
       <c r="B190" s="64" t="s">
         <v>413</v>
       </c>
@@ -13959,7 +14022,7 @@
       <c r="H190" s="66"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="162"/>
+      <c r="A191" s="159"/>
       <c r="B191" s="64" t="s">
         <v>414</v>
       </c>
@@ -13971,7 +14034,7 @@
       <c r="H191" s="66"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="162"/>
+      <c r="A192" s="159"/>
       <c r="B192" s="64" t="s">
         <v>415</v>
       </c>
@@ -13983,7 +14046,7 @@
       <c r="H192" s="66"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="162"/>
+      <c r="A193" s="159"/>
       <c r="B193" s="64" t="s">
         <v>416</v>
       </c>
@@ -13995,7 +14058,7 @@
       <c r="H193" s="66"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="162"/>
+      <c r="A194" s="159"/>
       <c r="B194" s="64" t="s">
         <v>417</v>
       </c>
@@ -14007,7 +14070,7 @@
       <c r="H194" s="66"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="162"/>
+      <c r="A195" s="159"/>
       <c r="B195" s="64" t="s">
         <v>418</v>
       </c>
@@ -14019,7 +14082,7 @@
       <c r="H195" s="66"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="162"/>
+      <c r="A196" s="159"/>
       <c r="B196" s="64" t="s">
         <v>419</v>
       </c>
@@ -14031,7 +14094,7 @@
       <c r="H196" s="66"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="162"/>
+      <c r="A197" s="159"/>
       <c r="B197" s="64" t="s">
         <v>420</v>
       </c>
@@ -14043,7 +14106,7 @@
       <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="163"/>
+      <c r="A198" s="160"/>
       <c r="B198" s="67" t="s">
         <v>445</v>
       </c>
@@ -14055,7 +14118,7 @@
       <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="161" t="s">
+      <c r="A199" s="158" t="s">
         <v>447</v>
       </c>
       <c r="B199" s="64" t="s">
@@ -14069,7 +14132,7 @@
       <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="162"/>
+      <c r="A200" s="159"/>
       <c r="B200" s="64" t="s">
         <v>409</v>
       </c>
@@ -14081,7 +14144,7 @@
       <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="162"/>
+      <c r="A201" s="159"/>
       <c r="B201" s="64" t="s">
         <v>410</v>
       </c>
@@ -14093,7 +14156,7 @@
       <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="162"/>
+      <c r="A202" s="159"/>
       <c r="B202" s="64" t="s">
         <v>411</v>
       </c>
@@ -14105,7 +14168,7 @@
       <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="162"/>
+      <c r="A203" s="159"/>
       <c r="B203" s="64" t="s">
         <v>210</v>
       </c>
@@ -14117,7 +14180,7 @@
       <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="162"/>
+      <c r="A204" s="159"/>
       <c r="B204" s="64" t="s">
         <v>412</v>
       </c>
@@ -14129,7 +14192,7 @@
       <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="162"/>
+      <c r="A205" s="159"/>
       <c r="B205" s="64" t="s">
         <v>413</v>
       </c>
@@ -14141,7 +14204,7 @@
       <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="162"/>
+      <c r="A206" s="159"/>
       <c r="B206" s="64" t="s">
         <v>414</v>
       </c>
@@ -14153,7 +14216,7 @@
       <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="162"/>
+      <c r="A207" s="159"/>
       <c r="B207" s="64" t="s">
         <v>415</v>
       </c>
@@ -14165,7 +14228,7 @@
       <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="162"/>
+      <c r="A208" s="159"/>
       <c r="B208" s="64" t="s">
         <v>416</v>
       </c>
@@ -14177,7 +14240,7 @@
       <c r="H208" s="66"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="162"/>
+      <c r="A209" s="159"/>
       <c r="B209" s="64" t="s">
         <v>417</v>
       </c>
@@ -14189,7 +14252,7 @@
       <c r="H209" s="66"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="162"/>
+      <c r="A210" s="159"/>
       <c r="B210" s="64" t="s">
         <v>418</v>
       </c>
@@ -14201,7 +14264,7 @@
       <c r="H210" s="66"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="162"/>
+      <c r="A211" s="159"/>
       <c r="B211" s="64" t="s">
         <v>419</v>
       </c>
@@ -14213,7 +14276,7 @@
       <c r="H211" s="66"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="162"/>
+      <c r="A212" s="159"/>
       <c r="B212" s="64" t="s">
         <v>420</v>
       </c>
@@ -14225,7 +14288,7 @@
       <c r="H212" s="66"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="163"/>
+      <c r="A213" s="160"/>
       <c r="B213" s="67" t="s">
         <v>445</v>
       </c>
@@ -14295,23 +14358,23 @@
       <c r="G256" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="H256" s="177" t="s">
+      <c r="H256" s="172" t="s">
         <v>508</v>
       </c>
-      <c r="I256" s="177" t="s">
+      <c r="I256" s="172" t="s">
         <v>509</v>
       </c>
-      <c r="J256" s="180" t="s">
+      <c r="J256" s="184" t="s">
         <v>510</v>
       </c>
-      <c r="K256" s="181"/>
-      <c r="L256" s="181"/>
-      <c r="M256" s="181"/>
-      <c r="N256" s="181"/>
-      <c r="O256" s="181"/>
-      <c r="P256" s="181"/>
-      <c r="Q256" s="181"/>
-      <c r="R256" s="182"/>
+      <c r="K256" s="185"/>
+      <c r="L256" s="185"/>
+      <c r="M256" s="185"/>
+      <c r="N256" s="185"/>
+      <c r="O256" s="185"/>
+      <c r="P256" s="185"/>
+      <c r="Q256" s="185"/>
+      <c r="R256" s="186"/>
     </row>
     <row r="257" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C257" s="87">
@@ -14321,21 +14384,21 @@
       <c r="G257" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="H257" s="178"/>
-      <c r="I257" s="178"/>
+      <c r="H257" s="176"/>
+      <c r="I257" s="176"/>
       <c r="J257" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="K257" s="180" t="s">
+      <c r="K257" s="184" t="s">
         <v>513</v>
       </c>
-      <c r="L257" s="181"/>
-      <c r="M257" s="181"/>
-      <c r="N257" s="181"/>
-      <c r="O257" s="181"/>
-      <c r="P257" s="181"/>
-      <c r="Q257" s="181"/>
-      <c r="R257" s="182"/>
+      <c r="L257" s="185"/>
+      <c r="M257" s="185"/>
+      <c r="N257" s="185"/>
+      <c r="O257" s="185"/>
+      <c r="P257" s="185"/>
+      <c r="Q257" s="185"/>
+      <c r="R257" s="186"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258">
@@ -14349,8 +14412,8 @@
         <v>0.71835443037974678</v>
       </c>
       <c r="G258" s="90"/>
-      <c r="H258" s="178"/>
-      <c r="I258" s="178"/>
+      <c r="H258" s="176"/>
+      <c r="I258" s="176"/>
       <c r="J258" s="92" t="s">
         <v>512</v>
       </c>
@@ -14366,16 +14429,16 @@
       <c r="N258" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="O258" s="177" t="s">
+      <c r="O258" s="172" t="s">
         <v>519</v>
       </c>
-      <c r="P258" s="183" t="s">
+      <c r="P258" s="174" t="s">
         <v>520</v>
       </c>
       <c r="Q258" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="R258" s="183" t="s">
+      <c r="R258" s="174" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14391,8 +14454,8 @@
         <v>0.40242611761702957</v>
       </c>
       <c r="G259" s="91"/>
-      <c r="H259" s="179"/>
-      <c r="I259" s="179"/>
+      <c r="H259" s="173"/>
+      <c r="I259" s="173"/>
       <c r="J259" s="93"/>
       <c r="K259" s="94" t="s">
         <v>515</v>
@@ -14406,21 +14469,21 @@
       <c r="N259" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="O259" s="179"/>
-      <c r="P259" s="184"/>
+      <c r="O259" s="173"/>
+      <c r="P259" s="175"/>
       <c r="Q259" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="R259" s="184"/>
+      <c r="R259" s="175"/>
     </row>
     <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="177" t="s">
+      <c r="G260" s="172" t="s">
         <v>472</v>
       </c>
-      <c r="H260" s="183" t="s">
+      <c r="H260" s="174" t="s">
         <v>523</v>
       </c>
-      <c r="I260" s="177"/>
+      <c r="I260" s="172"/>
       <c r="J260" s="97" t="s">
         <v>408</v>
       </c>
@@ -14434,9 +14497,9 @@
       <c r="R260" s="97"/>
     </row>
     <row r="261" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G261" s="178"/>
-      <c r="H261" s="185"/>
-      <c r="I261" s="178"/>
+      <c r="G261" s="176"/>
+      <c r="H261" s="177"/>
+      <c r="I261" s="176"/>
       <c r="J261" s="97" t="s">
         <v>409</v>
       </c>
@@ -14450,9 +14513,9 @@
       <c r="R261" s="97"/>
     </row>
     <row r="262" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G262" s="179"/>
-      <c r="H262" s="184"/>
-      <c r="I262" s="179"/>
+      <c r="G262" s="173"/>
+      <c r="H262" s="175"/>
+      <c r="I262" s="173"/>
       <c r="J262" s="97" t="s">
         <v>414</v>
       </c>
@@ -14466,13 +14529,13 @@
       <c r="R262" s="97"/>
     </row>
     <row r="263" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G263" s="177" t="s">
+      <c r="G263" s="172" t="s">
         <v>524</v>
       </c>
-      <c r="H263" s="183" t="s">
+      <c r="H263" s="174" t="s">
         <v>525</v>
       </c>
-      <c r="I263" s="186">
+      <c r="I263" s="178">
         <v>0.89</v>
       </c>
       <c r="J263" s="97" t="s">
@@ -14488,9 +14551,9 @@
       <c r="R263" s="97"/>
     </row>
     <row r="264" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G264" s="178"/>
-      <c r="H264" s="185"/>
-      <c r="I264" s="187"/>
+      <c r="G264" s="176"/>
+      <c r="H264" s="177"/>
+      <c r="I264" s="179"/>
       <c r="J264" s="97" t="s">
         <v>409</v>
       </c>
@@ -14504,9 +14567,9 @@
       <c r="R264" s="97"/>
     </row>
     <row r="265" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G265" s="179"/>
-      <c r="H265" s="184"/>
-      <c r="I265" s="188"/>
+      <c r="G265" s="173"/>
+      <c r="H265" s="175"/>
+      <c r="I265" s="180"/>
       <c r="J265" s="97" t="s">
         <v>414</v>
       </c>
@@ -14520,13 +14583,13 @@
       <c r="R265" s="97"/>
     </row>
     <row r="266" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G266" s="177" t="s">
+      <c r="G266" s="172" t="s">
         <v>471</v>
       </c>
-      <c r="H266" s="183" t="s">
+      <c r="H266" s="174" t="s">
         <v>526</v>
       </c>
-      <c r="I266" s="186">
+      <c r="I266" s="178">
         <v>0.9</v>
       </c>
       <c r="J266" s="97" t="s">
@@ -14559,9 +14622,9 @@
       </c>
     </row>
     <row r="267" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G267" s="178"/>
-      <c r="H267" s="185"/>
-      <c r="I267" s="187"/>
+      <c r="G267" s="176"/>
+      <c r="H267" s="177"/>
+      <c r="I267" s="179"/>
       <c r="J267" s="97" t="s">
         <v>409</v>
       </c>
@@ -14592,9 +14655,9 @@
       </c>
     </row>
     <row r="268" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G268" s="179"/>
-      <c r="H268" s="184"/>
-      <c r="I268" s="188"/>
+      <c r="G268" s="173"/>
+      <c r="H268" s="175"/>
+      <c r="I268" s="180"/>
       <c r="J268" s="97" t="s">
         <v>414</v>
       </c>
@@ -14625,13 +14688,13 @@
       </c>
     </row>
     <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G269" s="189" t="s">
+      <c r="G269" s="181" t="s">
         <v>470</v>
       </c>
-      <c r="H269" s="183" t="s">
+      <c r="H269" s="174" t="s">
         <v>526</v>
       </c>
-      <c r="I269" s="186">
+      <c r="I269" s="178">
         <v>0.72</v>
       </c>
       <c r="J269" s="97" t="s">
@@ -14664,9 +14727,9 @@
       </c>
     </row>
     <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G270" s="190"/>
-      <c r="H270" s="185"/>
-      <c r="I270" s="187"/>
+      <c r="G270" s="182"/>
+      <c r="H270" s="177"/>
+      <c r="I270" s="179"/>
       <c r="J270" s="97" t="s">
         <v>409</v>
       </c>
@@ -14697,9 +14760,9 @@
       </c>
     </row>
     <row r="271" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G271" s="191"/>
-      <c r="H271" s="184"/>
-      <c r="I271" s="188"/>
+      <c r="G271" s="183"/>
+      <c r="H271" s="175"/>
+      <c r="I271" s="180"/>
       <c r="J271" s="97" t="s">
         <v>414</v>
       </c>
@@ -14743,10 +14806,10 @@
       <c r="J274" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="K274" s="177" t="s">
+      <c r="K274" s="172" t="s">
         <v>519</v>
       </c>
-      <c r="L274" s="183" t="s">
+      <c r="L274" s="174" t="s">
         <v>520</v>
       </c>
       <c r="M274" s="95" t="s">
@@ -14766,8 +14829,8 @@
       <c r="J275" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="K275" s="179"/>
-      <c r="L275" s="184"/>
+      <c r="K275" s="173"/>
+      <c r="L275" s="175"/>
       <c r="M275" s="96" t="s">
         <v>515</v>
       </c>
@@ -15049,32 +15112,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="I266:I268"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="I269:I271"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="I260:I262"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="H256:H259"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="J256:R256"/>
-    <mergeCell ref="K257:R257"/>
-    <mergeCell ref="O258:O259"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="R258:R259"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -15084,6 +15121,32 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:R256"/>
+    <mergeCell ref="K257:R257"/>
+    <mergeCell ref="O258:O259"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="R258:R259"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="I269:I271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15110,24 +15173,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="150" t="s">
         <v>530</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="138" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="150" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
@@ -15154,7 +15217,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -15183,7 +15246,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
@@ -15210,7 +15273,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
@@ -15237,7 +15300,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="134" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -15266,7 +15329,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="24" t="s">
         <v>119</v>
       </c>
@@ -15293,7 +15356,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="24" t="s">
         <v>127</v>
       </c>
@@ -15320,7 +15383,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -15349,7 +15412,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="24" t="s">
         <v>91</v>
       </c>
@@ -15377,7 +15440,7 @@
       <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="24" t="s">
         <v>159</v>
       </c>
@@ -15400,7 +15463,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="134" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -15429,7 +15492,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="24"/>
       <c r="C13" s="101"/>
       <c r="D13" s="24"/>

--- a/全部算法统计.xlsx
+++ b/全部算法统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="547">
   <si>
     <t>算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,16 +2036,69 @@
     <t>模乘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占整个架构面积比例</t>
+    </r>
+  </si>
+  <si>
+    <t>阵列面积冗余比例</t>
+  </si>
+  <si>
+    <t>整体面积冗余比例</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+  </si>
+  <si>
+    <t>综合利用率</t>
+  </si>
+  <si>
+    <t>[1,2005]</t>
+  </si>
+  <si>
+    <t>[2,2007]</t>
+  </si>
+  <si>
+    <t>RPU</t>
+  </si>
+  <si>
+    <t>[2015]</t>
+  </si>
+  <si>
+    <t>Cryptor[ICCAD‘2014]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,8 +2180,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2177,8 +2259,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2476,6 +2570,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2483,7 +2651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2780,6 +2948,24 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,20 +3014,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2855,20 +3041,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2888,6 +3086,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,41 +3104,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2951,15 +3131,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2984,21 +3155,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3020,33 +3215,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3774,53 +4042,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="116" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="117"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="107"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="110" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3843,7 +4111,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +4126,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3879,7 +4147,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3900,7 +4168,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="110" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3912,11 +4180,11 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="116" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3927,7 +4195,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3937,9 +4205,9 @@
       <c r="D8" s="9">
         <v>0.13263888888888889</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3948,7 +4216,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="110" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3980,7 +4248,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -4010,7 +4278,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4040,10 +4308,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="106"/>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -4064,10 +4332,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="2">
         <v>32</v>
       </c>
@@ -4085,10 +4353,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="106"/>
       <c r="F14" s="6" t="s">
         <v>340</v>
       </c>
@@ -4106,10 +4374,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="2">
         <v>32</v>
       </c>
@@ -4124,7 +4392,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="107" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -4148,7 +4416,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4170,7 +4438,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="12" t="s">
         <v>252</v>
       </c>
@@ -4183,11 +4451,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -4201,6 +4464,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4231,31 +4499,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="116" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="129" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="126" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="130"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="110" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4270,7 +4538,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4279,7 +4547,7 @@
       <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4292,7 +4560,7 @@
       <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +4573,7 @@
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="110" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4317,13 +4585,13 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="128" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105"/>
-      <c r="B8" s="125" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="131" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -4332,24 +4600,24 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="129"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="2">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9" s="133"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="131" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -4363,8 +4631,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -4376,7 +4644,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -4391,8 +4659,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="133" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -4406,8 +4674,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="2">
         <v>32</v>
       </c>
@@ -4419,10 +4687,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>10</v>
@@ -4432,10 +4700,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="121"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="2">
         <v>32</v>
       </c>
@@ -4445,10 +4713,10 @@
       <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="121"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="83" t="s">
@@ -4458,12 +4726,6 @@
     <row r="18" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -4471,6 +4733,12 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4511,83 +4779,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="152"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="141"/>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="150" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="150" t="s">
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="141"/>
     </row>
     <row r="3" spans="1:27" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
@@ -4650,13 +4918,13 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="150" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -4709,9 +4977,9 @@
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="144"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="24" t="s">
         <v>75</v>
       </c>
@@ -4762,9 +5030,9 @@
       <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
@@ -4815,9 +5083,9 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4850,9 +5118,9 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4879,13 +5147,13 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="147" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -4926,9 +5194,9 @@
       <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4955,9 +5223,9 @@
       <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4984,9 +5252,9 @@
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -5013,9 +5281,9 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5042,13 +5310,13 @@
       <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="147" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -5107,9 +5375,9 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="24" t="s">
         <v>119</v>
       </c>
@@ -5160,9 +5428,9 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="24" t="s">
         <v>127</v>
       </c>
@@ -5213,9 +5481,9 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="24" t="s">
         <v>113</v>
       </c>
@@ -5260,9 +5528,9 @@
       <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -5289,13 +5557,13 @@
       <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="147" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5360,9 +5628,9 @@
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
       <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
@@ -5425,9 +5693,9 @@
       <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="141"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="24" t="s">
         <v>159</v>
       </c>
@@ -5472,9 +5740,9 @@
       <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5507,9 +5775,9 @@
       <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5536,13 +5804,13 @@
       <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="147" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="147" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5595,9 +5863,9 @@
       <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5630,9 +5898,9 @@
       <c r="AA25" s="28"/>
     </row>
     <row r="26" spans="1:27" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5665,9 +5933,9 @@
       <c r="AA26" s="28"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5694,9 +5962,9 @@
       <c r="AA27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5723,13 +5991,13 @@
       <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="147" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -5782,9 +6050,9 @@
       <c r="AA29" s="28"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5817,9 +6085,9 @@
       <c r="AA30" s="28"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5852,9 +6120,9 @@
       <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -5881,9 +6149,9 @@
       <c r="AA32" s="28"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="136"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5910,13 +6178,13 @@
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="147" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="147" t="s">
         <v>202</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -5981,9 +6249,9 @@
       <c r="AA34" s="28"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="148"/>
       <c r="D35" s="24" t="s">
         <v>218</v>
       </c>
@@ -6034,9 +6302,9 @@
       <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
       <c r="D36" s="24" t="s">
         <v>223</v>
       </c>
@@ -6067,9 +6335,9 @@
       <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="135"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
       <c r="D37" s="24" t="s">
         <v>197</v>
       </c>
@@ -6100,9 +6368,9 @@
       <c r="AA37" s="28"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
+      <c r="A38" s="146"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -6364,26 +6632,6 @@
     <row r="46" spans="1:27" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
@@ -6393,6 +6641,26 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:AA1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6456,83 +6724,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="138" t="s">
         <v>48</v>
       </c>
-     